--- a/default/forms/app/delivery_plus_plus.xlsx
+++ b/default/forms/app/delivery_plus_plus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>type</t>
   </si>
@@ -330,25 +330,10 @@
     <t xml:space="preserve">../delivery_conductor = 'other'</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one babies_born_alive</t>
-  </si>
-  <si>
-    <t>babies_alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Were any babies born alive?</t>
-  </si>
-  <si>
-    <t>columns-pack</t>
-  </si>
-  <si>
     <t xml:space="preserve">begin repeat</t>
   </si>
   <si>
     <t>baby_repeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../delivery_outcome/babies_alive = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">if(${babies_delivered_num} = 0 or ${baby_repeat}[position()=${babies_delivered_num}]/baby_danger_signs/more_babies = 'yes', ${babies_delivered_num} + 1, ${babies_delivered_num})</t>
@@ -546,13 +531,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">select_one more_alive_babies</t>
+    <t xml:space="preserve">select_one more_babies</t>
   </si>
   <si>
     <t>more_babies</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you want to record any other babies?</t>
+    <t xml:space="preserve">Are there any other babies to record?</t>
   </si>
   <si>
     <t xml:space="preserve">columns-pack no-buttons</t>
@@ -1149,16 +1134,10 @@
     <t xml:space="preserve">Traditional birth attendant</t>
   </si>
   <si>
-    <t>babies_born_alive</t>
-  </si>
-  <si>
     <t>babies_yes.png</t>
   </si>
   <si>
     <t>babies_no.png</t>
-  </si>
-  <si>
-    <t>more_alive_babies</t>
   </si>
   <si>
     <t>life_conditions_baby</t>
@@ -1414,7 +1393,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1447,6 +1426,7 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1918,7 +1898,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A31" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A67" zoomScale="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
@@ -3197,23 +3177,15 @@
     </row>
     <row r="46" s="11" customFormat="1" ht="12.75">
       <c r="A46" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="14"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -3227,114 +3199,117 @@
       <c r="AMI46" s="11"/>
       <c r="AMJ46" s="11"/>
     </row>
-    <row r="47" s="11" customFormat="1" ht="12.75">
-      <c r="A47" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="11"/>
-      <c r="AMF47" s="11"/>
-      <c r="AMG47" s="11"/>
-      <c r="AMH47" s="11"/>
-      <c r="AMI47" s="11"/>
-      <c r="AMJ47" s="11"/>
-    </row>
-    <row r="48" s="0" customFormat="1" ht="12.75">
-      <c r="N48" s="7"/>
+    <row r="47" s="0" customFormat="1" ht="12.75">
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" s="11" customFormat="1" ht="12.75">
+      <c r="A48" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N48" s="14"/>
+      <c r="AMF48" s="11"/>
+      <c r="AMG48" s="11"/>
+      <c r="AMH48" s="11"/>
+      <c r="AMI48" s="11"/>
+      <c r="AMJ48" s="11"/>
     </row>
     <row r="49" s="11" customFormat="1" ht="12.75">
       <c r="A49" s="13" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="M49" s="11"/>
       <c r="N49" s="14"/>
+      <c r="O49" s="11"/>
       <c r="AMF49" s="11"/>
       <c r="AMG49" s="11"/>
       <c r="AMH49" s="11"/>
       <c r="AMI49" s="11"/>
       <c r="AMJ49" s="11"/>
+      <c r="AMK49" s="11"/>
     </row>
     <row r="50" s="11" customFormat="1" ht="12.75">
       <c r="A50" s="13" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="11"/>
+      <c r="G50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="14"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="14"/>
-      <c r="O50" s="11"/>
       <c r="AMF50" s="11"/>
       <c r="AMG50" s="11"/>
       <c r="AMH50" s="11"/>
       <c r="AMI50" s="11"/>
       <c r="AMJ50" s="11"/>
-      <c r="AMK50" s="11"/>
     </row>
     <row r="51" s="11" customFormat="1" ht="12.75">
       <c r="A51" s="13" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="14"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -3349,13 +3324,13 @@
     </row>
     <row r="52" s="11" customFormat="1" ht="12.75">
       <c r="A52" s="13" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>52</v>
@@ -3378,13 +3353,13 @@
     </row>
     <row r="53" s="11" customFormat="1" ht="12.75">
       <c r="A53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>52</v>
@@ -3407,23 +3382,33 @@
     </row>
     <row r="54" s="11" customFormat="1" ht="12.75">
       <c r="A54" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
@@ -3436,37 +3421,28 @@
     </row>
     <row r="55" s="11" customFormat="1" ht="12.75">
       <c r="A55" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>17</v>
+        <v>126</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="14"/>
+      <c r="O55" s="11"/>
       <c r="AMF55" s="11"/>
       <c r="AMG55" s="11"/>
       <c r="AMH55" s="11"/>
@@ -3475,23 +3451,33 @@
     </row>
     <row r="56" s="11" customFormat="1" ht="12.75">
       <c r="A56" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -3505,38 +3491,29 @@
     </row>
     <row r="57" s="11" customFormat="1" ht="12.75">
       <c r="A57" s="13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>17</v>
+        <v>135</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="11" t="s">
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J57" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="14"/>
-      <c r="O57" s="11"/>
       <c r="AMF57" s="11"/>
       <c r="AMG57" s="11"/>
       <c r="AMH57" s="11"/>
@@ -3545,29 +3522,29 @@
     </row>
     <row r="58" s="11" customFormat="1" ht="12.75">
       <c r="A58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="14"/>
+      <c r="N58" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="AMF58" s="11"/>
       <c r="AMG58" s="11"/>
       <c r="AMH58" s="11"/>
@@ -3576,18 +3553,18 @@
     </row>
     <row r="59" s="11" customFormat="1" ht="12.75">
       <c r="A59" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -3596,9 +3573,7 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="N59" s="14"/>
       <c r="AMF59" s="11"/>
       <c r="AMG59" s="11"/>
       <c r="AMH59" s="11"/>
@@ -3610,10 +3585,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>52</v>
@@ -3636,17 +3611,13 @@
     </row>
     <row r="61" s="11" customFormat="1" ht="12.75">
       <c r="A61" s="13" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -3663,59 +3634,63 @@
       <c r="AMI61" s="11"/>
       <c r="AMJ61" s="11"/>
     </row>
-    <row r="62" s="11" customFormat="1" ht="12.75">
-      <c r="A62" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="14"/>
-      <c r="AMF62" s="11"/>
-      <c r="AMG62" s="11"/>
-      <c r="AMH62" s="11"/>
-      <c r="AMI62" s="11"/>
-      <c r="AMJ62" s="11"/>
-    </row>
-    <row r="63" s="0" customFormat="1" ht="12.75">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="N63" s="7"/>
+    <row r="62" s="0" customFormat="1" ht="12.75">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" s="11" customFormat="1" ht="12.75">
+      <c r="A63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="14"/>
+      <c r="AMF63" s="11"/>
+      <c r="AMG63" s="11"/>
+      <c r="AMH63" s="11"/>
+      <c r="AMI63" s="11"/>
+      <c r="AMJ63" s="11"/>
     </row>
     <row r="64" s="11" customFormat="1" ht="12.75">
       <c r="A64" s="13" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="N64" s="14"/>
+      <c r="N64" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="AMF64" s="11"/>
       <c r="AMG64" s="11"/>
       <c r="AMH64" s="11"/>
@@ -3723,28 +3698,30 @@
       <c r="AMJ64" s="11"/>
     </row>
     <row r="65" s="11" customFormat="1" ht="12.75">
-      <c r="A65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>151</v>
+      <c r="A65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-      <c r="N65" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="N65" s="14"/>
       <c r="AMF65" s="11"/>
       <c r="AMG65" s="11"/>
       <c r="AMH65" s="11"/>
@@ -3752,22 +3729,22 @@
       <c r="AMJ65" s="11"/>
     </row>
     <row r="66" s="11" customFormat="1" ht="12.75">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>153</v>
+      <c r="B66" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
-        <v>2</v>
+      <c r="G66" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -3787,10 +3764,10 @@
         <v>60</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>52</v>
@@ -3818,10 +3795,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>52</v>
@@ -3849,10 +3826,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>52</v>
@@ -3880,10 +3857,10 @@
         <v>60</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>52</v>
@@ -3911,10 +3888,10 @@
         <v>60</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>52</v>
@@ -3942,10 +3919,10 @@
         <v>60</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>52</v>
@@ -3973,10 +3950,10 @@
         <v>60</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>52</v>
@@ -4004,10 +3981,10 @@
         <v>60</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>52</v>
@@ -4030,24 +4007,22 @@
       <c r="AMI74" s="11"/>
       <c r="AMJ74" s="11"/>
     </row>
-    <row r="75" s="11" customFormat="1" ht="12.75">
+    <row r="75" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A75" s="13" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="F75" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -4062,21 +4037,23 @@
       <c r="AMJ75" s="11"/>
     </row>
     <row r="76" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="13" t="s">
-        <v>33</v>
+      <c r="A76" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -4090,22 +4067,18 @@
       <c r="AMI76" s="11"/>
       <c r="AMJ76" s="11"/>
     </row>
-    <row r="77" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="77" s="11" customFormat="1" ht="12.75">
       <c r="A77" s="13" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>174</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="17" t="s">
-        <v>175</v>
-      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -4121,10 +4094,10 @@
     </row>
     <row r="78" s="11" customFormat="1" ht="12.75">
       <c r="A78" s="13" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -4137,59 +4110,61 @@
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
-      <c r="N78" s="14"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
       <c r="AMF78" s="11"/>
       <c r="AMG78" s="11"/>
       <c r="AMH78" s="11"/>
       <c r="AMI78" s="11"/>
       <c r="AMJ78" s="11"/>
-    </row>
-    <row r="79" s="11" customFormat="1" ht="12.75">
-      <c r="A79" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="AMF79" s="11"/>
-      <c r="AMG79" s="11"/>
-      <c r="AMH79" s="11"/>
-      <c r="AMI79" s="11"/>
-      <c r="AMJ79" s="11"/>
-      <c r="AMK79" s="11"/>
-    </row>
-    <row r="80" s="0" customFormat="1" ht="12.75"/>
+      <c r="AMK78" s="11"/>
+    </row>
+    <row r="79" s="0" customFormat="1" ht="12.75"/>
+    <row r="80" s="11" customFormat="1" ht="12.75">
+      <c r="A80" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="AMF80" s="11"/>
+      <c r="AMG80" s="11"/>
+      <c r="AMH80" s="11"/>
+      <c r="AMI80" s="11"/>
+      <c r="AMJ80" s="11"/>
+    </row>
     <row r="81" s="11" customFormat="1" ht="12.75">
       <c r="A81" s="13" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>179</v>
-      </c>
+      <c r="E81" s="11"/>
       <c r="F81" s="11"/>
-      <c r="G81" s="11" t="s">
-        <v>180</v>
-      </c>
+      <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
@@ -4208,10 +4183,10 @@
         <v>57</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
@@ -4235,10 +4210,10 @@
         <v>57</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -4251,21 +4226,23 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
       <c r="AMF83" s="11"/>
       <c r="AMG83" s="11"/>
       <c r="AMH83" s="11"/>
       <c r="AMI83" s="11"/>
       <c r="AMJ83" s="11"/>
+      <c r="AMK83" s="11"/>
     </row>
     <row r="84" s="11" customFormat="1" ht="12.75">
       <c r="A84" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -4278,23 +4255,21 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
       <c r="AMF84" s="11"/>
       <c r="AMG84" s="11"/>
       <c r="AMH84" s="11"/>
       <c r="AMI84" s="11"/>
       <c r="AMJ84" s="11"/>
-      <c r="AMK84" s="11"/>
     </row>
     <row r="85" s="11" customFormat="1" ht="12.75">
       <c r="A85" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -4315,14 +4290,10 @@
     </row>
     <row r="86" s="11" customFormat="1" ht="12.75">
       <c r="A86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>190</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -4340,48 +4311,52 @@
       <c r="AMI86" s="11"/>
       <c r="AMJ86" s="11"/>
     </row>
-    <row r="87" s="11" customFormat="1" ht="12.75">
-      <c r="A87" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="AMF87" s="11"/>
-      <c r="AMG87" s="11"/>
-      <c r="AMH87" s="11"/>
-      <c r="AMI87" s="11"/>
-      <c r="AMJ87" s="11"/>
-    </row>
-    <row r="88" s="0" customFormat="1" ht="12.75"/>
-    <row r="89" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="87" s="0" customFormat="1" ht="12.75"/>
+    <row r="88" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A88" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="AMF88" s="11"/>
+      <c r="AMG88" s="11"/>
+      <c r="AMH88" s="11"/>
+      <c r="AMI88" s="11"/>
+      <c r="AMJ88" s="11"/>
+    </row>
+    <row r="89" s="11" customFormat="1" ht="12.75">
       <c r="A89" s="13" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="15" t="s">
-        <v>193</v>
-      </c>
+      <c r="E89" s="11"/>
       <c r="F89" s="11"/>
-      <c r="G89" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
@@ -4397,25 +4372,30 @@
     </row>
     <row r="90" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="13" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="I90" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
+      <c r="O90" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AMF90" s="11"/>
       <c r="AMG90" s="11"/>
       <c r="AMH90" s="11"/>
@@ -4440,14 +4420,13 @@
       <c r="I91" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="J91" s="11"/>
+      <c r="J91" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
-      <c r="O91" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="AMF91" s="11"/>
       <c r="AMG91" s="11"/>
       <c r="AMH91" s="11"/>
@@ -4456,25 +4435,23 @@
     </row>
     <row r="92" s="11" customFormat="1" ht="12.75">
       <c r="A92" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B92" s="13" t="s">
-        <v>202</v>
-      </c>
       <c r="C92" s="11" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="F92" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
-      <c r="I92" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>205</v>
-      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
@@ -4487,19 +4464,13 @@
     </row>
     <row r="93" s="11" customFormat="1" ht="12.75">
       <c r="A93" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
@@ -4514,1801 +4485,1779 @@
       <c r="AMI93" s="11"/>
       <c r="AMJ93" s="11"/>
     </row>
-    <row r="94" s="11" customFormat="1" ht="12.75">
-      <c r="A94" s="13" t="s">
+    <row r="94" ht="12.75"/>
+    <row r="95" s="19" customFormat="1" ht="12.75">
+      <c r="A95" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="AMF95" s="19"/>
+      <c r="AMG95" s="19"/>
+      <c r="AMH95" s="19"/>
+      <c r="AMI95" s="19"/>
+      <c r="AMJ95" s="19"/>
+    </row>
+    <row r="96" s="19" customFormat="1" ht="12.75">
+      <c r="A96" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="AMF96" s="19"/>
+      <c r="AMG96" s="19"/>
+      <c r="AMH96" s="19"/>
+      <c r="AMI96" s="19"/>
+      <c r="AMJ96" s="19"/>
+    </row>
+    <row r="97" s="19" customFormat="1" ht="12.75">
+      <c r="A97" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="AMF97" s="19"/>
+      <c r="AMG97" s="19"/>
+      <c r="AMH97" s="19"/>
+      <c r="AMI97" s="19"/>
+      <c r="AMJ97" s="19"/>
+    </row>
+    <row r="98" s="19" customFormat="1" ht="12.75">
+      <c r="A98" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="AMF98" s="19"/>
+      <c r="AMG98" s="19"/>
+      <c r="AMH98" s="19"/>
+      <c r="AMI98" s="19"/>
+      <c r="AMJ98" s="19"/>
+    </row>
+    <row r="99" s="19" customFormat="1" ht="12.75">
+      <c r="A99" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="AMF99" s="19"/>
+      <c r="AMG99" s="19"/>
+      <c r="AMH99" s="19"/>
+      <c r="AMI99" s="19"/>
+      <c r="AMJ99" s="19"/>
+    </row>
+    <row r="100" s="19" customFormat="1" ht="12.75">
+      <c r="A100" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="AMF100" s="19"/>
+      <c r="AMG100" s="19"/>
+      <c r="AMH100" s="19"/>
+      <c r="AMI100" s="19"/>
+      <c r="AMJ100" s="19"/>
+    </row>
+    <row r="101" s="19" customFormat="1" ht="12.75">
+      <c r="A101" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="AMF101" s="19"/>
+      <c r="AMG101" s="19"/>
+      <c r="AMH101" s="19"/>
+      <c r="AMI101" s="19"/>
+      <c r="AMJ101" s="19"/>
+    </row>
+    <row r="102" s="19" customFormat="1" ht="12.75">
+      <c r="A102" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="AMF102" s="19"/>
+      <c r="AMG102" s="19"/>
+      <c r="AMH102" s="19"/>
+      <c r="AMI102" s="19"/>
+      <c r="AMJ102" s="19"/>
+    </row>
+    <row r="103" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A103" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="AMF103" s="19"/>
+      <c r="AMG103" s="19"/>
+      <c r="AMH103" s="19"/>
+      <c r="AMI103" s="19"/>
+      <c r="AMJ103" s="19"/>
+    </row>
+    <row r="104" s="19" customFormat="1" ht="12.75">
+      <c r="A104" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="AMF104" s="19"/>
+      <c r="AMG104" s="19"/>
+      <c r="AMH104" s="19"/>
+      <c r="AMI104" s="19"/>
+      <c r="AMJ104" s="19"/>
+    </row>
+    <row r="105" s="19" customFormat="1" ht="12.75">
+      <c r="A105" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="AMF105" s="19"/>
+      <c r="AMG105" s="19"/>
+      <c r="AMH105" s="19"/>
+      <c r="AMI105" s="19"/>
+      <c r="AMJ105" s="19"/>
+    </row>
+    <row r="106" s="19" customFormat="1" ht="12.75">
+      <c r="A106" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="AMF106" s="19"/>
+      <c r="AMG106" s="19"/>
+      <c r="AMH106" s="19"/>
+      <c r="AMI106" s="19"/>
+      <c r="AMJ106" s="19"/>
+    </row>
+    <row r="107" s="19" customFormat="1" ht="12.75">
+      <c r="A107" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="AMF107" s="19"/>
+      <c r="AMG107" s="19"/>
+      <c r="AMH107" s="19"/>
+      <c r="AMI107" s="19"/>
+      <c r="AMJ107" s="19"/>
+    </row>
+    <row r="108" s="19" customFormat="1" ht="12.75">
+      <c r="A108" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="AMF108" s="19"/>
+      <c r="AMG108" s="19"/>
+      <c r="AMH108" s="19"/>
+      <c r="AMI108" s="19"/>
+      <c r="AMJ108" s="19"/>
+    </row>
+    <row r="109" s="19" customFormat="1" ht="12.75">
+      <c r="A109" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="AMF109" s="19"/>
+      <c r="AMG109" s="19"/>
+      <c r="AMH109" s="19"/>
+      <c r="AMI109" s="19"/>
+      <c r="AMJ109" s="19"/>
+    </row>
+    <row r="110" s="19" customFormat="1" ht="12.75">
+      <c r="A110" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="AMF110" s="19"/>
+      <c r="AMG110" s="19"/>
+      <c r="AMH110" s="19"/>
+      <c r="AMI110" s="19"/>
+      <c r="AMJ110" s="19"/>
+    </row>
+    <row r="111" s="19" customFormat="1" ht="12.75">
+      <c r="A111" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="AMF111" s="19"/>
+      <c r="AMG111" s="19"/>
+      <c r="AMH111" s="19"/>
+      <c r="AMI111" s="19"/>
+      <c r="AMJ111" s="19"/>
+    </row>
+    <row r="112" s="19" customFormat="1" ht="12.75">
+      <c r="A112" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="AMF112" s="19"/>
+      <c r="AMG112" s="19"/>
+      <c r="AMH112" s="19"/>
+      <c r="AMI112" s="19"/>
+      <c r="AMJ112" s="19"/>
+    </row>
+    <row r="113" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A113" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="AMF113" s="19"/>
+      <c r="AMG113" s="19"/>
+      <c r="AMH113" s="19"/>
+      <c r="AMI113" s="19"/>
+      <c r="AMJ113" s="19"/>
+    </row>
+    <row r="114" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A114" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="AMF114" s="19"/>
+      <c r="AMG114" s="19"/>
+      <c r="AMH114" s="19"/>
+      <c r="AMI114" s="19"/>
+      <c r="AMJ114" s="19"/>
+    </row>
+    <row r="115" s="19" customFormat="1" ht="12.75">
+      <c r="A115" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="AMF115" s="19"/>
+      <c r="AMG115" s="19"/>
+      <c r="AMH115" s="19"/>
+      <c r="AMI115" s="19"/>
+      <c r="AMJ115" s="19"/>
+    </row>
+    <row r="116" s="19" customFormat="1" ht="12.75">
+      <c r="A116" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="AMF116" s="19"/>
+      <c r="AMG116" s="19"/>
+      <c r="AMH116" s="19"/>
+      <c r="AMI116" s="19"/>
+      <c r="AMJ116" s="19"/>
+    </row>
+    <row r="117" s="19" customFormat="1" ht="12.75">
+      <c r="A117" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="AMF117" s="19"/>
+      <c r="AMG117" s="19"/>
+      <c r="AMH117" s="19"/>
+      <c r="AMI117" s="19"/>
+      <c r="AMJ117" s="19"/>
+    </row>
+    <row r="118" s="19" customFormat="1" ht="12.75">
+      <c r="A118" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="AMF118" s="19"/>
+      <c r="AMG118" s="19"/>
+      <c r="AMH118" s="19"/>
+      <c r="AMI118" s="19"/>
+      <c r="AMJ118" s="19"/>
+    </row>
+    <row r="119" s="19" customFormat="1" ht="12.75">
+      <c r="A119" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="AMF119" s="19"/>
+      <c r="AMG119" s="19"/>
+      <c r="AMH119" s="19"/>
+      <c r="AMI119" s="19"/>
+      <c r="AMJ119" s="19"/>
+    </row>
+    <row r="120" s="19" customFormat="1" ht="12.75">
+      <c r="A120" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="AMF120" s="19"/>
+      <c r="AMG120" s="19"/>
+      <c r="AMH120" s="19"/>
+      <c r="AMI120" s="19"/>
+      <c r="AMJ120" s="19"/>
+    </row>
+    <row r="121" s="19" customFormat="1" ht="12.75">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="AMF121" s="19"/>
+      <c r="AMG121" s="19"/>
+      <c r="AMH121" s="19"/>
+      <c r="AMI121" s="19"/>
+      <c r="AMJ121" s="19"/>
+    </row>
+    <row r="122" s="19" customFormat="1" ht="12.75">
+      <c r="A122" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="AMF122" s="19"/>
+      <c r="AMG122" s="19"/>
+      <c r="AMH122" s="19"/>
+      <c r="AMI122" s="19"/>
+      <c r="AMJ122" s="19"/>
+    </row>
+    <row r="123" s="19" customFormat="1" ht="12.75">
+      <c r="A123" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="AMF123" s="19"/>
+      <c r="AMG123" s="19"/>
+      <c r="AMH123" s="19"/>
+      <c r="AMI123" s="19"/>
+      <c r="AMJ123" s="19"/>
+    </row>
+    <row r="124" s="19" customFormat="1" ht="12.75">
+      <c r="A124" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="AMF124" s="19"/>
+      <c r="AMG124" s="19"/>
+      <c r="AMH124" s="19"/>
+      <c r="AMI124" s="19"/>
+      <c r="AMJ124" s="19"/>
+    </row>
+    <row r="125" s="19" customFormat="1" ht="12.75">
+      <c r="A125" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="AMF125" s="19"/>
+      <c r="AMG125" s="19"/>
+      <c r="AMH125" s="19"/>
+      <c r="AMI125" s="19"/>
+      <c r="AMJ125" s="19"/>
+    </row>
+    <row r="126" s="19" customFormat="1" ht="12.75">
+      <c r="A126" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="AMF126" s="19"/>
+      <c r="AMG126" s="19"/>
+      <c r="AMH126" s="19"/>
+      <c r="AMI126" s="19"/>
+      <c r="AMJ126" s="19"/>
+    </row>
+    <row r="127" s="19" customFormat="1" ht="12.75">
+      <c r="A127" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="AMF127" s="19"/>
+      <c r="AMG127" s="19"/>
+      <c r="AMH127" s="19"/>
+      <c r="AMI127" s="19"/>
+      <c r="AMJ127" s="19"/>
+    </row>
+    <row r="128" s="19" customFormat="1" ht="12.75">
+      <c r="A128" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="AMF128" s="19"/>
+      <c r="AMG128" s="19"/>
+      <c r="AMH128" s="19"/>
+      <c r="AMI128" s="19"/>
+      <c r="AMJ128" s="19"/>
+    </row>
+    <row r="129" s="19" customFormat="1" ht="12.75">
+      <c r="A129" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="AMF129" s="19"/>
+      <c r="AMG129" s="19"/>
+      <c r="AMH129" s="19"/>
+      <c r="AMI129" s="19"/>
+      <c r="AMJ129" s="19"/>
+    </row>
+    <row r="130" s="19" customFormat="1" ht="12.75">
+      <c r="A130" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="AMF130" s="19"/>
+      <c r="AMG130" s="19"/>
+      <c r="AMH130" s="19"/>
+      <c r="AMI130" s="19"/>
+      <c r="AMJ130" s="19"/>
+    </row>
+    <row r="131" s="19" customFormat="1" ht="12.75">
+      <c r="A131" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="AMF131" s="19"/>
+      <c r="AMG131" s="19"/>
+      <c r="AMH131" s="19"/>
+      <c r="AMI131" s="19"/>
+      <c r="AMJ131" s="19"/>
+    </row>
+    <row r="132" s="19" customFormat="1" ht="12.75">
+      <c r="A132" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="AMF132" s="19"/>
+      <c r="AMG132" s="19"/>
+      <c r="AMH132" s="19"/>
+      <c r="AMI132" s="19"/>
+      <c r="AMJ132" s="19"/>
+    </row>
+    <row r="133" s="19" customFormat="1" ht="12.75">
+      <c r="A133" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="AMF133" s="19"/>
+      <c r="AMG133" s="19"/>
+      <c r="AMH133" s="19"/>
+      <c r="AMI133" s="19"/>
+      <c r="AMJ133" s="19"/>
+    </row>
+    <row r="134" s="19" customFormat="1" ht="12.75">
+      <c r="A134" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="AMF134" s="19"/>
+      <c r="AMG134" s="19"/>
+      <c r="AMH134" s="19"/>
+      <c r="AMI134" s="19"/>
+      <c r="AMJ134" s="19"/>
+    </row>
+    <row r="135" s="19" customFormat="1" ht="12.75">
+      <c r="A135" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="AMF135" s="19"/>
+      <c r="AMG135" s="19"/>
+      <c r="AMH135" s="19"/>
+      <c r="AMI135" s="19"/>
+      <c r="AMJ135" s="19"/>
+    </row>
+    <row r="136" s="19" customFormat="1" ht="12.75">
+      <c r="A136" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="AMF136" s="19"/>
+      <c r="AMG136" s="19"/>
+      <c r="AMH136" s="19"/>
+      <c r="AMI136" s="19"/>
+      <c r="AMJ136" s="19"/>
+    </row>
+    <row r="137" s="19" customFormat="1" ht="12.75">
+      <c r="A137" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="AMF137" s="19"/>
+      <c r="AMG137" s="19"/>
+      <c r="AMH137" s="19"/>
+      <c r="AMI137" s="19"/>
+      <c r="AMJ137" s="19"/>
+    </row>
+    <row r="138" s="19" customFormat="1" ht="12.75">
+      <c r="A138" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="AMF138" s="19"/>
+      <c r="AMG138" s="19"/>
+      <c r="AMH138" s="19"/>
+      <c r="AMI138" s="19"/>
+      <c r="AMJ138" s="19"/>
+    </row>
+    <row r="139" s="19" customFormat="1" ht="12.75">
+      <c r="A139" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="AMF139" s="19"/>
+      <c r="AMG139" s="19"/>
+      <c r="AMH139" s="19"/>
+      <c r="AMI139" s="19"/>
+      <c r="AMJ139" s="19"/>
+    </row>
+    <row r="140" s="19" customFormat="1" ht="12.75">
+      <c r="A140" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="AMF140" s="19"/>
+      <c r="AMG140" s="19"/>
+      <c r="AMH140" s="19"/>
+      <c r="AMI140" s="19"/>
+      <c r="AMJ140" s="19"/>
+    </row>
+    <row r="141" s="0" customFormat="1" ht="12.75">
+      <c r="E141" s="6"/>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A142" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D142" s="19"/>
+      <c r="E142" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="AMF142" s="19"/>
+      <c r="AMG142" s="19"/>
+      <c r="AMH142" s="19"/>
+      <c r="AMI142" s="19"/>
+      <c r="AMJ142" s="19"/>
+    </row>
+    <row r="143" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A143" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="AMF143" s="19"/>
+      <c r="AMG143" s="19"/>
+      <c r="AMH143" s="19"/>
+      <c r="AMI143" s="19"/>
+      <c r="AMJ143" s="19"/>
+    </row>
+    <row r="144" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A144" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+      <c r="AMF144" s="19"/>
+      <c r="AMG144" s="19"/>
+      <c r="AMH144" s="19"/>
+      <c r="AMI144" s="19"/>
+      <c r="AMJ144" s="19"/>
+    </row>
+    <row r="145" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A145" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="AMF145" s="19"/>
+      <c r="AMG145" s="19"/>
+      <c r="AMH145" s="19"/>
+      <c r="AMI145" s="19"/>
+      <c r="AMJ145" s="19"/>
+    </row>
+    <row r="146" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A146" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="AMF146" s="19"/>
+      <c r="AMG146" s="19"/>
+      <c r="AMH146" s="19"/>
+      <c r="AMI146" s="19"/>
+      <c r="AMJ146" s="19"/>
+    </row>
+    <row r="147" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A147" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="AMF147" s="19"/>
+      <c r="AMG147" s="19"/>
+      <c r="AMH147" s="19"/>
+      <c r="AMI147" s="19"/>
+      <c r="AMJ147" s="19"/>
+    </row>
+    <row r="148" s="19" customFormat="1" ht="12.75">
+      <c r="A148" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="AMF148" s="19"/>
+      <c r="AMG148" s="19"/>
+      <c r="AMH148" s="19"/>
+      <c r="AMI148" s="19"/>
+      <c r="AMJ148" s="19"/>
+    </row>
+    <row r="149" s="19" customFormat="1" ht="12.75">
+      <c r="A149" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="AMF149" s="19"/>
+      <c r="AMG149" s="19"/>
+      <c r="AMH149" s="19"/>
+      <c r="AMI149" s="19"/>
+      <c r="AMJ149" s="19"/>
+    </row>
+    <row r="150" s="19" customFormat="1" ht="12.75">
+      <c r="A150" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="AMF150" s="19"/>
+      <c r="AMG150" s="19"/>
+      <c r="AMH150" s="19"/>
+      <c r="AMI150" s="19"/>
+      <c r="AMJ150" s="19"/>
+    </row>
+    <row r="151" s="19" customFormat="1" ht="12.75">
+      <c r="A151" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="AMF151" s="19"/>
+      <c r="AMG151" s="19"/>
+      <c r="AMH151" s="19"/>
+      <c r="AMI151" s="19"/>
+      <c r="AMJ151" s="19"/>
+    </row>
+    <row r="152" s="0" customFormat="1" ht="12.75">
+      <c r="E152" s="6"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" s="19" customFormat="1" ht="12.75">
+      <c r="A153" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="AMF153" s="19"/>
+      <c r="AMG153" s="19"/>
+      <c r="AMH153" s="19"/>
+      <c r="AMI153" s="19"/>
+      <c r="AMJ153" s="19"/>
+    </row>
+    <row r="154" s="19" customFormat="1" ht="12.75">
+      <c r="A154" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="AMF154" s="19"/>
+      <c r="AMG154" s="19"/>
+      <c r="AMH154" s="19"/>
+      <c r="AMI154" s="19"/>
+      <c r="AMJ154" s="19"/>
+    </row>
+    <row r="155" s="19" customFormat="1" ht="12.75">
+      <c r="A155" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="AMF155" s="19"/>
+      <c r="AMG155" s="19"/>
+      <c r="AMH155" s="19"/>
+      <c r="AMI155" s="19"/>
+      <c r="AMJ155" s="19"/>
+    </row>
+    <row r="156" s="19" customFormat="1" ht="12.75">
+      <c r="A156" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="AMF94" s="11"/>
-      <c r="AMG94" s="11"/>
-      <c r="AMH94" s="11"/>
-      <c r="AMI94" s="11"/>
-      <c r="AMJ94" s="11"/>
-    </row>
-    <row r="95" ht="12.75"/>
-    <row r="96" s="18" customFormat="1" ht="12.75">
-      <c r="A96" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="AMF96" s="18"/>
-      <c r="AMG96" s="18"/>
-      <c r="AMH96" s="18"/>
-      <c r="AMI96" s="18"/>
-      <c r="AMJ96" s="18"/>
-    </row>
-    <row r="97" s="18" customFormat="1" ht="12.75">
-      <c r="A97" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="AMF97" s="18"/>
-      <c r="AMG97" s="18"/>
-      <c r="AMH97" s="18"/>
-      <c r="AMI97" s="18"/>
-      <c r="AMJ97" s="18"/>
-    </row>
-    <row r="98" s="18" customFormat="1" ht="12.75">
-      <c r="A98" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="AMF98" s="18"/>
-      <c r="AMG98" s="18"/>
-      <c r="AMH98" s="18"/>
-      <c r="AMI98" s="18"/>
-      <c r="AMJ98" s="18"/>
-    </row>
-    <row r="99" s="18" customFormat="1" ht="12.75">
-      <c r="A99" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="AMF99" s="18"/>
-      <c r="AMG99" s="18"/>
-      <c r="AMH99" s="18"/>
-      <c r="AMI99" s="18"/>
-      <c r="AMJ99" s="18"/>
-    </row>
-    <row r="100" s="18" customFormat="1" ht="12.75">
-      <c r="A100" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="AMF100" s="18"/>
-      <c r="AMG100" s="18"/>
-      <c r="AMH100" s="18"/>
-      <c r="AMI100" s="18"/>
-      <c r="AMJ100" s="18"/>
-    </row>
-    <row r="101" s="18" customFormat="1" ht="12.75">
-      <c r="A101" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="AMF101" s="18"/>
-      <c r="AMG101" s="18"/>
-      <c r="AMH101" s="18"/>
-      <c r="AMI101" s="18"/>
-      <c r="AMJ101" s="18"/>
-    </row>
-    <row r="102" s="18" customFormat="1" ht="12.75">
-      <c r="A102" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="AMF102" s="18"/>
-      <c r="AMG102" s="18"/>
-      <c r="AMH102" s="18"/>
-      <c r="AMI102" s="18"/>
-      <c r="AMJ102" s="18"/>
-    </row>
-    <row r="103" s="18" customFormat="1" ht="12.75">
-      <c r="A103" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="AMF103" s="18"/>
-      <c r="AMG103" s="18"/>
-      <c r="AMH103" s="18"/>
-      <c r="AMI103" s="18"/>
-      <c r="AMJ103" s="18"/>
-    </row>
-    <row r="104" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="AMF104" s="18"/>
-      <c r="AMG104" s="18"/>
-      <c r="AMH104" s="18"/>
-      <c r="AMI104" s="18"/>
-      <c r="AMJ104" s="18"/>
-    </row>
-    <row r="105" s="18" customFormat="1" ht="12.75">
-      <c r="A105" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="AMF105" s="18"/>
-      <c r="AMG105" s="18"/>
-      <c r="AMH105" s="18"/>
-      <c r="AMI105" s="18"/>
-      <c r="AMJ105" s="18"/>
-    </row>
-    <row r="106" s="18" customFormat="1" ht="12.75">
-      <c r="A106" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="AMF106" s="18"/>
-      <c r="AMG106" s="18"/>
-      <c r="AMH106" s="18"/>
-      <c r="AMI106" s="18"/>
-      <c r="AMJ106" s="18"/>
-    </row>
-    <row r="107" s="18" customFormat="1" ht="12.75">
-      <c r="A107" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="AMF107" s="18"/>
-      <c r="AMG107" s="18"/>
-      <c r="AMH107" s="18"/>
-      <c r="AMI107" s="18"/>
-      <c r="AMJ107" s="18"/>
-    </row>
-    <row r="108" s="18" customFormat="1" ht="12.75">
-      <c r="A108" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="AMF108" s="18"/>
-      <c r="AMG108" s="18"/>
-      <c r="AMH108" s="18"/>
-      <c r="AMI108" s="18"/>
-      <c r="AMJ108" s="18"/>
-    </row>
-    <row r="109" s="18" customFormat="1" ht="12.75">
-      <c r="A109" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="AMF109" s="18"/>
-      <c r="AMG109" s="18"/>
-      <c r="AMH109" s="18"/>
-      <c r="AMI109" s="18"/>
-      <c r="AMJ109" s="18"/>
-    </row>
-    <row r="110" s="18" customFormat="1" ht="12.75">
-      <c r="A110" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="AMF110" s="18"/>
-      <c r="AMG110" s="18"/>
-      <c r="AMH110" s="18"/>
-      <c r="AMI110" s="18"/>
-      <c r="AMJ110" s="18"/>
-    </row>
-    <row r="111" s="18" customFormat="1" ht="12.75">
-      <c r="A111" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="AMF111" s="18"/>
-      <c r="AMG111" s="18"/>
-      <c r="AMH111" s="18"/>
-      <c r="AMI111" s="18"/>
-      <c r="AMJ111" s="18"/>
-    </row>
-    <row r="112" s="18" customFormat="1" ht="12.75">
-      <c r="A112" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="AMF112" s="18"/>
-      <c r="AMG112" s="18"/>
-      <c r="AMH112" s="18"/>
-      <c r="AMI112" s="18"/>
-      <c r="AMJ112" s="18"/>
-    </row>
-    <row r="113" s="18" customFormat="1" ht="12.75">
-      <c r="A113" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="AMF113" s="18"/>
-      <c r="AMG113" s="18"/>
-      <c r="AMH113" s="18"/>
-      <c r="AMI113" s="18"/>
-      <c r="AMJ113" s="18"/>
-    </row>
-    <row r="114" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A114" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="AMF114" s="18"/>
-      <c r="AMG114" s="18"/>
-      <c r="AMH114" s="18"/>
-      <c r="AMI114" s="18"/>
-      <c r="AMJ114" s="18"/>
-    </row>
-    <row r="115" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A115" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="AMF115" s="18"/>
-      <c r="AMG115" s="18"/>
-      <c r="AMH115" s="18"/>
-      <c r="AMI115" s="18"/>
-      <c r="AMJ115" s="18"/>
-    </row>
-    <row r="116" s="18" customFormat="1" ht="12.75">
-      <c r="A116" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="AMF116" s="18"/>
-      <c r="AMG116" s="18"/>
-      <c r="AMH116" s="18"/>
-      <c r="AMI116" s="18"/>
-      <c r="AMJ116" s="18"/>
-    </row>
-    <row r="117" s="18" customFormat="1" ht="12.75">
-      <c r="A117" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="AMF117" s="18"/>
-      <c r="AMG117" s="18"/>
-      <c r="AMH117" s="18"/>
-      <c r="AMI117" s="18"/>
-      <c r="AMJ117" s="18"/>
-    </row>
-    <row r="118" s="18" customFormat="1" ht="12.75">
-      <c r="A118" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="AMF118" s="18"/>
-      <c r="AMG118" s="18"/>
-      <c r="AMH118" s="18"/>
-      <c r="AMI118" s="18"/>
-      <c r="AMJ118" s="18"/>
-    </row>
-    <row r="119" s="18" customFormat="1" ht="12.75">
-      <c r="A119" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="AMF119" s="18"/>
-      <c r="AMG119" s="18"/>
-      <c r="AMH119" s="18"/>
-      <c r="AMI119" s="18"/>
-      <c r="AMJ119" s="18"/>
-    </row>
-    <row r="120" s="18" customFormat="1" ht="12.75">
-      <c r="A120" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="AMF120" s="18"/>
-      <c r="AMG120" s="18"/>
-      <c r="AMH120" s="18"/>
-      <c r="AMI120" s="18"/>
-      <c r="AMJ120" s="18"/>
-    </row>
-    <row r="121" s="18" customFormat="1" ht="12.75">
-      <c r="A121" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="AMF121" s="18"/>
-      <c r="AMG121" s="18"/>
-      <c r="AMH121" s="18"/>
-      <c r="AMI121" s="18"/>
-      <c r="AMJ121" s="18"/>
-    </row>
-    <row r="122" s="18" customFormat="1" ht="12.75">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="AMF122" s="18"/>
-      <c r="AMG122" s="18"/>
-      <c r="AMH122" s="18"/>
-      <c r="AMI122" s="18"/>
-      <c r="AMJ122" s="18"/>
-    </row>
-    <row r="123" s="18" customFormat="1" ht="12.75">
-      <c r="A123" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="P123" s="18"/>
-      <c r="AMF123" s="18"/>
-      <c r="AMG123" s="18"/>
-      <c r="AMH123" s="18"/>
-      <c r="AMI123" s="18"/>
-      <c r="AMJ123" s="18"/>
-    </row>
-    <row r="124" s="18" customFormat="1" ht="12.75">
-      <c r="A124" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AMF124" s="18"/>
-      <c r="AMG124" s="18"/>
-      <c r="AMH124" s="18"/>
-      <c r="AMI124" s="18"/>
-      <c r="AMJ124" s="18"/>
-    </row>
-    <row r="125" s="18" customFormat="1" ht="12.75">
-      <c r="A125" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="AMF125" s="18"/>
-      <c r="AMG125" s="18"/>
-      <c r="AMH125" s="18"/>
-      <c r="AMI125" s="18"/>
-      <c r="AMJ125" s="18"/>
-    </row>
-    <row r="126" s="18" customFormat="1" ht="12.75">
-      <c r="A126" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="AMF126" s="18"/>
-      <c r="AMG126" s="18"/>
-      <c r="AMH126" s="18"/>
-      <c r="AMI126" s="18"/>
-      <c r="AMJ126" s="18"/>
-    </row>
-    <row r="127" s="18" customFormat="1" ht="12.75">
-      <c r="A127" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="AMF127" s="18"/>
-      <c r="AMG127" s="18"/>
-      <c r="AMH127" s="18"/>
-      <c r="AMI127" s="18"/>
-      <c r="AMJ127" s="18"/>
-    </row>
-    <row r="128" s="18" customFormat="1" ht="12.75">
-      <c r="A128" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="AMF128" s="18"/>
-      <c r="AMG128" s="18"/>
-      <c r="AMH128" s="18"/>
-      <c r="AMI128" s="18"/>
-      <c r="AMJ128" s="18"/>
-    </row>
-    <row r="129" s="18" customFormat="1" ht="12.75">
-      <c r="A129" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="18"/>
-      <c r="AMF129" s="18"/>
-      <c r="AMG129" s="18"/>
-      <c r="AMH129" s="18"/>
-      <c r="AMI129" s="18"/>
-      <c r="AMJ129" s="18"/>
-    </row>
-    <row r="130" s="18" customFormat="1" ht="12.75">
-      <c r="A130" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="AMF130" s="18"/>
-      <c r="AMG130" s="18"/>
-      <c r="AMH130" s="18"/>
-      <c r="AMI130" s="18"/>
-      <c r="AMJ130" s="18"/>
-    </row>
-    <row r="131" s="18" customFormat="1" ht="12.75">
-      <c r="A131" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="AMF131" s="18"/>
-      <c r="AMG131" s="18"/>
-      <c r="AMH131" s="18"/>
-      <c r="AMI131" s="18"/>
-      <c r="AMJ131" s="18"/>
-    </row>
-    <row r="132" s="18" customFormat="1" ht="12.75">
-      <c r="A132" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="AMF132" s="18"/>
-      <c r="AMG132" s="18"/>
-      <c r="AMH132" s="18"/>
-      <c r="AMI132" s="18"/>
-      <c r="AMJ132" s="18"/>
-    </row>
-    <row r="133" s="18" customFormat="1" ht="12.75">
-      <c r="A133" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18"/>
-      <c r="AMF133" s="18"/>
-      <c r="AMG133" s="18"/>
-      <c r="AMH133" s="18"/>
-      <c r="AMI133" s="18"/>
-      <c r="AMJ133" s="18"/>
-    </row>
-    <row r="134" s="18" customFormat="1" ht="12.75">
-      <c r="A134" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="AMF134" s="18"/>
-      <c r="AMG134" s="18"/>
-      <c r="AMH134" s="18"/>
-      <c r="AMI134" s="18"/>
-      <c r="AMJ134" s="18"/>
-    </row>
-    <row r="135" s="18" customFormat="1" ht="12.75">
-      <c r="A135" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18"/>
-      <c r="AMF135" s="18"/>
-      <c r="AMG135" s="18"/>
-      <c r="AMH135" s="18"/>
-      <c r="AMI135" s="18"/>
-      <c r="AMJ135" s="18"/>
-    </row>
-    <row r="136" s="18" customFormat="1" ht="12.75">
-      <c r="A136" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="AMF136" s="18"/>
-      <c r="AMG136" s="18"/>
-      <c r="AMH136" s="18"/>
-      <c r="AMI136" s="18"/>
-      <c r="AMJ136" s="18"/>
-    </row>
-    <row r="137" s="18" customFormat="1" ht="12.75">
-      <c r="A137" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="AMF137" s="18"/>
-      <c r="AMG137" s="18"/>
-      <c r="AMH137" s="18"/>
-      <c r="AMI137" s="18"/>
-      <c r="AMJ137" s="18"/>
-    </row>
-    <row r="138" s="18" customFormat="1" ht="12.75">
-      <c r="A138" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="AMF138" s="18"/>
-      <c r="AMG138" s="18"/>
-      <c r="AMH138" s="18"/>
-      <c r="AMI138" s="18"/>
-      <c r="AMJ138" s="18"/>
-    </row>
-    <row r="139" s="18" customFormat="1" ht="12.75">
-      <c r="A139" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="AMF139" s="18"/>
-      <c r="AMG139" s="18"/>
-      <c r="AMH139" s="18"/>
-      <c r="AMI139" s="18"/>
-      <c r="AMJ139" s="18"/>
-    </row>
-    <row r="140" s="18" customFormat="1" ht="12.75">
-      <c r="A140" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="AMF140" s="18"/>
-      <c r="AMG140" s="18"/>
-      <c r="AMH140" s="18"/>
-      <c r="AMI140" s="18"/>
-      <c r="AMJ140" s="18"/>
-    </row>
-    <row r="141" s="18" customFormat="1" ht="12.75">
-      <c r="A141" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="AMF141" s="18"/>
-      <c r="AMG141" s="18"/>
-      <c r="AMH141" s="18"/>
-      <c r="AMI141" s="18"/>
-      <c r="AMJ141" s="18"/>
-    </row>
-    <row r="142" s="0" customFormat="1" ht="12.75">
-      <c r="E142" s="6"/>
-      <c r="G142" s="6"/>
-    </row>
-    <row r="143" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A143" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D143" s="18"/>
-      <c r="E143" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="AMF143" s="18"/>
-      <c r="AMG143" s="18"/>
-      <c r="AMH143" s="18"/>
-      <c r="AMI143" s="18"/>
-      <c r="AMJ143" s="18"/>
-    </row>
-    <row r="144" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A144" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="AMF144" s="18"/>
-      <c r="AMG144" s="18"/>
-      <c r="AMH144" s="18"/>
-      <c r="AMI144" s="18"/>
-      <c r="AMJ144" s="18"/>
-    </row>
-    <row r="145" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A145" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="AMF145" s="18"/>
-      <c r="AMG145" s="18"/>
-      <c r="AMH145" s="18"/>
-      <c r="AMI145" s="18"/>
-      <c r="AMJ145" s="18"/>
-    </row>
-    <row r="146" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A146" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="AMF146" s="18"/>
-      <c r="AMG146" s="18"/>
-      <c r="AMH146" s="18"/>
-      <c r="AMI146" s="18"/>
-      <c r="AMJ146" s="18"/>
-    </row>
-    <row r="147" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A147" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="AMF147" s="18"/>
-      <c r="AMG147" s="18"/>
-      <c r="AMH147" s="18"/>
-      <c r="AMI147" s="18"/>
-      <c r="AMJ147" s="18"/>
-    </row>
-    <row r="148" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A148" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="AMF148" s="18"/>
-      <c r="AMG148" s="18"/>
-      <c r="AMH148" s="18"/>
-      <c r="AMI148" s="18"/>
-      <c r="AMJ148" s="18"/>
-    </row>
-    <row r="149" s="18" customFormat="1" ht="12.75">
-      <c r="A149" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="AMF149" s="18"/>
-      <c r="AMG149" s="18"/>
-      <c r="AMH149" s="18"/>
-      <c r="AMI149" s="18"/>
-      <c r="AMJ149" s="18"/>
-    </row>
-    <row r="150" s="18" customFormat="1" ht="12.75">
-      <c r="A150" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="AMF150" s="18"/>
-      <c r="AMG150" s="18"/>
-      <c r="AMH150" s="18"/>
-      <c r="AMI150" s="18"/>
-      <c r="AMJ150" s="18"/>
-    </row>
-    <row r="151" s="18" customFormat="1" ht="12.75">
-      <c r="A151" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B151" s="19" t="s">
+      <c r="B156" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="C151" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="AMF151" s="18"/>
-      <c r="AMG151" s="18"/>
-      <c r="AMH151" s="18"/>
-      <c r="AMI151" s="18"/>
-      <c r="AMJ151" s="18"/>
-    </row>
-    <row r="152" s="18" customFormat="1" ht="12.75">
-      <c r="A152" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="AMF152" s="18"/>
-      <c r="AMG152" s="18"/>
-      <c r="AMH152" s="18"/>
-      <c r="AMI152" s="18"/>
-      <c r="AMJ152" s="18"/>
-    </row>
-    <row r="153" s="0" customFormat="1" ht="12.75">
-      <c r="E153" s="6"/>
-      <c r="G153" s="6"/>
-    </row>
-    <row r="154" s="18" customFormat="1" ht="12.75">
-      <c r="A154" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-      <c r="AMF154" s="18"/>
-      <c r="AMG154" s="18"/>
-      <c r="AMH154" s="18"/>
-      <c r="AMI154" s="18"/>
-      <c r="AMJ154" s="18"/>
-    </row>
-    <row r="155" s="18" customFormat="1" ht="12.75">
-      <c r="A155" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="AMF155" s="18"/>
-      <c r="AMG155" s="18"/>
-      <c r="AMH155" s="18"/>
-      <c r="AMI155" s="18"/>
-      <c r="AMJ155" s="18"/>
-    </row>
-    <row r="156" s="18" customFormat="1" ht="12.75">
-      <c r="A156" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="AMF156" s="18"/>
-      <c r="AMG156" s="18"/>
-      <c r="AMH156" s="18"/>
-      <c r="AMI156" s="18"/>
-      <c r="AMJ156" s="18"/>
-    </row>
-    <row r="157" s="18" customFormat="1" ht="12.75">
-      <c r="A157" s="19" t="s">
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="AMF156" s="19"/>
+      <c r="AMG156" s="19"/>
+      <c r="AMH156" s="19"/>
+      <c r="AMI156" s="19"/>
+      <c r="AMJ156" s="19"/>
+    </row>
+    <row r="157" s="0" customFormat="1" ht="12.75">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" s="19" customFormat="1" ht="12.75">
+      <c r="A158" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="AMF157" s="18"/>
-      <c r="AMG157" s="18"/>
-      <c r="AMH157" s="18"/>
-      <c r="AMI157" s="18"/>
-      <c r="AMJ157" s="18"/>
-    </row>
-    <row r="158" s="0" customFormat="1" ht="12.75">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="G158" s="6"/>
-    </row>
-    <row r="159" s="18" customFormat="1" ht="12.75">
-      <c r="A159" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="AMF159" s="18"/>
-      <c r="AMG159" s="18"/>
-      <c r="AMH159" s="18"/>
-      <c r="AMI159" s="18"/>
-      <c r="AMJ159" s="18"/>
-    </row>
+      <c r="B158" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="AMF158" s="19"/>
+      <c r="AMG158" s="19"/>
+      <c r="AMH158" s="19"/>
+      <c r="AMI158" s="19"/>
+      <c r="AMJ158" s="19"/>
+    </row>
+    <row r="159" ht="12.75"/>
     <row r="160" ht="12.75"/>
     <row r="161" ht="12.75"/>
     <row r="162" ht="12.75"/>
@@ -6318,7 +6267,7 @@
     <row r="166" ht="12.75"/>
     <row r="167" ht="12.75"/>
     <row r="168" ht="12.75"/>
-    <row r="169" ht="12.75"/>
+    <row r="170" ht="12.75"/>
     <row r="171" ht="12.75"/>
     <row r="172" ht="12.75"/>
     <row r="173" ht="12.75"/>
@@ -6331,8 +6280,8 @@
     <row r="180" ht="12.75"/>
     <row r="181" ht="12.75"/>
     <row r="182" ht="12.75"/>
-    <row r="183" ht="12.75"/>
-    <row r="187" ht="12.75"/>
+    <row r="186" ht="12.75"/>
+    <row r="196" ht="12.75"/>
     <row r="197" ht="12.75"/>
     <row r="198" ht="12.75"/>
     <row r="199" ht="12.75"/>
@@ -6342,7 +6291,7 @@
     <row r="203" ht="12.75"/>
     <row r="204" ht="12.75"/>
     <row r="205" ht="12.75"/>
-    <row r="206" ht="12.75"/>
+    <row r="210" ht="12.75"/>
     <row r="211" ht="12.75"/>
     <row r="212" ht="12.75"/>
     <row r="213" ht="12.75"/>
@@ -6357,7 +6306,6 @@
     <row r="222" ht="12.75"/>
     <row r="223" ht="12.75"/>
     <row r="224" ht="12.75"/>
-    <row r="225" ht="12.75"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6373,7 +6321,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A13" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A4" zoomScale="100" workbookViewId="0">
       <selection activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -6381,3318 +6329,3310 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="0" width="19.57421875"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="0" width="10.8515625"/>
-    <col customWidth="1" min="3" max="3" style="23" width="20.57"/>
+    <col customWidth="1" min="3" max="3" style="24" width="20.57"/>
     <col customWidth="1" min="4" max="4" style="0" width="19.859999999999999"/>
     <col customWidth="1" min="5" max="5" style="0" width="12.859999999999999"/>
     <col customWidth="1" min="6" max="6" style="0" width="10.119999999999999"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="D1" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" ht="12.75">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" ht="12.75">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" ht="14.25"/>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="s">
         <v>354</v>
       </c>
-      <c r="B11" t="s">
-        <v>359</v>
-      </c>
       <c r="C11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" ht="14.25"/>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C20" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
-      </c>
-      <c r="C21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" s="23"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" t="s">
-        <v>372</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="23"/>
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" t="s">
-        <v>222</v>
+      <c r="A25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" t="s">
-        <v>346</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="C27" s="23"/>
+      <c r="A27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" t="s">
         <v>376</v>
       </c>
-      <c r="B28" t="s">
-        <v>377</v>
-      </c>
-      <c r="C28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" t="s">
-        <v>376</v>
-      </c>
-      <c r="B29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="C30" s="23"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B32" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" t="s">
         <v>381</v>
       </c>
-      <c r="B33" t="s">
-        <v>386</v>
-      </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" t="s">
-        <v>381</v>
-      </c>
-      <c r="B34" t="s">
-        <v>388</v>
-      </c>
-      <c r="C34" t="s">
-        <v>269</v>
-      </c>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="C35" s="23"/>
+      <c r="A35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" t="s">
-        <v>389</v>
-      </c>
-      <c r="B37" t="s">
-        <v>350</v>
-      </c>
-      <c r="C37" t="s">
-        <v>391</v>
-      </c>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="C38" s="23"/>
+      <c r="A38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C39" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B40" t="s">
-        <v>350</v>
-      </c>
-      <c r="C40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C45" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="E45">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" t="s">
-        <v>388</v>
-      </c>
-      <c r="C46" t="s">
-        <v>399</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="C47" s="23"/>
+      <c r="C47" s="24"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="C48" s="23"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="C49" s="23"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="C50" s="23"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="C51" s="23"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="C52" s="23"/>
+      <c r="C52" s="24"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="C53" s="23"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="C54" s="23"/>
+      <c r="C54" s="24"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="C55" s="23"/>
+      <c r="C55" s="24"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="C56" s="23"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="C57" s="23"/>
+      <c r="C57" s="24"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="C58" s="23"/>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="C59" s="23"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="C60" s="23"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="C61" s="23"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="C62" s="23"/>
+      <c r="C62" s="24"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="C63" s="23"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="C64" s="23"/>
+      <c r="C64" s="24"/>
     </row>
     <row r="65" ht="12.75">
-      <c r="C65" s="23"/>
+      <c r="C65" s="24"/>
     </row>
     <row r="66" ht="12.75">
-      <c r="C66" s="23"/>
+      <c r="C66" s="24"/>
     </row>
     <row r="67" ht="12.75">
-      <c r="C67" s="23"/>
+      <c r="C67" s="24"/>
     </row>
     <row r="68" ht="12.75">
-      <c r="C68" s="23"/>
+      <c r="C68" s="24"/>
     </row>
     <row r="69" ht="12.75">
-      <c r="C69" s="23"/>
+      <c r="C69" s="24"/>
     </row>
     <row r="70" ht="12.75">
-      <c r="C70" s="23"/>
+      <c r="C70" s="24"/>
     </row>
     <row r="71" ht="12.75">
-      <c r="C71" s="23"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="C72" s="23"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" ht="12.75">
-      <c r="C73" s="23"/>
+      <c r="C73" s="24"/>
     </row>
     <row r="74" ht="12.75">
-      <c r="C74" s="23"/>
+      <c r="C74" s="24"/>
     </row>
     <row r="75" ht="12.75">
-      <c r="C75" s="23"/>
+      <c r="C75" s="24"/>
     </row>
     <row r="76" ht="12.75">
-      <c r="C76" s="23"/>
+      <c r="C76" s="24"/>
     </row>
     <row r="77" ht="12.75">
-      <c r="C77" s="23"/>
+      <c r="C77" s="24"/>
     </row>
     <row r="78" ht="12.75">
-      <c r="C78" s="23"/>
+      <c r="C78" s="24"/>
     </row>
     <row r="79" ht="12.75">
-      <c r="C79" s="23"/>
+      <c r="C79" s="24"/>
     </row>
     <row r="80" ht="12.75">
-      <c r="C80" s="23"/>
+      <c r="C80" s="24"/>
     </row>
     <row r="81" ht="12.75">
-      <c r="C81" s="23"/>
+      <c r="C81" s="24"/>
     </row>
     <row r="82" ht="12.75">
-      <c r="C82" s="23"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" ht="12.75">
-      <c r="C83" s="23"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" ht="12.75">
-      <c r="C84" s="23"/>
+      <c r="C84" s="24"/>
     </row>
     <row r="85" ht="12.75">
-      <c r="C85" s="23"/>
+      <c r="C85" s="24"/>
     </row>
     <row r="86" ht="12.75">
-      <c r="C86" s="23"/>
+      <c r="C86" s="24"/>
     </row>
     <row r="87" ht="12.75">
-      <c r="C87" s="23"/>
+      <c r="C87" s="24"/>
     </row>
     <row r="88" ht="12.75">
-      <c r="C88" s="23"/>
+      <c r="C88" s="24"/>
     </row>
     <row r="89" ht="12.75">
-      <c r="C89" s="23"/>
+      <c r="C89" s="24"/>
     </row>
     <row r="90" ht="12.75">
-      <c r="C90" s="23"/>
+      <c r="C90" s="24"/>
     </row>
     <row r="91" ht="12.75">
-      <c r="C91" s="23"/>
+      <c r="C91" s="24"/>
     </row>
     <row r="92" ht="12.75">
-      <c r="C92" s="23"/>
+      <c r="C92" s="24"/>
     </row>
     <row r="93" ht="12.75">
-      <c r="C93" s="23"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" ht="12.75">
-      <c r="C94" s="23"/>
+      <c r="C94" s="24"/>
     </row>
     <row r="95" ht="12.75">
-      <c r="C95" s="23"/>
+      <c r="C95" s="24"/>
     </row>
     <row r="96" ht="12.75">
-      <c r="C96" s="23"/>
+      <c r="C96" s="24"/>
     </row>
     <row r="97" ht="12.75">
-      <c r="C97" s="23"/>
+      <c r="C97" s="24"/>
     </row>
     <row r="98" ht="12.75">
-      <c r="C98" s="23"/>
+      <c r="C98" s="24"/>
     </row>
     <row r="99" ht="12.75">
-      <c r="C99" s="23"/>
+      <c r="C99" s="24"/>
     </row>
     <row r="100" ht="12.75">
-      <c r="C100" s="23"/>
+      <c r="C100" s="24"/>
     </row>
     <row r="101" ht="12.75">
-      <c r="C101" s="23"/>
+      <c r="C101" s="24"/>
     </row>
     <row r="102" ht="12.75">
-      <c r="C102" s="23"/>
+      <c r="C102" s="24"/>
     </row>
     <row r="103" ht="12.75">
-      <c r="C103" s="23"/>
+      <c r="C103" s="24"/>
     </row>
     <row r="104" ht="12.75">
-      <c r="C104" s="23"/>
+      <c r="C104" s="24"/>
     </row>
     <row r="105" ht="12.75">
-      <c r="C105" s="23"/>
+      <c r="C105" s="24"/>
     </row>
     <row r="106" ht="12.75">
-      <c r="C106" s="23"/>
+      <c r="C106" s="24"/>
     </row>
     <row r="107" ht="12.75">
-      <c r="C107" s="23"/>
+      <c r="C107" s="24"/>
     </row>
     <row r="108" ht="12.75">
-      <c r="C108" s="23"/>
+      <c r="C108" s="24"/>
     </row>
     <row r="109" ht="12.75">
-      <c r="C109" s="23"/>
+      <c r="C109" s="24"/>
     </row>
     <row r="110" ht="12.75">
-      <c r="C110" s="23"/>
+      <c r="C110" s="24"/>
     </row>
     <row r="111" ht="12.75">
-      <c r="C111" s="23"/>
+      <c r="C111" s="24"/>
     </row>
     <row r="112" ht="12.75">
-      <c r="C112" s="23"/>
+      <c r="C112" s="24"/>
     </row>
     <row r="113" ht="12.75">
-      <c r="C113" s="23"/>
+      <c r="C113" s="24"/>
     </row>
     <row r="114" ht="12.75">
-      <c r="C114" s="23"/>
+      <c r="C114" s="24"/>
     </row>
     <row r="115" ht="12.75">
-      <c r="C115" s="23"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" ht="12.75">
-      <c r="C116" s="23"/>
+      <c r="C116" s="24"/>
     </row>
     <row r="117" ht="12.75">
-      <c r="C117" s="23"/>
+      <c r="C117" s="24"/>
     </row>
     <row r="118" ht="12.75">
-      <c r="C118" s="23"/>
+      <c r="C118" s="24"/>
     </row>
     <row r="119" ht="12.75">
-      <c r="C119" s="23"/>
+      <c r="C119" s="24"/>
     </row>
     <row r="120" ht="12.75">
-      <c r="C120" s="23"/>
+      <c r="C120" s="24"/>
     </row>
     <row r="121" ht="12.75">
-      <c r="C121" s="23"/>
+      <c r="C121" s="24"/>
     </row>
     <row r="122" ht="12.75">
-      <c r="C122" s="23"/>
+      <c r="C122" s="24"/>
     </row>
     <row r="123" ht="12.75">
-      <c r="C123" s="23"/>
+      <c r="C123" s="24"/>
     </row>
     <row r="124" ht="12.75">
-      <c r="C124" s="23"/>
+      <c r="C124" s="24"/>
     </row>
     <row r="125" ht="12.75">
-      <c r="C125" s="23"/>
+      <c r="C125" s="24"/>
     </row>
     <row r="126" ht="12.75">
-      <c r="C126" s="23"/>
+      <c r="C126" s="24"/>
     </row>
     <row r="127" ht="12.75">
-      <c r="C127" s="23"/>
+      <c r="C127" s="24"/>
     </row>
     <row r="128" ht="12.75">
-      <c r="C128" s="23"/>
+      <c r="C128" s="24"/>
     </row>
     <row r="129" ht="12.75">
-      <c r="C129" s="23"/>
+      <c r="C129" s="24"/>
     </row>
     <row r="130" ht="12.75">
-      <c r="C130" s="23"/>
+      <c r="C130" s="24"/>
     </row>
     <row r="131" ht="12.75">
-      <c r="C131" s="23"/>
+      <c r="C131" s="24"/>
     </row>
     <row r="132" ht="12.75">
-      <c r="C132" s="23"/>
+      <c r="C132" s="24"/>
     </row>
     <row r="133" ht="12.75">
-      <c r="C133" s="23"/>
+      <c r="C133" s="24"/>
     </row>
     <row r="134" ht="12.75">
-      <c r="C134" s="23"/>
+      <c r="C134" s="24"/>
     </row>
     <row r="135" ht="12.75">
-      <c r="C135" s="23"/>
+      <c r="C135" s="24"/>
     </row>
     <row r="136" ht="12.75">
-      <c r="C136" s="23"/>
+      <c r="C136" s="24"/>
     </row>
     <row r="137" ht="12.75">
-      <c r="C137" s="23"/>
+      <c r="C137" s="24"/>
     </row>
     <row r="138" ht="12.75">
-      <c r="C138" s="23"/>
+      <c r="C138" s="24"/>
     </row>
     <row r="139" ht="12.75">
-      <c r="C139" s="23"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" ht="12.75">
-      <c r="C140" s="23"/>
+      <c r="C140" s="24"/>
     </row>
     <row r="141" ht="12.75">
-      <c r="C141" s="23"/>
+      <c r="C141" s="24"/>
     </row>
     <row r="142" ht="12.75">
-      <c r="C142" s="23"/>
+      <c r="C142" s="24"/>
     </row>
     <row r="143" ht="12.75">
-      <c r="C143" s="23"/>
+      <c r="C143" s="24"/>
     </row>
     <row r="144" ht="12.75">
-      <c r="C144" s="23"/>
+      <c r="C144" s="24"/>
     </row>
     <row r="145" ht="12.75">
-      <c r="C145" s="23"/>
+      <c r="C145" s="24"/>
     </row>
     <row r="146" ht="12.75">
-      <c r="C146" s="23"/>
+      <c r="C146" s="24"/>
     </row>
     <row r="147" ht="12.75">
-      <c r="C147" s="23"/>
+      <c r="C147" s="24"/>
     </row>
     <row r="148" ht="12.75">
-      <c r="C148" s="23"/>
+      <c r="C148" s="24"/>
     </row>
     <row r="149" ht="12.75">
-      <c r="C149" s="23"/>
+      <c r="C149" s="24"/>
     </row>
     <row r="150" ht="12.75">
-      <c r="C150" s="23"/>
+      <c r="C150" s="24"/>
     </row>
     <row r="151" ht="12.75">
-      <c r="C151" s="23"/>
+      <c r="C151" s="24"/>
     </row>
     <row r="152" ht="12.75">
-      <c r="C152" s="23"/>
+      <c r="C152" s="24"/>
     </row>
     <row r="153" ht="12.75">
-      <c r="C153" s="23"/>
+      <c r="C153" s="24"/>
     </row>
     <row r="154" ht="12.75">
-      <c r="C154" s="23"/>
+      <c r="C154" s="24"/>
     </row>
     <row r="155" ht="12.75">
-      <c r="C155" s="23"/>
+      <c r="C155" s="24"/>
     </row>
     <row r="156" ht="12.75">
-      <c r="C156" s="23"/>
+      <c r="C156" s="24"/>
     </row>
     <row r="157" ht="12.75">
-      <c r="C157" s="23"/>
+      <c r="C157" s="24"/>
     </row>
     <row r="158" ht="12.75">
-      <c r="C158" s="23"/>
+      <c r="C158" s="24"/>
     </row>
     <row r="159" ht="12.75">
-      <c r="C159" s="23"/>
+      <c r="C159" s="24"/>
     </row>
     <row r="160" ht="12.75">
-      <c r="C160" s="23"/>
+      <c r="C160" s="24"/>
     </row>
     <row r="161" ht="12.75">
-      <c r="C161" s="23"/>
+      <c r="C161" s="24"/>
     </row>
     <row r="162" ht="12.75">
-      <c r="C162" s="23"/>
+      <c r="C162" s="24"/>
     </row>
     <row r="163" ht="12.75">
-      <c r="C163" s="23"/>
+      <c r="C163" s="24"/>
     </row>
     <row r="164" ht="12.75">
-      <c r="C164" s="23"/>
+      <c r="C164" s="24"/>
     </row>
     <row r="165" ht="12.75">
-      <c r="C165" s="23"/>
+      <c r="C165" s="24"/>
     </row>
     <row r="166" ht="12.75">
-      <c r="C166" s="23"/>
+      <c r="C166" s="24"/>
     </row>
     <row r="167" ht="12.75">
-      <c r="C167" s="23"/>
+      <c r="C167" s="24"/>
     </row>
     <row r="168" ht="12.75">
-      <c r="C168" s="23"/>
+      <c r="C168" s="24"/>
     </row>
     <row r="169" ht="12.75">
-      <c r="C169" s="23"/>
+      <c r="C169" s="24"/>
     </row>
     <row r="170" ht="12.75">
-      <c r="C170" s="23"/>
+      <c r="C170" s="24"/>
     </row>
     <row r="171" ht="12.75">
-      <c r="C171" s="23"/>
+      <c r="C171" s="24"/>
     </row>
     <row r="172" ht="12.75">
-      <c r="C172" s="23"/>
+      <c r="C172" s="24"/>
     </row>
     <row r="173" ht="12.75">
-      <c r="C173" s="23"/>
+      <c r="C173" s="24"/>
     </row>
     <row r="174" ht="12.75">
-      <c r="C174" s="23"/>
+      <c r="C174" s="24"/>
     </row>
     <row r="175" ht="12.75">
-      <c r="C175" s="23"/>
+      <c r="C175" s="24"/>
     </row>
     <row r="176" ht="12.75">
-      <c r="C176" s="23"/>
+      <c r="C176" s="24"/>
     </row>
     <row r="177" ht="12.75">
-      <c r="C177" s="23"/>
+      <c r="C177" s="24"/>
     </row>
     <row r="178" ht="12.75">
-      <c r="C178" s="23"/>
+      <c r="C178" s="24"/>
     </row>
     <row r="179" ht="12.75">
-      <c r="C179" s="23"/>
+      <c r="C179" s="24"/>
     </row>
     <row r="180" ht="12.75">
-      <c r="C180" s="23"/>
+      <c r="C180" s="24"/>
     </row>
     <row r="181" ht="12.75">
-      <c r="C181" s="23"/>
+      <c r="C181" s="24"/>
     </row>
     <row r="182" ht="12.75">
-      <c r="C182" s="23"/>
+      <c r="C182" s="24"/>
     </row>
     <row r="183" ht="12.75">
-      <c r="C183" s="23"/>
+      <c r="C183" s="24"/>
     </row>
     <row r="184" ht="12.75">
-      <c r="C184" s="23"/>
+      <c r="C184" s="24"/>
     </row>
     <row r="185" ht="12.75">
-      <c r="C185" s="23"/>
+      <c r="C185" s="24"/>
     </row>
     <row r="186" ht="12.75">
-      <c r="C186" s="23"/>
+      <c r="C186" s="24"/>
     </row>
     <row r="187" ht="12.75">
-      <c r="C187" s="23"/>
+      <c r="C187" s="24"/>
     </row>
     <row r="188" ht="12.75">
-      <c r="C188" s="23"/>
+      <c r="C188" s="24"/>
     </row>
     <row r="189" ht="12.75">
-      <c r="C189" s="23"/>
+      <c r="C189" s="24"/>
     </row>
     <row r="190" ht="12.75">
-      <c r="C190" s="23"/>
+      <c r="C190" s="24"/>
     </row>
     <row r="191" ht="12.75">
-      <c r="C191" s="23"/>
+      <c r="C191" s="24"/>
     </row>
     <row r="192" ht="12.75">
-      <c r="C192" s="23"/>
+      <c r="C192" s="24"/>
     </row>
     <row r="193" ht="12.75">
-      <c r="C193" s="23"/>
+      <c r="C193" s="24"/>
     </row>
     <row r="194" ht="12.75">
-      <c r="C194" s="23"/>
+      <c r="C194" s="24"/>
     </row>
     <row r="195" ht="12.75">
-      <c r="C195" s="23"/>
+      <c r="C195" s="24"/>
     </row>
     <row r="196" ht="12.75">
-      <c r="C196" s="23"/>
+      <c r="C196" s="24"/>
     </row>
     <row r="197" ht="12.75">
-      <c r="C197" s="23"/>
+      <c r="C197" s="24"/>
     </row>
     <row r="198" ht="12.75">
-      <c r="C198" s="23"/>
+      <c r="C198" s="24"/>
     </row>
     <row r="199" ht="12.75">
-      <c r="C199" s="23"/>
+      <c r="C199" s="24"/>
     </row>
     <row r="200" ht="12.75">
-      <c r="C200" s="23"/>
+      <c r="C200" s="24"/>
     </row>
     <row r="201" ht="12.75">
-      <c r="C201" s="23"/>
+      <c r="C201" s="24"/>
     </row>
     <row r="202" ht="12.75">
-      <c r="C202" s="23"/>
+      <c r="C202" s="24"/>
     </row>
     <row r="203" ht="12.75">
-      <c r="C203" s="23"/>
+      <c r="C203" s="24"/>
     </row>
     <row r="204" ht="12.75">
-      <c r="C204" s="23"/>
+      <c r="C204" s="24"/>
     </row>
     <row r="205" ht="12.75">
-      <c r="C205" s="23"/>
+      <c r="C205" s="24"/>
     </row>
     <row r="206" ht="12.75">
-      <c r="C206" s="23"/>
+      <c r="C206" s="24"/>
     </row>
     <row r="207" ht="12.75">
-      <c r="C207" s="23"/>
+      <c r="C207" s="24"/>
     </row>
     <row r="208" ht="12.75">
-      <c r="C208" s="23"/>
+      <c r="C208" s="24"/>
     </row>
     <row r="209" ht="12.75">
-      <c r="C209" s="23"/>
+      <c r="C209" s="24"/>
     </row>
     <row r="210" ht="12.75">
-      <c r="C210" s="23"/>
+      <c r="C210" s="24"/>
     </row>
     <row r="211" ht="12.75">
-      <c r="C211" s="23"/>
+      <c r="C211" s="24"/>
     </row>
     <row r="212" ht="12.75">
-      <c r="C212" s="23"/>
+      <c r="C212" s="24"/>
     </row>
     <row r="213" ht="12.75">
-      <c r="C213" s="23"/>
+      <c r="C213" s="24"/>
     </row>
     <row r="214" ht="12.75">
-      <c r="C214" s="23"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" ht="12.75">
-      <c r="C215" s="23"/>
+      <c r="C215" s="24"/>
     </row>
     <row r="216" ht="12.75">
-      <c r="C216" s="23"/>
+      <c r="C216" s="24"/>
     </row>
     <row r="217" ht="12.75">
-      <c r="C217" s="23"/>
+      <c r="C217" s="24"/>
     </row>
     <row r="218" ht="12.75">
-      <c r="C218" s="23"/>
+      <c r="C218" s="24"/>
     </row>
     <row r="219" ht="12.75">
-      <c r="C219" s="23"/>
+      <c r="C219" s="24"/>
     </row>
     <row r="220" ht="12.75">
-      <c r="C220" s="23"/>
+      <c r="C220" s="24"/>
     </row>
     <row r="221" ht="12.75">
-      <c r="C221" s="23"/>
+      <c r="C221" s="24"/>
     </row>
     <row r="222" ht="12.75">
-      <c r="C222" s="23"/>
+      <c r="C222" s="24"/>
     </row>
     <row r="223" ht="12.75">
-      <c r="C223" s="23"/>
+      <c r="C223" s="24"/>
     </row>
     <row r="224" ht="12.75">
-      <c r="C224" s="23"/>
+      <c r="C224" s="24"/>
     </row>
     <row r="225" ht="12.75">
-      <c r="C225" s="23"/>
+      <c r="C225" s="24"/>
     </row>
     <row r="226" ht="12.75">
-      <c r="C226" s="23"/>
+      <c r="C226" s="24"/>
     </row>
     <row r="227" ht="12.75">
-      <c r="C227" s="23"/>
+      <c r="C227" s="24"/>
     </row>
     <row r="228" ht="12.75">
-      <c r="C228" s="23"/>
+      <c r="C228" s="24"/>
     </row>
     <row r="229" ht="12.75">
-      <c r="C229" s="23"/>
+      <c r="C229" s="24"/>
     </row>
     <row r="230" ht="12.75">
-      <c r="C230" s="23"/>
+      <c r="C230" s="24"/>
     </row>
     <row r="231" ht="12.75">
-      <c r="C231" s="23"/>
+      <c r="C231" s="24"/>
     </row>
     <row r="232" ht="12.75">
-      <c r="C232" s="23"/>
+      <c r="C232" s="24"/>
     </row>
     <row r="233" ht="12.75">
-      <c r="C233" s="23"/>
+      <c r="C233" s="24"/>
     </row>
     <row r="234" ht="12.75">
-      <c r="C234" s="23"/>
+      <c r="C234" s="24"/>
     </row>
     <row r="235" ht="12.75">
-      <c r="C235" s="23"/>
+      <c r="C235" s="24"/>
     </row>
     <row r="236" ht="12.75">
-      <c r="C236" s="23"/>
+      <c r="C236" s="24"/>
     </row>
     <row r="237" ht="12.75">
-      <c r="C237" s="23"/>
+      <c r="C237" s="24"/>
     </row>
     <row r="238" ht="12.75">
-      <c r="C238" s="23"/>
+      <c r="C238" s="24"/>
     </row>
     <row r="239" ht="12.75">
-      <c r="C239" s="23"/>
+      <c r="C239" s="24"/>
     </row>
     <row r="240" ht="12.75">
-      <c r="C240" s="23"/>
+      <c r="C240" s="24"/>
     </row>
     <row r="241" ht="12.75">
-      <c r="C241" s="23"/>
+      <c r="C241" s="24"/>
     </row>
     <row r="242" ht="12.75">
-      <c r="C242" s="23"/>
+      <c r="C242" s="24"/>
     </row>
     <row r="243" ht="12.75">
-      <c r="C243" s="23"/>
+      <c r="C243" s="24"/>
     </row>
     <row r="244" ht="12.75">
-      <c r="C244" s="23"/>
+      <c r="C244" s="24"/>
     </row>
     <row r="245" ht="12.75">
-      <c r="C245" s="23"/>
+      <c r="C245" s="24"/>
     </row>
     <row r="246" ht="12.75">
-      <c r="C246" s="23"/>
+      <c r="C246" s="24"/>
     </row>
     <row r="247" ht="12.75">
-      <c r="C247" s="23"/>
+      <c r="C247" s="24"/>
     </row>
     <row r="248" ht="12.75">
-      <c r="C248" s="23"/>
+      <c r="C248" s="24"/>
     </row>
     <row r="249" ht="12.75">
-      <c r="C249" s="23"/>
+      <c r="C249" s="24"/>
     </row>
     <row r="250" ht="12.75">
-      <c r="C250" s="23"/>
+      <c r="C250" s="24"/>
     </row>
     <row r="251" ht="12.75">
-      <c r="C251" s="23"/>
+      <c r="C251" s="24"/>
     </row>
     <row r="252" ht="12.75">
-      <c r="C252" s="23"/>
+      <c r="C252" s="24"/>
     </row>
     <row r="253" ht="12.75">
-      <c r="C253" s="23"/>
+      <c r="C253" s="24"/>
     </row>
     <row r="254" ht="12.75">
-      <c r="C254" s="23"/>
+      <c r="C254" s="24"/>
     </row>
     <row r="255" ht="12.75">
-      <c r="C255" s="23"/>
+      <c r="C255" s="24"/>
     </row>
     <row r="256" ht="12.75">
-      <c r="C256" s="23"/>
+      <c r="C256" s="24"/>
     </row>
     <row r="257" ht="12.75">
-      <c r="C257" s="23"/>
+      <c r="C257" s="24"/>
     </row>
     <row r="258" ht="12.75">
-      <c r="C258" s="23"/>
+      <c r="C258" s="24"/>
     </row>
     <row r="259" ht="12.75">
-      <c r="C259" s="23"/>
+      <c r="C259" s="24"/>
     </row>
     <row r="260" ht="12.75">
-      <c r="C260" s="23"/>
+      <c r="C260" s="24"/>
     </row>
     <row r="261" ht="12.75">
-      <c r="C261" s="23"/>
+      <c r="C261" s="24"/>
     </row>
     <row r="262" ht="12.75">
-      <c r="C262" s="23"/>
+      <c r="C262" s="24"/>
     </row>
     <row r="263" ht="12.75">
-      <c r="C263" s="23"/>
+      <c r="C263" s="24"/>
     </row>
     <row r="264" ht="12.75">
-      <c r="C264" s="23"/>
+      <c r="C264" s="24"/>
     </row>
     <row r="265" ht="12.75">
-      <c r="C265" s="23"/>
+      <c r="C265" s="24"/>
     </row>
     <row r="266" ht="12.75">
-      <c r="C266" s="23"/>
+      <c r="C266" s="24"/>
     </row>
     <row r="267" ht="12.75">
-      <c r="C267" s="23"/>
+      <c r="C267" s="24"/>
     </row>
     <row r="268" ht="12.75">
-      <c r="C268" s="23"/>
+      <c r="C268" s="24"/>
     </row>
     <row r="269" ht="12.75">
-      <c r="C269" s="23"/>
+      <c r="C269" s="24"/>
     </row>
     <row r="270" ht="12.75">
-      <c r="C270" s="23"/>
+      <c r="C270" s="24"/>
     </row>
     <row r="271" ht="12.75">
-      <c r="C271" s="23"/>
+      <c r="C271" s="24"/>
     </row>
     <row r="272" ht="12.75">
-      <c r="C272" s="23"/>
+      <c r="C272" s="24"/>
     </row>
     <row r="273" ht="12.75">
-      <c r="C273" s="23"/>
+      <c r="C273" s="24"/>
     </row>
     <row r="274" ht="12.75">
-      <c r="C274" s="23"/>
+      <c r="C274" s="24"/>
     </row>
     <row r="275" ht="12.75">
-      <c r="C275" s="23"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" ht="12.75">
-      <c r="C276" s="23"/>
+      <c r="C276" s="24"/>
     </row>
     <row r="277" ht="12.75">
-      <c r="C277" s="23"/>
+      <c r="C277" s="24"/>
     </row>
     <row r="278" ht="12.75">
-      <c r="C278" s="23"/>
+      <c r="C278" s="24"/>
     </row>
     <row r="279" ht="12.75">
-      <c r="C279" s="23"/>
+      <c r="C279" s="24"/>
     </row>
     <row r="280" ht="12.75">
-      <c r="C280" s="23"/>
+      <c r="C280" s="24"/>
     </row>
     <row r="281" ht="12.75">
-      <c r="C281" s="23"/>
+      <c r="C281" s="24"/>
     </row>
     <row r="282" ht="12.75">
-      <c r="C282" s="23"/>
+      <c r="C282" s="24"/>
     </row>
     <row r="283" ht="12.75">
-      <c r="C283" s="23"/>
+      <c r="C283" s="24"/>
     </row>
     <row r="284" ht="12.75">
-      <c r="C284" s="23"/>
+      <c r="C284" s="24"/>
     </row>
     <row r="285" ht="12.75">
-      <c r="C285" s="23"/>
+      <c r="C285" s="24"/>
     </row>
     <row r="286" ht="12.75">
-      <c r="C286" s="23"/>
+      <c r="C286" s="24"/>
     </row>
     <row r="287" ht="12.75">
-      <c r="C287" s="23"/>
+      <c r="C287" s="24"/>
     </row>
     <row r="288" ht="12.75">
-      <c r="C288" s="23"/>
+      <c r="C288" s="24"/>
     </row>
     <row r="289" ht="12.75">
-      <c r="C289" s="23"/>
+      <c r="C289" s="24"/>
     </row>
     <row r="290" ht="12.75">
-      <c r="C290" s="23"/>
+      <c r="C290" s="24"/>
     </row>
     <row r="291" ht="12.75">
-      <c r="C291" s="23"/>
+      <c r="C291" s="24"/>
     </row>
     <row r="292" ht="12.75">
-      <c r="C292" s="23"/>
+      <c r="C292" s="24"/>
     </row>
     <row r="293" ht="12.75">
-      <c r="C293" s="23"/>
+      <c r="C293" s="24"/>
     </row>
     <row r="294" ht="12.75">
-      <c r="C294" s="23"/>
+      <c r="C294" s="24"/>
     </row>
     <row r="295" ht="12.75">
-      <c r="C295" s="23"/>
+      <c r="C295" s="24"/>
     </row>
     <row r="296" ht="12.75">
-      <c r="C296" s="23"/>
+      <c r="C296" s="24"/>
     </row>
     <row r="297" ht="12.75">
-      <c r="C297" s="23"/>
+      <c r="C297" s="24"/>
     </row>
     <row r="298" ht="12.75">
-      <c r="C298" s="23"/>
+      <c r="C298" s="24"/>
     </row>
     <row r="299" ht="12.75">
-      <c r="C299" s="23"/>
+      <c r="C299" s="24"/>
     </row>
     <row r="300" ht="12.75">
-      <c r="C300" s="23"/>
+      <c r="C300" s="24"/>
     </row>
     <row r="301" ht="12.75">
-      <c r="C301" s="23"/>
+      <c r="C301" s="24"/>
     </row>
     <row r="302" ht="12.75">
-      <c r="C302" s="23"/>
+      <c r="C302" s="24"/>
     </row>
     <row r="303" ht="12.75">
-      <c r="C303" s="23"/>
+      <c r="C303" s="24"/>
     </row>
     <row r="304" ht="12.75">
-      <c r="C304" s="23"/>
+      <c r="C304" s="24"/>
     </row>
     <row r="305" ht="12.75">
-      <c r="C305" s="23"/>
+      <c r="C305" s="24"/>
     </row>
     <row r="306" ht="12.75">
-      <c r="C306" s="23"/>
+      <c r="C306" s="24"/>
     </row>
     <row r="307" ht="12.75">
-      <c r="C307" s="23"/>
+      <c r="C307" s="24"/>
     </row>
     <row r="308" ht="12.75">
-      <c r="C308" s="23"/>
+      <c r="C308" s="24"/>
     </row>
     <row r="309" ht="12.75">
-      <c r="C309" s="23"/>
+      <c r="C309" s="24"/>
     </row>
     <row r="310" ht="12.75">
-      <c r="C310" s="23"/>
+      <c r="C310" s="24"/>
     </row>
     <row r="311" ht="12.75">
-      <c r="C311" s="23"/>
+      <c r="C311" s="24"/>
     </row>
     <row r="312" ht="12.75">
-      <c r="C312" s="23"/>
+      <c r="C312" s="24"/>
     </row>
     <row r="313" ht="12.75">
-      <c r="C313" s="23"/>
+      <c r="C313" s="24"/>
     </row>
     <row r="314" ht="12.75">
-      <c r="C314" s="23"/>
+      <c r="C314" s="24"/>
     </row>
     <row r="315" ht="12.75">
-      <c r="C315" s="23"/>
+      <c r="C315" s="24"/>
     </row>
     <row r="316" ht="12.75">
-      <c r="C316" s="23"/>
+      <c r="C316" s="24"/>
     </row>
     <row r="317" ht="12.75">
-      <c r="C317" s="23"/>
+      <c r="C317" s="24"/>
     </row>
     <row r="318" ht="12.75">
-      <c r="C318" s="23"/>
+      <c r="C318" s="24"/>
     </row>
     <row r="319" ht="12.75">
-      <c r="C319" s="23"/>
+      <c r="C319" s="24"/>
     </row>
     <row r="320" ht="12.75">
-      <c r="C320" s="23"/>
+      <c r="C320" s="24"/>
     </row>
     <row r="321" ht="12.75">
-      <c r="C321" s="23"/>
+      <c r="C321" s="24"/>
     </row>
     <row r="322" ht="12.75">
-      <c r="C322" s="23"/>
+      <c r="C322" s="24"/>
     </row>
     <row r="323" ht="12.75">
-      <c r="C323" s="23"/>
+      <c r="C323" s="24"/>
     </row>
     <row r="324" ht="12.75">
-      <c r="C324" s="23"/>
+      <c r="C324" s="24"/>
     </row>
     <row r="325" ht="12.75">
-      <c r="C325" s="23"/>
+      <c r="C325" s="24"/>
     </row>
     <row r="326" ht="12.75">
-      <c r="C326" s="23"/>
+      <c r="C326" s="24"/>
     </row>
     <row r="327" ht="12.75">
-      <c r="C327" s="23"/>
+      <c r="C327" s="24"/>
     </row>
     <row r="328" ht="12.75">
-      <c r="C328" s="23"/>
+      <c r="C328" s="24"/>
     </row>
     <row r="329" ht="12.75">
-      <c r="C329" s="23"/>
+      <c r="C329" s="24"/>
     </row>
     <row r="330" ht="12.75">
-      <c r="C330" s="23"/>
+      <c r="C330" s="24"/>
     </row>
     <row r="331" ht="12.75">
-      <c r="C331" s="23"/>
+      <c r="C331" s="24"/>
     </row>
     <row r="332" ht="12.75">
-      <c r="C332" s="23"/>
+      <c r="C332" s="24"/>
     </row>
     <row r="333" ht="12.75">
-      <c r="C333" s="23"/>
+      <c r="C333" s="24"/>
     </row>
     <row r="334" ht="12.75">
-      <c r="C334" s="23"/>
+      <c r="C334" s="24"/>
     </row>
     <row r="335" ht="12.75">
-      <c r="C335" s="23"/>
+      <c r="C335" s="24"/>
     </row>
     <row r="336" ht="12.75">
-      <c r="C336" s="23"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" ht="12.75">
-      <c r="C337" s="23"/>
+      <c r="C337" s="24"/>
     </row>
     <row r="338" ht="12.75">
-      <c r="C338" s="23"/>
+      <c r="C338" s="24"/>
     </row>
     <row r="339" ht="12.75">
-      <c r="C339" s="23"/>
+      <c r="C339" s="24"/>
     </row>
     <row r="340" ht="12.75">
-      <c r="C340" s="23"/>
+      <c r="C340" s="24"/>
     </row>
     <row r="341" ht="12.75">
-      <c r="C341" s="23"/>
+      <c r="C341" s="24"/>
     </row>
     <row r="342" ht="12.75">
-      <c r="C342" s="23"/>
+      <c r="C342" s="24"/>
     </row>
     <row r="343" ht="12.75">
-      <c r="C343" s="23"/>
+      <c r="C343" s="24"/>
     </row>
     <row r="344" ht="12.75">
-      <c r="C344" s="23"/>
+      <c r="C344" s="24"/>
     </row>
     <row r="345" ht="12.75">
-      <c r="C345" s="23"/>
+      <c r="C345" s="24"/>
     </row>
     <row r="346" ht="12.75">
-      <c r="C346" s="23"/>
+      <c r="C346" s="24"/>
     </row>
     <row r="347" ht="12.75">
-      <c r="C347" s="23"/>
+      <c r="C347" s="24"/>
     </row>
     <row r="348" ht="12.75">
-      <c r="C348" s="23"/>
+      <c r="C348" s="24"/>
     </row>
     <row r="349" ht="12.75">
-      <c r="C349" s="23"/>
+      <c r="C349" s="24"/>
     </row>
     <row r="350" ht="12.75">
-      <c r="C350" s="23"/>
+      <c r="C350" s="24"/>
     </row>
     <row r="351" ht="12.75">
-      <c r="C351" s="23"/>
+      <c r="C351" s="24"/>
     </row>
     <row r="352" ht="12.75">
-      <c r="C352" s="23"/>
+      <c r="C352" s="24"/>
     </row>
     <row r="353" ht="12.75">
-      <c r="C353" s="23"/>
+      <c r="C353" s="24"/>
     </row>
     <row r="354" ht="12.75">
-      <c r="C354" s="23"/>
+      <c r="C354" s="24"/>
     </row>
     <row r="355" ht="12.75">
-      <c r="C355" s="23"/>
+      <c r="C355" s="24"/>
     </row>
     <row r="356" ht="12.75">
-      <c r="C356" s="23"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" ht="12.75">
-      <c r="C357" s="23"/>
+      <c r="C357" s="24"/>
     </row>
     <row r="358" ht="12.75">
-      <c r="C358" s="23"/>
+      <c r="C358" s="24"/>
     </row>
     <row r="359" ht="12.75">
-      <c r="C359" s="23"/>
+      <c r="C359" s="24"/>
     </row>
     <row r="360" ht="12.75">
-      <c r="C360" s="23"/>
+      <c r="C360" s="24"/>
     </row>
     <row r="361" ht="12.75">
-      <c r="C361" s="23"/>
+      <c r="C361" s="24"/>
     </row>
     <row r="362" ht="12.75">
-      <c r="C362" s="23"/>
+      <c r="C362" s="24"/>
     </row>
     <row r="363" ht="12.75">
-      <c r="C363" s="23"/>
+      <c r="C363" s="24"/>
     </row>
     <row r="364" ht="12.75">
-      <c r="C364" s="23"/>
+      <c r="C364" s="24"/>
     </row>
     <row r="365" ht="12.75">
-      <c r="C365" s="23"/>
+      <c r="C365" s="24"/>
     </row>
     <row r="366" ht="12.75">
-      <c r="C366" s="23"/>
+      <c r="C366" s="24"/>
     </row>
     <row r="367" ht="12.75">
-      <c r="C367" s="23"/>
+      <c r="C367" s="24"/>
     </row>
     <row r="368" ht="12.75">
-      <c r="C368" s="23"/>
+      <c r="C368" s="24"/>
     </row>
     <row r="369" ht="12.75">
-      <c r="C369" s="23"/>
+      <c r="C369" s="24"/>
     </row>
     <row r="370" ht="12.75">
-      <c r="C370" s="23"/>
+      <c r="C370" s="24"/>
     </row>
     <row r="371" ht="12.75">
-      <c r="C371" s="23"/>
+      <c r="C371" s="24"/>
     </row>
     <row r="372" ht="12.75">
-      <c r="C372" s="23"/>
+      <c r="C372" s="24"/>
     </row>
     <row r="373" ht="12.75">
-      <c r="C373" s="23"/>
+      <c r="C373" s="24"/>
     </row>
     <row r="374" ht="12.75">
-      <c r="C374" s="23"/>
+      <c r="C374" s="24"/>
     </row>
     <row r="375" ht="12.75">
-      <c r="C375" s="23"/>
+      <c r="C375" s="24"/>
     </row>
     <row r="376" ht="12.75">
-      <c r="C376" s="23"/>
+      <c r="C376" s="24"/>
     </row>
     <row r="377" ht="12.75">
-      <c r="C377" s="23"/>
+      <c r="C377" s="24"/>
     </row>
     <row r="378" ht="12.75">
-      <c r="C378" s="23"/>
+      <c r="C378" s="24"/>
     </row>
     <row r="379" ht="12.75">
-      <c r="C379" s="23"/>
+      <c r="C379" s="24"/>
     </row>
     <row r="380" ht="12.75">
-      <c r="C380" s="23"/>
+      <c r="C380" s="24"/>
     </row>
     <row r="381" ht="12.75">
-      <c r="C381" s="23"/>
+      <c r="C381" s="24"/>
     </row>
     <row r="382" ht="12.75">
-      <c r="C382" s="23"/>
+      <c r="C382" s="24"/>
     </row>
     <row r="383" ht="12.75">
-      <c r="C383" s="23"/>
+      <c r="C383" s="24"/>
     </row>
     <row r="384" ht="12.75">
-      <c r="C384" s="23"/>
+      <c r="C384" s="24"/>
     </row>
     <row r="385" ht="12.75">
-      <c r="C385" s="23"/>
+      <c r="C385" s="24"/>
     </row>
     <row r="386" ht="12.75">
-      <c r="C386" s="23"/>
+      <c r="C386" s="24"/>
     </row>
     <row r="387" ht="12.75">
-      <c r="C387" s="23"/>
+      <c r="C387" s="24"/>
     </row>
     <row r="388" ht="12.75">
-      <c r="C388" s="23"/>
+      <c r="C388" s="24"/>
     </row>
     <row r="389" ht="12.75">
-      <c r="C389" s="23"/>
+      <c r="C389" s="24"/>
     </row>
     <row r="390" ht="12.75">
-      <c r="C390" s="23"/>
+      <c r="C390" s="24"/>
     </row>
     <row r="391" ht="12.75">
-      <c r="C391" s="23"/>
+      <c r="C391" s="24"/>
     </row>
     <row r="392" ht="12.75">
-      <c r="C392" s="23"/>
+      <c r="C392" s="24"/>
     </row>
     <row r="393" ht="12.75">
-      <c r="C393" s="23"/>
+      <c r="C393" s="24"/>
     </row>
     <row r="394" ht="12.75">
-      <c r="C394" s="23"/>
+      <c r="C394" s="24"/>
     </row>
     <row r="395" ht="12.75">
-      <c r="C395" s="23"/>
+      <c r="C395" s="24"/>
     </row>
     <row r="396" ht="12.75">
-      <c r="C396" s="23"/>
+      <c r="C396" s="24"/>
     </row>
     <row r="397" ht="12.75">
-      <c r="C397" s="23"/>
+      <c r="C397" s="24"/>
     </row>
     <row r="398" ht="12.75">
-      <c r="C398" s="23"/>
+      <c r="C398" s="24"/>
     </row>
     <row r="399" ht="12.75">
-      <c r="C399" s="23"/>
+      <c r="C399" s="24"/>
     </row>
     <row r="400" ht="12.75">
-      <c r="C400" s="23"/>
+      <c r="C400" s="24"/>
     </row>
     <row r="401" ht="12.75">
-      <c r="C401" s="23"/>
+      <c r="C401" s="24"/>
     </row>
     <row r="402" ht="12.75">
-      <c r="C402" s="23"/>
+      <c r="C402" s="24"/>
     </row>
     <row r="403" ht="12.75">
-      <c r="C403" s="23"/>
+      <c r="C403" s="24"/>
     </row>
     <row r="404" ht="12.75">
-      <c r="C404" s="23"/>
+      <c r="C404" s="24"/>
     </row>
     <row r="405" ht="12.75">
-      <c r="C405" s="23"/>
+      <c r="C405" s="24"/>
     </row>
     <row r="406" ht="12.75">
-      <c r="C406" s="23"/>
+      <c r="C406" s="24"/>
     </row>
     <row r="407" ht="12.75">
-      <c r="C407" s="23"/>
+      <c r="C407" s="24"/>
     </row>
     <row r="408" ht="12.75">
-      <c r="C408" s="23"/>
+      <c r="C408" s="24"/>
     </row>
     <row r="409" ht="12.75">
-      <c r="C409" s="23"/>
+      <c r="C409" s="24"/>
     </row>
     <row r="410" ht="12.75">
-      <c r="C410" s="23"/>
+      <c r="C410" s="24"/>
     </row>
     <row r="411" ht="12.75">
-      <c r="C411" s="23"/>
+      <c r="C411" s="24"/>
     </row>
     <row r="412" ht="12.75">
-      <c r="C412" s="23"/>
+      <c r="C412" s="24"/>
     </row>
     <row r="413" ht="12.75">
-      <c r="C413" s="23"/>
+      <c r="C413" s="24"/>
     </row>
     <row r="414" ht="12.75">
-      <c r="C414" s="23"/>
+      <c r="C414" s="24"/>
     </row>
     <row r="415" ht="12.75">
-      <c r="C415" s="23"/>
+      <c r="C415" s="24"/>
     </row>
     <row r="416" ht="12.75">
-      <c r="C416" s="23"/>
+      <c r="C416" s="24"/>
     </row>
     <row r="417" ht="12.75">
-      <c r="C417" s="23"/>
+      <c r="C417" s="24"/>
     </row>
     <row r="418" ht="12.75">
-      <c r="C418" s="23"/>
+      <c r="C418" s="24"/>
     </row>
     <row r="419" ht="12.75">
-      <c r="C419" s="23"/>
+      <c r="C419" s="24"/>
     </row>
     <row r="420" ht="12.75">
-      <c r="C420" s="23"/>
+      <c r="C420" s="24"/>
     </row>
     <row r="421" ht="12.75">
-      <c r="C421" s="23"/>
+      <c r="C421" s="24"/>
     </row>
     <row r="422" ht="12.75">
-      <c r="C422" s="23"/>
+      <c r="C422" s="24"/>
     </row>
     <row r="423" ht="12.75">
-      <c r="C423" s="23"/>
+      <c r="C423" s="24"/>
     </row>
     <row r="424" ht="12.75">
-      <c r="C424" s="23"/>
+      <c r="C424" s="24"/>
     </row>
     <row r="425" ht="12.75">
-      <c r="C425" s="23"/>
+      <c r="C425" s="24"/>
     </row>
     <row r="426" ht="12.75">
-      <c r="C426" s="23"/>
+      <c r="C426" s="24"/>
     </row>
     <row r="427" ht="12.75">
-      <c r="C427" s="23"/>
+      <c r="C427" s="24"/>
     </row>
     <row r="428" ht="12.75">
-      <c r="C428" s="23"/>
+      <c r="C428" s="24"/>
     </row>
     <row r="429" ht="12.75">
-      <c r="C429" s="23"/>
+      <c r="C429" s="24"/>
     </row>
     <row r="430" ht="12.75">
-      <c r="C430" s="23"/>
+      <c r="C430" s="24"/>
     </row>
     <row r="431" ht="12.75">
-      <c r="C431" s="23"/>
+      <c r="C431" s="24"/>
     </row>
     <row r="432" ht="12.75">
-      <c r="C432" s="23"/>
+      <c r="C432" s="24"/>
     </row>
     <row r="433" ht="12.75">
-      <c r="C433" s="23"/>
+      <c r="C433" s="24"/>
     </row>
     <row r="434" ht="12.75">
-      <c r="C434" s="23"/>
+      <c r="C434" s="24"/>
     </row>
     <row r="435" ht="12.75">
-      <c r="C435" s="23"/>
+      <c r="C435" s="24"/>
     </row>
     <row r="436" ht="12.75">
-      <c r="C436" s="23"/>
+      <c r="C436" s="24"/>
     </row>
     <row r="437" ht="12.75">
-      <c r="C437" s="23"/>
+      <c r="C437" s="24"/>
     </row>
     <row r="438" ht="12.75">
-      <c r="C438" s="23"/>
+      <c r="C438" s="24"/>
     </row>
     <row r="439" ht="12.75">
-      <c r="C439" s="23"/>
+      <c r="C439" s="24"/>
     </row>
     <row r="440" ht="12.75">
-      <c r="C440" s="23"/>
+      <c r="C440" s="24"/>
     </row>
     <row r="441" ht="12.75">
-      <c r="C441" s="23"/>
+      <c r="C441" s="24"/>
     </row>
     <row r="442" ht="12.75">
-      <c r="C442" s="23"/>
+      <c r="C442" s="24"/>
     </row>
     <row r="443" ht="12.75">
-      <c r="C443" s="23"/>
+      <c r="C443" s="24"/>
     </row>
     <row r="444" ht="12.75">
-      <c r="C444" s="23"/>
+      <c r="C444" s="24"/>
     </row>
     <row r="445" ht="12.75">
-      <c r="C445" s="23"/>
+      <c r="C445" s="24"/>
     </row>
     <row r="446" ht="12.75">
-      <c r="C446" s="23"/>
+      <c r="C446" s="24"/>
     </row>
     <row r="447" ht="12.75">
-      <c r="C447" s="23"/>
+      <c r="C447" s="24"/>
     </row>
     <row r="448" ht="12.75">
-      <c r="C448" s="23"/>
+      <c r="C448" s="24"/>
     </row>
     <row r="449" ht="12.75">
-      <c r="C449" s="23"/>
+      <c r="C449" s="24"/>
     </row>
     <row r="450" ht="12.75">
-      <c r="C450" s="23"/>
+      <c r="C450" s="24"/>
     </row>
     <row r="451" ht="12.75">
-      <c r="C451" s="23"/>
+      <c r="C451" s="24"/>
     </row>
     <row r="452" ht="12.75">
-      <c r="C452" s="23"/>
+      <c r="C452" s="24"/>
     </row>
     <row r="453" ht="12.75">
-      <c r="C453" s="23"/>
+      <c r="C453" s="24"/>
     </row>
     <row r="454" ht="12.75">
-      <c r="C454" s="23"/>
+      <c r="C454" s="24"/>
     </row>
     <row r="455" ht="12.75">
-      <c r="C455" s="23"/>
+      <c r="C455" s="24"/>
     </row>
     <row r="456" ht="12.75">
-      <c r="C456" s="23"/>
+      <c r="C456" s="24"/>
     </row>
     <row r="457" ht="12.75">
-      <c r="C457" s="23"/>
+      <c r="C457" s="24"/>
     </row>
     <row r="458" ht="12.75">
-      <c r="C458" s="23"/>
+      <c r="C458" s="24"/>
     </row>
     <row r="459" ht="12.75">
-      <c r="C459" s="23"/>
+      <c r="C459" s="24"/>
     </row>
     <row r="460" ht="12.75">
-      <c r="C460" s="23"/>
+      <c r="C460" s="24"/>
     </row>
     <row r="461" ht="12.75">
-      <c r="C461" s="23"/>
+      <c r="C461" s="24"/>
     </row>
     <row r="462" ht="12.75">
-      <c r="C462" s="23"/>
+      <c r="C462" s="24"/>
     </row>
     <row r="463" ht="12.75">
-      <c r="C463" s="23"/>
+      <c r="C463" s="24"/>
     </row>
     <row r="464" ht="12.75">
-      <c r="C464" s="23"/>
+      <c r="C464" s="24"/>
     </row>
     <row r="465" ht="12.75">
-      <c r="C465" s="23"/>
+      <c r="C465" s="24"/>
     </row>
     <row r="466" ht="12.75">
-      <c r="C466" s="23"/>
+      <c r="C466" s="24"/>
     </row>
     <row r="467" ht="12.75">
-      <c r="C467" s="23"/>
+      <c r="C467" s="24"/>
     </row>
     <row r="468" ht="12.75">
-      <c r="C468" s="23"/>
+      <c r="C468" s="24"/>
     </row>
     <row r="469" ht="12.75">
-      <c r="C469" s="23"/>
+      <c r="C469" s="24"/>
     </row>
     <row r="470" ht="12.75">
-      <c r="C470" s="23"/>
+      <c r="C470" s="24"/>
     </row>
     <row r="471" ht="12.75">
-      <c r="C471" s="23"/>
+      <c r="C471" s="24"/>
     </row>
     <row r="472" ht="12.75">
-      <c r="C472" s="23"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" ht="12.75">
-      <c r="C473" s="23"/>
+      <c r="C473" s="24"/>
     </row>
     <row r="474" ht="12.75">
-      <c r="C474" s="23"/>
+      <c r="C474" s="24"/>
     </row>
     <row r="475" ht="12.75">
-      <c r="C475" s="23"/>
+      <c r="C475" s="24"/>
     </row>
     <row r="476" ht="12.75">
-      <c r="C476" s="23"/>
+      <c r="C476" s="24"/>
     </row>
     <row r="477" ht="12.75">
-      <c r="C477" s="23"/>
+      <c r="C477" s="24"/>
     </row>
     <row r="478" ht="12.75">
-      <c r="C478" s="23"/>
+      <c r="C478" s="24"/>
     </row>
     <row r="479" ht="12.75">
-      <c r="C479" s="23"/>
+      <c r="C479" s="24"/>
     </row>
     <row r="480" ht="12.75">
-      <c r="C480" s="23"/>
+      <c r="C480" s="24"/>
     </row>
     <row r="481" ht="12.75">
-      <c r="C481" s="23"/>
+      <c r="C481" s="24"/>
     </row>
     <row r="482" ht="12.75">
-      <c r="C482" s="23"/>
+      <c r="C482" s="24"/>
     </row>
     <row r="483" ht="12.75">
-      <c r="C483" s="23"/>
+      <c r="C483" s="24"/>
     </row>
     <row r="484" ht="12.75">
-      <c r="C484" s="23"/>
+      <c r="C484" s="24"/>
     </row>
     <row r="485" ht="12.75">
-      <c r="C485" s="23"/>
+      <c r="C485" s="24"/>
     </row>
     <row r="486" ht="12.75">
-      <c r="C486" s="23"/>
+      <c r="C486" s="24"/>
     </row>
     <row r="487" ht="12.75">
-      <c r="C487" s="23"/>
+      <c r="C487" s="24"/>
     </row>
     <row r="488" ht="12.75">
-      <c r="C488" s="23"/>
+      <c r="C488" s="24"/>
     </row>
     <row r="489" ht="12.75">
-      <c r="C489" s="23"/>
+      <c r="C489" s="24"/>
     </row>
     <row r="490" ht="12.75">
-      <c r="C490" s="23"/>
+      <c r="C490" s="24"/>
     </row>
     <row r="491" ht="12.75">
-      <c r="C491" s="23"/>
+      <c r="C491" s="24"/>
     </row>
     <row r="492" ht="12.75">
-      <c r="C492" s="23"/>
+      <c r="C492" s="24"/>
     </row>
     <row r="493" ht="12.75">
-      <c r="C493" s="23"/>
+      <c r="C493" s="24"/>
     </row>
     <row r="494" ht="12.75">
-      <c r="C494" s="23"/>
+      <c r="C494" s="24"/>
     </row>
     <row r="495" ht="12.75">
-      <c r="C495" s="23"/>
+      <c r="C495" s="24"/>
     </row>
     <row r="496" ht="12.75">
-      <c r="C496" s="23"/>
+      <c r="C496" s="24"/>
     </row>
     <row r="497" ht="12.75">
-      <c r="C497" s="23"/>
+      <c r="C497" s="24"/>
     </row>
     <row r="498" ht="12.75">
-      <c r="C498" s="23"/>
+      <c r="C498" s="24"/>
     </row>
     <row r="499" ht="12.75">
-      <c r="C499" s="23"/>
+      <c r="C499" s="24"/>
     </row>
     <row r="500" ht="12.75">
-      <c r="C500" s="23"/>
+      <c r="C500" s="24"/>
     </row>
     <row r="501" ht="12.75">
-      <c r="C501" s="23"/>
+      <c r="C501" s="24"/>
     </row>
     <row r="502" ht="12.75">
-      <c r="C502" s="23"/>
+      <c r="C502" s="24"/>
     </row>
     <row r="503" ht="12.75">
-      <c r="C503" s="23"/>
+      <c r="C503" s="24"/>
     </row>
     <row r="504" ht="12.75">
-      <c r="C504" s="23"/>
+      <c r="C504" s="24"/>
     </row>
     <row r="505" ht="12.75">
-      <c r="C505" s="23"/>
+      <c r="C505" s="24"/>
     </row>
     <row r="506" ht="12.75">
-      <c r="C506" s="23"/>
+      <c r="C506" s="24"/>
     </row>
     <row r="507" ht="12.75">
-      <c r="C507" s="23"/>
+      <c r="C507" s="24"/>
     </row>
     <row r="508" ht="12.75">
-      <c r="C508" s="23"/>
+      <c r="C508" s="24"/>
     </row>
     <row r="509" ht="12.75">
-      <c r="C509" s="23"/>
+      <c r="C509" s="24"/>
     </row>
     <row r="510" ht="12.75">
-      <c r="C510" s="23"/>
+      <c r="C510" s="24"/>
     </row>
     <row r="511" ht="12.75">
-      <c r="C511" s="23"/>
+      <c r="C511" s="24"/>
     </row>
     <row r="512" ht="12.75">
-      <c r="C512" s="23"/>
+      <c r="C512" s="24"/>
     </row>
     <row r="513" ht="12.75">
-      <c r="C513" s="23"/>
+      <c r="C513" s="24"/>
     </row>
     <row r="514" ht="12.75">
-      <c r="C514" s="23"/>
+      <c r="C514" s="24"/>
     </row>
     <row r="515" ht="12.75">
-      <c r="C515" s="23"/>
+      <c r="C515" s="24"/>
     </row>
     <row r="516" ht="12.75">
-      <c r="C516" s="23"/>
+      <c r="C516" s="24"/>
     </row>
     <row r="517" ht="12.75">
-      <c r="C517" s="23"/>
+      <c r="C517" s="24"/>
     </row>
     <row r="518" ht="12.75">
-      <c r="C518" s="23"/>
+      <c r="C518" s="24"/>
     </row>
     <row r="519" ht="12.75">
-      <c r="C519" s="23"/>
+      <c r="C519" s="24"/>
     </row>
     <row r="520" ht="12.75">
-      <c r="C520" s="23"/>
+      <c r="C520" s="24"/>
     </row>
     <row r="521" ht="12.75">
-      <c r="C521" s="23"/>
+      <c r="C521" s="24"/>
     </row>
     <row r="522" ht="12.75">
-      <c r="C522" s="23"/>
+      <c r="C522" s="24"/>
     </row>
     <row r="523" ht="12.75">
-      <c r="C523" s="23"/>
+      <c r="C523" s="24"/>
     </row>
     <row r="524" ht="12.75">
-      <c r="C524" s="23"/>
+      <c r="C524" s="24"/>
     </row>
     <row r="525" ht="12.75">
-      <c r="C525" s="23"/>
+      <c r="C525" s="24"/>
     </row>
     <row r="526" ht="12.75">
-      <c r="C526" s="23"/>
+      <c r="C526" s="24"/>
     </row>
     <row r="527" ht="12.75">
-      <c r="C527" s="23"/>
+      <c r="C527" s="24"/>
     </row>
     <row r="528" ht="12.75">
-      <c r="C528" s="23"/>
+      <c r="C528" s="24"/>
     </row>
     <row r="529" ht="12.75">
-      <c r="C529" s="23"/>
+      <c r="C529" s="24"/>
     </row>
     <row r="530" ht="12.75">
-      <c r="C530" s="23"/>
+      <c r="C530" s="24"/>
     </row>
     <row r="531" ht="12.75">
-      <c r="C531" s="23"/>
+      <c r="C531" s="24"/>
     </row>
     <row r="532" ht="12.75">
-      <c r="C532" s="23"/>
+      <c r="C532" s="24"/>
     </row>
     <row r="533" ht="12.75">
-      <c r="C533" s="23"/>
+      <c r="C533" s="24"/>
     </row>
     <row r="534" ht="12.75">
-      <c r="C534" s="23"/>
+      <c r="C534" s="24"/>
     </row>
     <row r="535" ht="12.75">
-      <c r="C535" s="23"/>
+      <c r="C535" s="24"/>
     </row>
     <row r="536" ht="12.75">
-      <c r="C536" s="23"/>
+      <c r="C536" s="24"/>
     </row>
     <row r="537" ht="12.75">
-      <c r="C537" s="23"/>
+      <c r="C537" s="24"/>
     </row>
     <row r="538" ht="12.75">
-      <c r="C538" s="23"/>
+      <c r="C538" s="24"/>
     </row>
     <row r="539" ht="12.75">
-      <c r="C539" s="23"/>
+      <c r="C539" s="24"/>
     </row>
     <row r="540" ht="12.75">
-      <c r="C540" s="23"/>
+      <c r="C540" s="24"/>
     </row>
     <row r="541" ht="12.75">
-      <c r="C541" s="23"/>
+      <c r="C541" s="24"/>
     </row>
     <row r="542" ht="12.75">
-      <c r="C542" s="23"/>
+      <c r="C542" s="24"/>
     </row>
     <row r="543" ht="12.75">
-      <c r="C543" s="23"/>
+      <c r="C543" s="24"/>
     </row>
     <row r="544" ht="12.75">
-      <c r="C544" s="23"/>
+      <c r="C544" s="24"/>
     </row>
     <row r="545" ht="12.75">
-      <c r="C545" s="23"/>
+      <c r="C545" s="24"/>
     </row>
     <row r="546" ht="12.75">
-      <c r="C546" s="23"/>
+      <c r="C546" s="24"/>
     </row>
     <row r="547" ht="12.75">
-      <c r="C547" s="23"/>
+      <c r="C547" s="24"/>
     </row>
     <row r="548" ht="12.75">
-      <c r="C548" s="23"/>
+      <c r="C548" s="24"/>
     </row>
     <row r="549" ht="12.75">
-      <c r="C549" s="23"/>
+      <c r="C549" s="24"/>
     </row>
     <row r="550" ht="12.75">
-      <c r="C550" s="23"/>
+      <c r="C550" s="24"/>
     </row>
     <row r="551" ht="12.75">
-      <c r="C551" s="23"/>
+      <c r="C551" s="24"/>
     </row>
     <row r="552" ht="12.75">
-      <c r="C552" s="23"/>
+      <c r="C552" s="24"/>
     </row>
     <row r="553" ht="12.75">
-      <c r="C553" s="23"/>
+      <c r="C553" s="24"/>
     </row>
     <row r="554" ht="12.75">
-      <c r="C554" s="23"/>
+      <c r="C554" s="24"/>
     </row>
     <row r="555" ht="12.75">
-      <c r="C555" s="23"/>
+      <c r="C555" s="24"/>
     </row>
     <row r="556" ht="12.75">
-      <c r="C556" s="23"/>
+      <c r="C556" s="24"/>
     </row>
     <row r="557" ht="12.75">
-      <c r="C557" s="23"/>
+      <c r="C557" s="24"/>
     </row>
     <row r="558" ht="12.75">
-      <c r="C558" s="23"/>
+      <c r="C558" s="24"/>
     </row>
     <row r="559" ht="12.75">
-      <c r="C559" s="23"/>
+      <c r="C559" s="24"/>
     </row>
     <row r="560" ht="12.75">
-      <c r="C560" s="23"/>
+      <c r="C560" s="24"/>
     </row>
     <row r="561" ht="12.75">
-      <c r="C561" s="23"/>
+      <c r="C561" s="24"/>
     </row>
     <row r="562" ht="12.75">
-      <c r="C562" s="23"/>
+      <c r="C562" s="24"/>
     </row>
     <row r="563" ht="12.75">
-      <c r="C563" s="23"/>
+      <c r="C563" s="24"/>
     </row>
     <row r="564" ht="12.75">
-      <c r="C564" s="23"/>
+      <c r="C564" s="24"/>
     </row>
     <row r="565" ht="12.75">
-      <c r="C565" s="23"/>
+      <c r="C565" s="24"/>
     </row>
     <row r="566" ht="12.75">
-      <c r="C566" s="23"/>
+      <c r="C566" s="24"/>
     </row>
     <row r="567" ht="12.75">
-      <c r="C567" s="23"/>
+      <c r="C567" s="24"/>
     </row>
     <row r="568" ht="12.75">
-      <c r="C568" s="23"/>
+      <c r="C568" s="24"/>
     </row>
     <row r="569" ht="12.75">
-      <c r="C569" s="23"/>
+      <c r="C569" s="24"/>
     </row>
     <row r="570" ht="12.75">
-      <c r="C570" s="23"/>
+      <c r="C570" s="24"/>
     </row>
     <row r="571" ht="12.75">
-      <c r="C571" s="23"/>
+      <c r="C571" s="24"/>
     </row>
     <row r="572" ht="12.75">
-      <c r="C572" s="23"/>
+      <c r="C572" s="24"/>
     </row>
     <row r="573" ht="12.75">
-      <c r="C573" s="23"/>
+      <c r="C573" s="24"/>
     </row>
     <row r="574" ht="12.75">
-      <c r="C574" s="23"/>
+      <c r="C574" s="24"/>
     </row>
     <row r="575" ht="12.75">
-      <c r="C575" s="23"/>
+      <c r="C575" s="24"/>
     </row>
     <row r="576" ht="12.75">
-      <c r="C576" s="23"/>
+      <c r="C576" s="24"/>
     </row>
     <row r="577" ht="12.75">
-      <c r="C577" s="23"/>
+      <c r="C577" s="24"/>
     </row>
     <row r="578" ht="12.75">
-      <c r="C578" s="23"/>
+      <c r="C578" s="24"/>
     </row>
     <row r="579" ht="12.75">
-      <c r="C579" s="23"/>
+      <c r="C579" s="24"/>
     </row>
     <row r="580" ht="12.75">
-      <c r="C580" s="23"/>
+      <c r="C580" s="24"/>
     </row>
     <row r="581" ht="12.75">
-      <c r="C581" s="23"/>
+      <c r="C581" s="24"/>
     </row>
     <row r="582" ht="12.75">
-      <c r="C582" s="23"/>
+      <c r="C582" s="24"/>
     </row>
     <row r="583" ht="12.75">
-      <c r="C583" s="23"/>
+      <c r="C583" s="24"/>
     </row>
     <row r="584" ht="12.75">
-      <c r="C584" s="23"/>
+      <c r="C584" s="24"/>
     </row>
     <row r="585" ht="12.75">
-      <c r="C585" s="23"/>
+      <c r="C585" s="24"/>
     </row>
     <row r="586" ht="12.75">
-      <c r="C586" s="23"/>
+      <c r="C586" s="24"/>
     </row>
     <row r="587" ht="12.75">
-      <c r="C587" s="23"/>
+      <c r="C587" s="24"/>
     </row>
     <row r="588" ht="12.75">
-      <c r="C588" s="23"/>
+      <c r="C588" s="24"/>
     </row>
     <row r="589" ht="12.75">
-      <c r="C589" s="23"/>
+      <c r="C589" s="24"/>
     </row>
     <row r="590" ht="12.75">
-      <c r="C590" s="23"/>
+      <c r="C590" s="24"/>
     </row>
     <row r="591" ht="12.75">
-      <c r="C591" s="23"/>
+      <c r="C591" s="24"/>
     </row>
     <row r="592" ht="12.75">
-      <c r="C592" s="23"/>
+      <c r="C592" s="24"/>
     </row>
     <row r="593" ht="12.75">
-      <c r="C593" s="23"/>
+      <c r="C593" s="24"/>
     </row>
     <row r="594" ht="12.75">
-      <c r="C594" s="23"/>
+      <c r="C594" s="24"/>
     </row>
     <row r="595" ht="12.75">
-      <c r="C595" s="23"/>
+      <c r="C595" s="24"/>
     </row>
     <row r="596" ht="12.75">
-      <c r="C596" s="23"/>
+      <c r="C596" s="24"/>
     </row>
     <row r="597" ht="12.75">
-      <c r="C597" s="23"/>
+      <c r="C597" s="24"/>
     </row>
     <row r="598" ht="12.75">
-      <c r="C598" s="23"/>
+      <c r="C598" s="24"/>
     </row>
     <row r="599" ht="12.75">
-      <c r="C599" s="23"/>
+      <c r="C599" s="24"/>
     </row>
     <row r="600" ht="12.75">
-      <c r="C600" s="23"/>
+      <c r="C600" s="24"/>
     </row>
     <row r="601" ht="12.75">
-      <c r="C601" s="23"/>
+      <c r="C601" s="24"/>
     </row>
     <row r="602" ht="12.75">
-      <c r="C602" s="23"/>
+      <c r="C602" s="24"/>
     </row>
     <row r="603" ht="12.75">
-      <c r="C603" s="23"/>
+      <c r="C603" s="24"/>
     </row>
     <row r="604" ht="12.75">
-      <c r="C604" s="23"/>
+      <c r="C604" s="24"/>
     </row>
     <row r="605" ht="12.75">
-      <c r="C605" s="23"/>
+      <c r="C605" s="24"/>
     </row>
     <row r="606" ht="12.75">
-      <c r="C606" s="23"/>
+      <c r="C606" s="24"/>
     </row>
     <row r="607" ht="12.75">
-      <c r="C607" s="23"/>
+      <c r="C607" s="24"/>
     </row>
     <row r="608" ht="12.75">
-      <c r="C608" s="23"/>
+      <c r="C608" s="24"/>
     </row>
     <row r="609" ht="12.75">
-      <c r="C609" s="23"/>
+      <c r="C609" s="24"/>
     </row>
     <row r="610" ht="12.75">
-      <c r="C610" s="23"/>
+      <c r="C610" s="24"/>
     </row>
     <row r="611" ht="12.75">
-      <c r="C611" s="23"/>
+      <c r="C611" s="24"/>
     </row>
     <row r="612" ht="12.75">
-      <c r="C612" s="23"/>
+      <c r="C612" s="24"/>
     </row>
     <row r="613" ht="12.75">
-      <c r="C613" s="23"/>
+      <c r="C613" s="24"/>
     </row>
     <row r="614" ht="12.75">
-      <c r="C614" s="23"/>
+      <c r="C614" s="24"/>
     </row>
     <row r="615" ht="12.75">
-      <c r="C615" s="23"/>
+      <c r="C615" s="24"/>
     </row>
     <row r="616" ht="12.75">
-      <c r="C616" s="23"/>
+      <c r="C616" s="24"/>
     </row>
     <row r="617" ht="12.75">
-      <c r="C617" s="23"/>
+      <c r="C617" s="24"/>
     </row>
     <row r="618" ht="12.75">
-      <c r="C618" s="23"/>
+      <c r="C618" s="24"/>
     </row>
     <row r="619" ht="12.75">
-      <c r="C619" s="23"/>
+      <c r="C619" s="24"/>
     </row>
     <row r="620" ht="12.75">
-      <c r="C620" s="23"/>
+      <c r="C620" s="24"/>
     </row>
     <row r="621" ht="12.75">
-      <c r="C621" s="23"/>
+      <c r="C621" s="24"/>
     </row>
     <row r="622" ht="12.75">
-      <c r="C622" s="23"/>
+      <c r="C622" s="24"/>
     </row>
     <row r="623" ht="12.75">
-      <c r="C623" s="23"/>
+      <c r="C623" s="24"/>
     </row>
     <row r="624" ht="12.75">
-      <c r="C624" s="23"/>
+      <c r="C624" s="24"/>
     </row>
     <row r="625" ht="12.75">
-      <c r="C625" s="23"/>
+      <c r="C625" s="24"/>
     </row>
     <row r="626" ht="12.75">
-      <c r="C626" s="23"/>
+      <c r="C626" s="24"/>
     </row>
     <row r="627" ht="12.75">
-      <c r="C627" s="23"/>
+      <c r="C627" s="24"/>
     </row>
     <row r="628" ht="12.75">
-      <c r="C628" s="23"/>
+      <c r="C628" s="24"/>
     </row>
     <row r="629" ht="12.75">
-      <c r="C629" s="23"/>
+      <c r="C629" s="24"/>
     </row>
     <row r="630" ht="12.75">
-      <c r="C630" s="23"/>
+      <c r="C630" s="24"/>
     </row>
     <row r="631" ht="12.75">
-      <c r="C631" s="23"/>
+      <c r="C631" s="24"/>
     </row>
     <row r="632" ht="12.75">
-      <c r="C632" s="23"/>
+      <c r="C632" s="24"/>
     </row>
     <row r="633" ht="12.75">
-      <c r="C633" s="23"/>
+      <c r="C633" s="24"/>
     </row>
     <row r="634" ht="12.75">
-      <c r="C634" s="23"/>
+      <c r="C634" s="24"/>
     </row>
     <row r="635" ht="12.75">
-      <c r="C635" s="23"/>
+      <c r="C635" s="24"/>
     </row>
     <row r="636" ht="12.75">
-      <c r="C636" s="23"/>
+      <c r="C636" s="24"/>
     </row>
     <row r="637" ht="12.75">
-      <c r="C637" s="23"/>
+      <c r="C637" s="24"/>
     </row>
     <row r="638" ht="12.75">
-      <c r="C638" s="23"/>
+      <c r="C638" s="24"/>
     </row>
     <row r="639" ht="12.75">
-      <c r="C639" s="23"/>
+      <c r="C639" s="24"/>
     </row>
     <row r="640" ht="12.75">
-      <c r="C640" s="23"/>
+      <c r="C640" s="24"/>
     </row>
     <row r="641" ht="12.75">
-      <c r="C641" s="23"/>
+      <c r="C641" s="24"/>
     </row>
     <row r="642" ht="12.75">
-      <c r="C642" s="23"/>
+      <c r="C642" s="24"/>
     </row>
     <row r="643" ht="12.75">
-      <c r="C643" s="23"/>
+      <c r="C643" s="24"/>
     </row>
     <row r="644" ht="12.75">
-      <c r="C644" s="23"/>
+      <c r="C644" s="24"/>
     </row>
     <row r="645" ht="12.75">
-      <c r="C645" s="23"/>
+      <c r="C645" s="24"/>
     </row>
     <row r="646" ht="12.75">
-      <c r="C646" s="23"/>
+      <c r="C646" s="24"/>
     </row>
     <row r="647" ht="12.75">
-      <c r="C647" s="23"/>
+      <c r="C647" s="24"/>
     </row>
     <row r="648" ht="12.75">
-      <c r="C648" s="23"/>
+      <c r="C648" s="24"/>
     </row>
     <row r="649" ht="12.75">
-      <c r="C649" s="23"/>
+      <c r="C649" s="24"/>
     </row>
     <row r="650" ht="12.75">
-      <c r="C650" s="23"/>
+      <c r="C650" s="24"/>
     </row>
     <row r="651" ht="12.75">
-      <c r="C651" s="23"/>
+      <c r="C651" s="24"/>
     </row>
     <row r="652" ht="12.75">
-      <c r="C652" s="23"/>
+      <c r="C652" s="24"/>
     </row>
     <row r="653" ht="12.75">
-      <c r="C653" s="23"/>
+      <c r="C653" s="24"/>
     </row>
     <row r="654" ht="12.75">
-      <c r="C654" s="23"/>
+      <c r="C654" s="24"/>
     </row>
     <row r="655" ht="12.75">
-      <c r="C655" s="23"/>
+      <c r="C655" s="24"/>
     </row>
     <row r="656" ht="12.75">
-      <c r="C656" s="23"/>
+      <c r="C656" s="24"/>
     </row>
     <row r="657" ht="12.75">
-      <c r="C657" s="23"/>
+      <c r="C657" s="24"/>
     </row>
     <row r="658" ht="12.75">
-      <c r="C658" s="23"/>
+      <c r="C658" s="24"/>
     </row>
     <row r="659" ht="12.75">
-      <c r="C659" s="23"/>
+      <c r="C659" s="24"/>
     </row>
     <row r="660" ht="12.75">
-      <c r="C660" s="23"/>
+      <c r="C660" s="24"/>
     </row>
     <row r="661" ht="12.75">
-      <c r="C661" s="23"/>
+      <c r="C661" s="24"/>
     </row>
     <row r="662" ht="12.75">
-      <c r="C662" s="23"/>
+      <c r="C662" s="24"/>
     </row>
     <row r="663" ht="12.75">
-      <c r="C663" s="23"/>
+      <c r="C663" s="24"/>
     </row>
     <row r="664" ht="12.75">
-      <c r="C664" s="23"/>
+      <c r="C664" s="24"/>
     </row>
     <row r="665" ht="12.75">
-      <c r="C665" s="23"/>
+      <c r="C665" s="24"/>
     </row>
     <row r="666" ht="12.75">
-      <c r="C666" s="23"/>
+      <c r="C666" s="24"/>
     </row>
     <row r="667" ht="12.75">
-      <c r="C667" s="23"/>
+      <c r="C667" s="24"/>
     </row>
     <row r="668" ht="12.75">
-      <c r="C668" s="23"/>
+      <c r="C668" s="24"/>
     </row>
     <row r="669" ht="12.75">
-      <c r="C669" s="23"/>
+      <c r="C669" s="24"/>
     </row>
     <row r="670" ht="12.75">
-      <c r="C670" s="23"/>
+      <c r="C670" s="24"/>
     </row>
     <row r="671" ht="12.75">
-      <c r="C671" s="23"/>
+      <c r="C671" s="24"/>
     </row>
     <row r="672" ht="12.75">
-      <c r="C672" s="23"/>
+      <c r="C672" s="24"/>
     </row>
     <row r="673" ht="12.75">
-      <c r="C673" s="23"/>
+      <c r="C673" s="24"/>
     </row>
     <row r="674" ht="12.75">
-      <c r="C674" s="23"/>
+      <c r="C674" s="24"/>
     </row>
     <row r="675" ht="12.75">
-      <c r="C675" s="23"/>
+      <c r="C675" s="24"/>
     </row>
     <row r="676" ht="12.75">
-      <c r="C676" s="23"/>
+      <c r="C676" s="24"/>
     </row>
     <row r="677" ht="12.75">
-      <c r="C677" s="23"/>
+      <c r="C677" s="24"/>
     </row>
     <row r="678" ht="12.75">
-      <c r="C678" s="23"/>
+      <c r="C678" s="24"/>
     </row>
     <row r="679" ht="12.75">
-      <c r="C679" s="23"/>
+      <c r="C679" s="24"/>
     </row>
     <row r="680" ht="12.75">
-      <c r="C680" s="23"/>
+      <c r="C680" s="24"/>
     </row>
     <row r="681" ht="12.75">
-      <c r="C681" s="23"/>
+      <c r="C681" s="24"/>
     </row>
     <row r="682" ht="12.75">
-      <c r="C682" s="23"/>
+      <c r="C682" s="24"/>
     </row>
     <row r="683" ht="12.75">
-      <c r="C683" s="23"/>
+      <c r="C683" s="24"/>
     </row>
     <row r="684" ht="12.75">
-      <c r="C684" s="23"/>
+      <c r="C684" s="24"/>
     </row>
     <row r="685" ht="12.75">
-      <c r="C685" s="23"/>
+      <c r="C685" s="24"/>
     </row>
     <row r="686" ht="12.75">
-      <c r="C686" s="23"/>
+      <c r="C686" s="24"/>
     </row>
     <row r="687" ht="12.75">
-      <c r="C687" s="23"/>
+      <c r="C687" s="24"/>
     </row>
     <row r="688" ht="12.75">
-      <c r="C688" s="23"/>
+      <c r="C688" s="24"/>
     </row>
     <row r="689" ht="12.75">
-      <c r="C689" s="23"/>
+      <c r="C689" s="24"/>
     </row>
     <row r="690" ht="12.75">
-      <c r="C690" s="23"/>
+      <c r="C690" s="24"/>
     </row>
     <row r="691" ht="12.75">
-      <c r="C691" s="23"/>
+      <c r="C691" s="24"/>
     </row>
     <row r="692" ht="12.75">
-      <c r="C692" s="23"/>
+      <c r="C692" s="24"/>
     </row>
     <row r="693" ht="12.75">
-      <c r="C693" s="23"/>
+      <c r="C693" s="24"/>
     </row>
     <row r="694" ht="12.75">
-      <c r="C694" s="23"/>
+      <c r="C694" s="24"/>
     </row>
     <row r="695" ht="12.75">
-      <c r="C695" s="23"/>
+      <c r="C695" s="24"/>
     </row>
     <row r="696" ht="12.75">
-      <c r="C696" s="23"/>
+      <c r="C696" s="24"/>
     </row>
     <row r="697" ht="12.75">
-      <c r="C697" s="23"/>
+      <c r="C697" s="24"/>
     </row>
     <row r="698" ht="12.75">
-      <c r="C698" s="23"/>
+      <c r="C698" s="24"/>
     </row>
     <row r="699" ht="12.75">
-      <c r="C699" s="23"/>
+      <c r="C699" s="24"/>
     </row>
     <row r="700" ht="12.75">
-      <c r="C700" s="23"/>
+      <c r="C700" s="24"/>
     </row>
     <row r="701" ht="12.75">
-      <c r="C701" s="23"/>
+      <c r="C701" s="24"/>
     </row>
     <row r="702" ht="12.75">
-      <c r="C702" s="23"/>
+      <c r="C702" s="24"/>
     </row>
     <row r="703" ht="12.75">
-      <c r="C703" s="23"/>
+      <c r="C703" s="24"/>
     </row>
     <row r="704" ht="12.75">
-      <c r="C704" s="23"/>
+      <c r="C704" s="24"/>
     </row>
     <row r="705" ht="12.75">
-      <c r="C705" s="23"/>
+      <c r="C705" s="24"/>
     </row>
     <row r="706" ht="12.75">
-      <c r="C706" s="23"/>
+      <c r="C706" s="24"/>
     </row>
     <row r="707" ht="12.75">
-      <c r="C707" s="23"/>
+      <c r="C707" s="24"/>
     </row>
     <row r="708" ht="12.75">
-      <c r="C708" s="23"/>
+      <c r="C708" s="24"/>
     </row>
     <row r="709" ht="12.75">
-      <c r="C709" s="23"/>
+      <c r="C709" s="24"/>
     </row>
     <row r="710" ht="12.75">
-      <c r="C710" s="23"/>
+      <c r="C710" s="24"/>
     </row>
     <row r="711" ht="12.75">
-      <c r="C711" s="23"/>
+      <c r="C711" s="24"/>
     </row>
     <row r="712" ht="12.75">
-      <c r="C712" s="23"/>
+      <c r="C712" s="24"/>
     </row>
     <row r="713" ht="12.75">
-      <c r="C713" s="23"/>
+      <c r="C713" s="24"/>
     </row>
     <row r="714" ht="12.75">
-      <c r="C714" s="23"/>
+      <c r="C714" s="24"/>
     </row>
     <row r="715" ht="12.75">
-      <c r="C715" s="23"/>
+      <c r="C715" s="24"/>
     </row>
     <row r="716" ht="12.75">
-      <c r="C716" s="23"/>
+      <c r="C716" s="24"/>
     </row>
     <row r="717" ht="12.75">
-      <c r="C717" s="23"/>
+      <c r="C717" s="24"/>
     </row>
     <row r="718" ht="12.75">
-      <c r="C718" s="23"/>
+      <c r="C718" s="24"/>
     </row>
     <row r="719" ht="12.75">
-      <c r="C719" s="23"/>
+      <c r="C719" s="24"/>
     </row>
     <row r="720" ht="12.75">
-      <c r="C720" s="23"/>
+      <c r="C720" s="24"/>
     </row>
     <row r="721" ht="12.75">
-      <c r="C721" s="23"/>
+      <c r="C721" s="24"/>
     </row>
     <row r="722" ht="12.75">
-      <c r="C722" s="23"/>
+      <c r="C722" s="24"/>
     </row>
     <row r="723" ht="12.75">
-      <c r="C723" s="23"/>
+      <c r="C723" s="24"/>
     </row>
     <row r="724" ht="12.75">
-      <c r="C724" s="23"/>
+      <c r="C724" s="24"/>
     </row>
     <row r="725" ht="12.75">
-      <c r="C725" s="23"/>
+      <c r="C725" s="24"/>
     </row>
     <row r="726" ht="12.75">
-      <c r="C726" s="23"/>
+      <c r="C726" s="24"/>
     </row>
     <row r="727" ht="12.75">
-      <c r="C727" s="23"/>
+      <c r="C727" s="24"/>
     </row>
     <row r="728" ht="12.75">
-      <c r="C728" s="23"/>
+      <c r="C728" s="24"/>
     </row>
     <row r="729" ht="12.75">
-      <c r="C729" s="23"/>
+      <c r="C729" s="24"/>
     </row>
     <row r="730" ht="12.75">
-      <c r="C730" s="23"/>
+      <c r="C730" s="24"/>
     </row>
     <row r="731" ht="12.75">
-      <c r="C731" s="23"/>
+      <c r="C731" s="24"/>
     </row>
     <row r="732" ht="12.75">
-      <c r="C732" s="23"/>
+      <c r="C732" s="24"/>
     </row>
     <row r="733" ht="12.75">
-      <c r="C733" s="23"/>
+      <c r="C733" s="24"/>
     </row>
     <row r="734" ht="12.75">
-      <c r="C734" s="23"/>
+      <c r="C734" s="24"/>
     </row>
     <row r="735" ht="12.75">
-      <c r="C735" s="23"/>
+      <c r="C735" s="24"/>
     </row>
     <row r="736" ht="12.75">
-      <c r="C736" s="23"/>
+      <c r="C736" s="24"/>
     </row>
     <row r="737" ht="12.75">
-      <c r="C737" s="23"/>
+      <c r="C737" s="24"/>
     </row>
     <row r="738" ht="12.75">
-      <c r="C738" s="23"/>
+      <c r="C738" s="24"/>
     </row>
     <row r="739" ht="12.75">
-      <c r="C739" s="23"/>
+      <c r="C739" s="24"/>
     </row>
     <row r="740" ht="12.75">
-      <c r="C740" s="23"/>
+      <c r="C740" s="24"/>
     </row>
     <row r="741" ht="12.75">
-      <c r="C741" s="23"/>
+      <c r="C741" s="24"/>
     </row>
     <row r="742" ht="12.75">
-      <c r="C742" s="23"/>
+      <c r="C742" s="24"/>
     </row>
     <row r="743" ht="12.75">
-      <c r="C743" s="23"/>
+      <c r="C743" s="24"/>
     </row>
     <row r="744" ht="12.75">
-      <c r="C744" s="23"/>
+      <c r="C744" s="24"/>
     </row>
     <row r="745" ht="12.75">
-      <c r="C745" s="23"/>
+      <c r="C745" s="24"/>
     </row>
     <row r="746" ht="12.75">
-      <c r="C746" s="23"/>
+      <c r="C746" s="24"/>
     </row>
     <row r="747" ht="12.75">
-      <c r="C747" s="23"/>
+      <c r="C747" s="24"/>
     </row>
     <row r="748" ht="12.75">
-      <c r="C748" s="23"/>
+      <c r="C748" s="24"/>
     </row>
     <row r="749" ht="12.75">
-      <c r="C749" s="23"/>
+      <c r="C749" s="24"/>
     </row>
     <row r="750" ht="12.75">
-      <c r="C750" s="23"/>
+      <c r="C750" s="24"/>
     </row>
     <row r="751" ht="12.75">
-      <c r="C751" s="23"/>
+      <c r="C751" s="24"/>
     </row>
     <row r="752" ht="12.75">
-      <c r="C752" s="23"/>
+      <c r="C752" s="24"/>
     </row>
     <row r="753" ht="12.75">
-      <c r="C753" s="23"/>
+      <c r="C753" s="24"/>
     </row>
     <row r="754" ht="12.75">
-      <c r="C754" s="23"/>
+      <c r="C754" s="24"/>
     </row>
     <row r="755" ht="12.75">
-      <c r="C755" s="23"/>
+      <c r="C755" s="24"/>
     </row>
     <row r="756" ht="12.75">
-      <c r="C756" s="23"/>
+      <c r="C756" s="24"/>
     </row>
     <row r="757" ht="12.75">
-      <c r="C757" s="23"/>
+      <c r="C757" s="24"/>
     </row>
     <row r="758" ht="12.75">
-      <c r="C758" s="23"/>
+      <c r="C758" s="24"/>
     </row>
     <row r="759" ht="12.75">
-      <c r="C759" s="23"/>
+      <c r="C759" s="24"/>
     </row>
     <row r="760" ht="12.75">
-      <c r="C760" s="23"/>
+      <c r="C760" s="24"/>
     </row>
     <row r="761" ht="12.75">
-      <c r="C761" s="23"/>
+      <c r="C761" s="24"/>
     </row>
     <row r="762" ht="12.75">
-      <c r="C762" s="23"/>
+      <c r="C762" s="24"/>
     </row>
     <row r="763" ht="12.75">
-      <c r="C763" s="23"/>
+      <c r="C763" s="24"/>
     </row>
     <row r="764" ht="12.75">
-      <c r="C764" s="23"/>
+      <c r="C764" s="24"/>
     </row>
     <row r="765" ht="12.75">
-      <c r="C765" s="23"/>
+      <c r="C765" s="24"/>
     </row>
     <row r="766" ht="12.75">
-      <c r="C766" s="23"/>
+      <c r="C766" s="24"/>
     </row>
     <row r="767" ht="12.75">
-      <c r="C767" s="23"/>
+      <c r="C767" s="24"/>
     </row>
     <row r="768" ht="12.75">
-      <c r="C768" s="23"/>
+      <c r="C768" s="24"/>
     </row>
     <row r="769" ht="12.75">
-      <c r="C769" s="23"/>
+      <c r="C769" s="24"/>
     </row>
     <row r="770" ht="12.75">
-      <c r="C770" s="23"/>
+      <c r="C770" s="24"/>
     </row>
     <row r="771" ht="12.75">
-      <c r="C771" s="23"/>
+      <c r="C771" s="24"/>
     </row>
     <row r="772" ht="12.75">
-      <c r="C772" s="23"/>
+      <c r="C772" s="24"/>
     </row>
     <row r="773" ht="12.75">
-      <c r="C773" s="23"/>
+      <c r="C773" s="24"/>
     </row>
     <row r="774" ht="12.75">
-      <c r="C774" s="23"/>
+      <c r="C774" s="24"/>
     </row>
     <row r="775" ht="12.75">
-      <c r="C775" s="23"/>
+      <c r="C775" s="24"/>
     </row>
     <row r="776" ht="12.75">
-      <c r="C776" s="23"/>
+      <c r="C776" s="24"/>
     </row>
     <row r="777" ht="12.75">
-      <c r="C777" s="23"/>
+      <c r="C777" s="24"/>
     </row>
     <row r="778" ht="12.75">
-      <c r="C778" s="23"/>
+      <c r="C778" s="24"/>
     </row>
     <row r="779" ht="12.75">
-      <c r="C779" s="23"/>
+      <c r="C779" s="24"/>
     </row>
     <row r="780" ht="12.75">
-      <c r="C780" s="23"/>
+      <c r="C780" s="24"/>
     </row>
     <row r="781" ht="12.75">
-      <c r="C781" s="23"/>
+      <c r="C781" s="24"/>
     </row>
     <row r="782" ht="12.75">
-      <c r="C782" s="23"/>
+      <c r="C782" s="24"/>
     </row>
     <row r="783" ht="12.75">
-      <c r="C783" s="23"/>
+      <c r="C783" s="24"/>
     </row>
     <row r="784" ht="12.75">
-      <c r="C784" s="23"/>
+      <c r="C784" s="24"/>
     </row>
     <row r="785" ht="12.75">
-      <c r="C785" s="23"/>
+      <c r="C785" s="24"/>
     </row>
     <row r="786" ht="12.75">
-      <c r="C786" s="23"/>
+      <c r="C786" s="24"/>
     </row>
     <row r="787" ht="12.75">
-      <c r="C787" s="23"/>
+      <c r="C787" s="24"/>
     </row>
     <row r="788" ht="12.75">
-      <c r="C788" s="23"/>
+      <c r="C788" s="24"/>
     </row>
     <row r="789" ht="12.75">
-      <c r="C789" s="23"/>
+      <c r="C789" s="24"/>
     </row>
     <row r="790" ht="12.75">
-      <c r="C790" s="23"/>
+      <c r="C790" s="24"/>
     </row>
     <row r="791" ht="12.75">
-      <c r="C791" s="23"/>
+      <c r="C791" s="24"/>
     </row>
     <row r="792" ht="12.75">
-      <c r="C792" s="23"/>
+      <c r="C792" s="24"/>
     </row>
     <row r="793" ht="12.75">
-      <c r="C793" s="23"/>
+      <c r="C793" s="24"/>
     </row>
     <row r="794" ht="12.75">
-      <c r="C794" s="23"/>
+      <c r="C794" s="24"/>
     </row>
     <row r="795" ht="12.75">
-      <c r="C795" s="23"/>
+      <c r="C795" s="24"/>
     </row>
     <row r="796" ht="12.75">
-      <c r="C796" s="23"/>
+      <c r="C796" s="24"/>
     </row>
     <row r="797" ht="12.75">
-      <c r="C797" s="23"/>
+      <c r="C797" s="24"/>
     </row>
     <row r="798" ht="12.75">
-      <c r="C798" s="23"/>
+      <c r="C798" s="24"/>
     </row>
     <row r="799" ht="12.75">
-      <c r="C799" s="23"/>
+      <c r="C799" s="24"/>
     </row>
     <row r="800" ht="12.75">
-      <c r="C800" s="23"/>
+      <c r="C800" s="24"/>
     </row>
     <row r="801" ht="12.75">
-      <c r="C801" s="23"/>
+      <c r="C801" s="24"/>
     </row>
     <row r="802" ht="12.75">
-      <c r="C802" s="23"/>
+      <c r="C802" s="24"/>
     </row>
     <row r="803" ht="12.75">
-      <c r="C803" s="23"/>
+      <c r="C803" s="24"/>
     </row>
     <row r="804" ht="12.75">
-      <c r="C804" s="23"/>
+      <c r="C804" s="24"/>
     </row>
     <row r="805" ht="12.75">
-      <c r="C805" s="23"/>
+      <c r="C805" s="24"/>
     </row>
     <row r="806" ht="12.75">
-      <c r="C806" s="23"/>
+      <c r="C806" s="24"/>
     </row>
     <row r="807" ht="12.75">
-      <c r="C807" s="23"/>
+      <c r="C807" s="24"/>
     </row>
     <row r="808" ht="12.75">
-      <c r="C808" s="23"/>
+      <c r="C808" s="24"/>
     </row>
     <row r="809" ht="12.75">
-      <c r="C809" s="23"/>
+      <c r="C809" s="24"/>
     </row>
     <row r="810" ht="12.75">
-      <c r="C810" s="23"/>
+      <c r="C810" s="24"/>
     </row>
     <row r="811" ht="12.75">
-      <c r="C811" s="23"/>
+      <c r="C811" s="24"/>
     </row>
     <row r="812" ht="12.75">
-      <c r="C812" s="23"/>
+      <c r="C812" s="24"/>
     </row>
     <row r="813" ht="12.75">
-      <c r="C813" s="23"/>
+      <c r="C813" s="24"/>
     </row>
     <row r="814" ht="12.75">
-      <c r="C814" s="23"/>
+      <c r="C814" s="24"/>
     </row>
     <row r="815" ht="12.75">
-      <c r="C815" s="23"/>
+      <c r="C815" s="24"/>
     </row>
     <row r="816" ht="12.75">
-      <c r="C816" s="23"/>
+      <c r="C816" s="24"/>
     </row>
     <row r="817" ht="12.75">
-      <c r="C817" s="23"/>
+      <c r="C817" s="24"/>
     </row>
     <row r="818" ht="12.75">
-      <c r="C818" s="23"/>
+      <c r="C818" s="24"/>
     </row>
     <row r="819" ht="12.75">
-      <c r="C819" s="23"/>
+      <c r="C819" s="24"/>
     </row>
     <row r="820" ht="12.75">
-      <c r="C820" s="23"/>
+      <c r="C820" s="24"/>
     </row>
     <row r="821" ht="12.75">
-      <c r="C821" s="23"/>
+      <c r="C821" s="24"/>
     </row>
     <row r="822" ht="12.75">
-      <c r="C822" s="23"/>
+      <c r="C822" s="24"/>
     </row>
     <row r="823" ht="12.75">
-      <c r="C823" s="23"/>
+      <c r="C823" s="24"/>
     </row>
     <row r="824" ht="12.75">
-      <c r="C824" s="23"/>
+      <c r="C824" s="24"/>
     </row>
     <row r="825" ht="12.75">
-      <c r="C825" s="23"/>
+      <c r="C825" s="24"/>
     </row>
     <row r="826" ht="12.75">
-      <c r="C826" s="23"/>
+      <c r="C826" s="24"/>
     </row>
     <row r="827" ht="12.75">
-      <c r="C827" s="23"/>
+      <c r="C827" s="24"/>
     </row>
     <row r="828" ht="12.75">
-      <c r="C828" s="23"/>
+      <c r="C828" s="24"/>
     </row>
     <row r="829" ht="12.75">
-      <c r="C829" s="23"/>
+      <c r="C829" s="24"/>
     </row>
     <row r="830" ht="12.75">
-      <c r="C830" s="23"/>
+      <c r="C830" s="24"/>
     </row>
     <row r="831" ht="12.75">
-      <c r="C831" s="23"/>
+      <c r="C831" s="24"/>
     </row>
     <row r="832" ht="12.75">
-      <c r="C832" s="23"/>
+      <c r="C832" s="24"/>
     </row>
     <row r="833" ht="12.75">
-      <c r="C833" s="23"/>
+      <c r="C833" s="24"/>
     </row>
     <row r="834" ht="12.75">
-      <c r="C834" s="23"/>
+      <c r="C834" s="24"/>
     </row>
     <row r="835" ht="12.75">
-      <c r="C835" s="23"/>
+      <c r="C835" s="24"/>
     </row>
     <row r="836" ht="12.75">
-      <c r="C836" s="23"/>
+      <c r="C836" s="24"/>
     </row>
     <row r="837" ht="12.75">
-      <c r="C837" s="23"/>
+      <c r="C837" s="24"/>
     </row>
     <row r="838" ht="12.75">
-      <c r="C838" s="23"/>
+      <c r="C838" s="24"/>
     </row>
     <row r="839" ht="12.75">
-      <c r="C839" s="23"/>
+      <c r="C839" s="24"/>
     </row>
     <row r="840" ht="12.75">
-      <c r="C840" s="23"/>
+      <c r="C840" s="24"/>
     </row>
     <row r="841" ht="12.75">
-      <c r="C841" s="23"/>
+      <c r="C841" s="24"/>
     </row>
     <row r="842" ht="12.75">
-      <c r="C842" s="23"/>
+      <c r="C842" s="24"/>
     </row>
     <row r="843" ht="12.75">
-      <c r="C843" s="23"/>
+      <c r="C843" s="24"/>
     </row>
     <row r="844" ht="12.75">
-      <c r="C844" s="23"/>
+      <c r="C844" s="24"/>
     </row>
     <row r="845" ht="12.75">
-      <c r="C845" s="23"/>
+      <c r="C845" s="24"/>
     </row>
     <row r="846" ht="12.75">
-      <c r="C846" s="23"/>
+      <c r="C846" s="24"/>
     </row>
     <row r="847" ht="12.75">
-      <c r="C847" s="23"/>
+      <c r="C847" s="24"/>
     </row>
     <row r="848" ht="12.75">
-      <c r="C848" s="23"/>
+      <c r="C848" s="24"/>
     </row>
     <row r="849" ht="12.75">
-      <c r="C849" s="23"/>
+      <c r="C849" s="24"/>
     </row>
     <row r="850" ht="12.75">
-      <c r="C850" s="23"/>
+      <c r="C850" s="24"/>
     </row>
     <row r="851" ht="12.75">
-      <c r="C851" s="23"/>
+      <c r="C851" s="24"/>
     </row>
     <row r="852" ht="12.75">
-      <c r="C852" s="23"/>
+      <c r="C852" s="24"/>
     </row>
     <row r="853" ht="12.75">
-      <c r="C853" s="23"/>
+      <c r="C853" s="24"/>
     </row>
     <row r="854" ht="12.75">
-      <c r="C854" s="23"/>
+      <c r="C854" s="24"/>
     </row>
     <row r="855" ht="12.75">
-      <c r="C855" s="23"/>
+      <c r="C855" s="24"/>
     </row>
     <row r="856" ht="12.75">
-      <c r="C856" s="23"/>
+      <c r="C856" s="24"/>
     </row>
     <row r="857" ht="12.75">
-      <c r="C857" s="23"/>
+      <c r="C857" s="24"/>
     </row>
     <row r="858" ht="12.75">
-      <c r="C858" s="23"/>
+      <c r="C858" s="24"/>
     </row>
     <row r="859" ht="12.75">
-      <c r="C859" s="23"/>
+      <c r="C859" s="24"/>
     </row>
     <row r="860" ht="12.75">
-      <c r="C860" s="23"/>
+      <c r="C860" s="24"/>
     </row>
     <row r="861" ht="12.75">
-      <c r="C861" s="23"/>
+      <c r="C861" s="24"/>
     </row>
     <row r="862" ht="12.75">
-      <c r="C862" s="23"/>
+      <c r="C862" s="24"/>
     </row>
     <row r="863" ht="12.75">
-      <c r="C863" s="23"/>
+      <c r="C863" s="24"/>
     </row>
     <row r="864" ht="12.75">
-      <c r="C864" s="23"/>
+      <c r="C864" s="24"/>
     </row>
     <row r="865" ht="12.75">
-      <c r="C865" s="23"/>
+      <c r="C865" s="24"/>
     </row>
     <row r="866" ht="12.75">
-      <c r="C866" s="23"/>
+      <c r="C866" s="24"/>
     </row>
     <row r="867" ht="12.75">
-      <c r="C867" s="23"/>
+      <c r="C867" s="24"/>
     </row>
     <row r="868" ht="12.75">
-      <c r="C868" s="23"/>
+      <c r="C868" s="24"/>
     </row>
     <row r="869" ht="12.75">
-      <c r="C869" s="23"/>
+      <c r="C869" s="24"/>
     </row>
     <row r="870" ht="12.75">
-      <c r="C870" s="23"/>
+      <c r="C870" s="24"/>
     </row>
     <row r="871" ht="12.75">
-      <c r="C871" s="23"/>
+      <c r="C871" s="24"/>
     </row>
     <row r="872" ht="12.75">
-      <c r="C872" s="23"/>
+      <c r="C872" s="24"/>
     </row>
     <row r="873" ht="12.75">
-      <c r="C873" s="23"/>
+      <c r="C873" s="24"/>
     </row>
     <row r="874" ht="12.75">
-      <c r="C874" s="23"/>
+      <c r="C874" s="24"/>
     </row>
     <row r="875" ht="12.75">
-      <c r="C875" s="23"/>
+      <c r="C875" s="24"/>
     </row>
     <row r="876" ht="12.75">
-      <c r="C876" s="23"/>
+      <c r="C876" s="24"/>
     </row>
     <row r="877" ht="12.75">
-      <c r="C877" s="23"/>
+      <c r="C877" s="24"/>
     </row>
     <row r="878" ht="12.75">
-      <c r="C878" s="23"/>
+      <c r="C878" s="24"/>
     </row>
     <row r="879" ht="12.75">
-      <c r="C879" s="23"/>
+      <c r="C879" s="24"/>
     </row>
     <row r="880" ht="12.75">
-      <c r="C880" s="23"/>
+      <c r="C880" s="24"/>
     </row>
     <row r="881" ht="12.75">
-      <c r="C881" s="23"/>
+      <c r="C881" s="24"/>
     </row>
     <row r="882" ht="12.75">
-      <c r="C882" s="23"/>
+      <c r="C882" s="24"/>
     </row>
     <row r="883" ht="12.75">
-      <c r="C883" s="23"/>
+      <c r="C883" s="24"/>
     </row>
     <row r="884" ht="12.75">
-      <c r="C884" s="23"/>
+      <c r="C884" s="24"/>
     </row>
     <row r="885" ht="12.75">
-      <c r="C885" s="23"/>
+      <c r="C885" s="24"/>
     </row>
     <row r="886" ht="12.75">
-      <c r="C886" s="23"/>
+      <c r="C886" s="24"/>
     </row>
     <row r="887" ht="12.75">
-      <c r="C887" s="23"/>
+      <c r="C887" s="24"/>
     </row>
     <row r="888" ht="12.75">
-      <c r="C888" s="23"/>
+      <c r="C888" s="24"/>
     </row>
     <row r="889" ht="12.75">
-      <c r="C889" s="23"/>
+      <c r="C889" s="24"/>
     </row>
     <row r="890" ht="12.75">
-      <c r="C890" s="23"/>
+      <c r="C890" s="24"/>
     </row>
     <row r="891" ht="12.75">
-      <c r="C891" s="23"/>
+      <c r="C891" s="24"/>
     </row>
     <row r="892" ht="12.75">
-      <c r="C892" s="23"/>
+      <c r="C892" s="24"/>
     </row>
     <row r="893" ht="12.75">
-      <c r="C893" s="23"/>
+      <c r="C893" s="24"/>
     </row>
     <row r="894" ht="12.75">
-      <c r="C894" s="23"/>
+      <c r="C894" s="24"/>
     </row>
     <row r="895" ht="12.75">
-      <c r="C895" s="23"/>
+      <c r="C895" s="24"/>
     </row>
     <row r="896" ht="12.75">
-      <c r="C896" s="23"/>
+      <c r="C896" s="24"/>
     </row>
     <row r="897" ht="12.75">
-      <c r="C897" s="23"/>
+      <c r="C897" s="24"/>
     </row>
     <row r="898" ht="12.75">
-      <c r="C898" s="23"/>
+      <c r="C898" s="24"/>
     </row>
     <row r="899" ht="12.75">
-      <c r="C899" s="23"/>
+      <c r="C899" s="24"/>
     </row>
     <row r="900" ht="12.75">
-      <c r="C900" s="23"/>
+      <c r="C900" s="24"/>
     </row>
     <row r="901" ht="12.75">
-      <c r="C901" s="23"/>
+      <c r="C901" s="24"/>
     </row>
     <row r="902" ht="12.75">
-      <c r="C902" s="23"/>
+      <c r="C902" s="24"/>
     </row>
     <row r="903" ht="12.75">
-      <c r="C903" s="23"/>
+      <c r="C903" s="24"/>
     </row>
     <row r="904" ht="12.75">
-      <c r="C904" s="23"/>
+      <c r="C904" s="24"/>
     </row>
     <row r="905" ht="12.75">
-      <c r="C905" s="23"/>
+      <c r="C905" s="24"/>
     </row>
     <row r="906" ht="12.75">
-      <c r="C906" s="23"/>
+      <c r="C906" s="24"/>
     </row>
     <row r="907" ht="12.75">
-      <c r="C907" s="23"/>
+      <c r="C907" s="24"/>
     </row>
     <row r="908" ht="12.75">
-      <c r="C908" s="23"/>
+      <c r="C908" s="24"/>
     </row>
     <row r="909" ht="12.75">
-      <c r="C909" s="23"/>
+      <c r="C909" s="24"/>
     </row>
     <row r="910" ht="12.75">
-      <c r="C910" s="23"/>
+      <c r="C910" s="24"/>
     </row>
     <row r="911" ht="12.75">
-      <c r="C911" s="23"/>
+      <c r="C911" s="24"/>
     </row>
     <row r="912" ht="12.75">
-      <c r="C912" s="23"/>
+      <c r="C912" s="24"/>
     </row>
     <row r="913" ht="12.75">
-      <c r="C913" s="23"/>
+      <c r="C913" s="24"/>
     </row>
     <row r="914" ht="12.75">
-      <c r="C914" s="23"/>
+      <c r="C914" s="24"/>
     </row>
     <row r="915" ht="12.75">
-      <c r="C915" s="23"/>
+      <c r="C915" s="24"/>
     </row>
     <row r="916" ht="12.75">
-      <c r="C916" s="23"/>
+      <c r="C916" s="24"/>
     </row>
     <row r="917" ht="12.75">
-      <c r="C917" s="23"/>
+      <c r="C917" s="24"/>
     </row>
     <row r="918" ht="12.75">
-      <c r="C918" s="23"/>
+      <c r="C918" s="24"/>
     </row>
     <row r="919" ht="12.75">
-      <c r="C919" s="23"/>
+      <c r="C919" s="24"/>
     </row>
     <row r="920" ht="12.75">
-      <c r="C920" s="23"/>
+      <c r="C920" s="24"/>
     </row>
     <row r="921" ht="12.75">
-      <c r="C921" s="23"/>
+      <c r="C921" s="24"/>
     </row>
     <row r="922" ht="12.75">
-      <c r="C922" s="23"/>
+      <c r="C922" s="24"/>
     </row>
     <row r="923" ht="12.75">
-      <c r="C923" s="23"/>
+      <c r="C923" s="24"/>
     </row>
     <row r="924" ht="12.75">
-      <c r="C924" s="23"/>
+      <c r="C924" s="24"/>
     </row>
     <row r="925" ht="12.75">
-      <c r="C925" s="23"/>
+      <c r="C925" s="24"/>
     </row>
     <row r="926" ht="12.75">
-      <c r="C926" s="23"/>
+      <c r="C926" s="24"/>
     </row>
     <row r="927" ht="12.75">
-      <c r="C927" s="23"/>
+      <c r="C927" s="24"/>
     </row>
     <row r="928" ht="12.75">
-      <c r="C928" s="23"/>
+      <c r="C928" s="24"/>
     </row>
     <row r="929" ht="12.75">
-      <c r="C929" s="23"/>
+      <c r="C929" s="24"/>
     </row>
     <row r="930" ht="12.75">
-      <c r="C930" s="23"/>
+      <c r="C930" s="24"/>
     </row>
     <row r="931" ht="12.75">
-      <c r="C931" s="23"/>
+      <c r="C931" s="24"/>
     </row>
     <row r="932" ht="12.75">
-      <c r="C932" s="23"/>
+      <c r="C932" s="24"/>
     </row>
     <row r="933" ht="12.75">
-      <c r="C933" s="23"/>
+      <c r="C933" s="24"/>
     </row>
     <row r="934" ht="12.75">
-      <c r="C934" s="23"/>
+      <c r="C934" s="24"/>
     </row>
     <row r="935" ht="12.75">
-      <c r="C935" s="23"/>
+      <c r="C935" s="24"/>
     </row>
     <row r="936" ht="12.75">
-      <c r="C936" s="23"/>
+      <c r="C936" s="24"/>
     </row>
     <row r="937" ht="12.75">
-      <c r="C937" s="23"/>
+      <c r="C937" s="24"/>
     </row>
     <row r="938" ht="12.75">
-      <c r="C938" s="23"/>
+      <c r="C938" s="24"/>
     </row>
     <row r="939" ht="12.75">
-      <c r="C939" s="23"/>
+      <c r="C939" s="24"/>
     </row>
     <row r="940" ht="12.75">
-      <c r="C940" s="23"/>
+      <c r="C940" s="24"/>
     </row>
     <row r="941" ht="12.75">
-      <c r="C941" s="23"/>
+      <c r="C941" s="24"/>
     </row>
     <row r="942" ht="12.75">
-      <c r="C942" s="23"/>
+      <c r="C942" s="24"/>
     </row>
     <row r="943" ht="12.75">
-      <c r="C943" s="23"/>
+      <c r="C943" s="24"/>
     </row>
     <row r="944" ht="12.75">
-      <c r="C944" s="23"/>
+      <c r="C944" s="24"/>
     </row>
     <row r="945" ht="12.75">
-      <c r="C945" s="23"/>
+      <c r="C945" s="24"/>
     </row>
     <row r="946" ht="12.75">
-      <c r="C946" s="23"/>
+      <c r="C946" s="24"/>
     </row>
     <row r="947" ht="12.75">
-      <c r="C947" s="23"/>
+      <c r="C947" s="24"/>
     </row>
     <row r="948" ht="12.75">
-      <c r="C948" s="23"/>
+      <c r="C948" s="24"/>
     </row>
     <row r="949" ht="12.75">
-      <c r="C949" s="23"/>
+      <c r="C949" s="24"/>
     </row>
     <row r="950" ht="12.75">
-      <c r="C950" s="23"/>
+      <c r="C950" s="24"/>
     </row>
     <row r="951" ht="12.75">
-      <c r="C951" s="23"/>
+      <c r="C951" s="24"/>
     </row>
     <row r="952" ht="12.75">
-      <c r="C952" s="23"/>
+      <c r="C952" s="24"/>
     </row>
     <row r="953" ht="12.75">
-      <c r="C953" s="23"/>
+      <c r="C953" s="24"/>
     </row>
     <row r="954" ht="12.75">
-      <c r="C954" s="23"/>
+      <c r="C954" s="24"/>
     </row>
     <row r="955" ht="12.75">
-      <c r="C955" s="23"/>
+      <c r="C955" s="24"/>
     </row>
     <row r="956" ht="12.75">
-      <c r="C956" s="23"/>
+      <c r="C956" s="24"/>
     </row>
     <row r="957" ht="12.75">
-      <c r="C957" s="23"/>
+      <c r="C957" s="24"/>
     </row>
     <row r="958" ht="12.75">
-      <c r="C958" s="23"/>
+      <c r="C958" s="24"/>
     </row>
     <row r="959" ht="12.75">
-      <c r="C959" s="23"/>
+      <c r="C959" s="24"/>
     </row>
     <row r="960" ht="12.75">
-      <c r="C960" s="23"/>
+      <c r="C960" s="24"/>
     </row>
     <row r="961" ht="12.75">
-      <c r="C961" s="23"/>
+      <c r="C961" s="24"/>
     </row>
     <row r="962" ht="12.75">
-      <c r="C962" s="23"/>
+      <c r="C962" s="24"/>
     </row>
     <row r="963" ht="12.75">
-      <c r="C963" s="23"/>
+      <c r="C963" s="24"/>
     </row>
     <row r="964" ht="12.75">
-      <c r="C964" s="23"/>
+      <c r="C964" s="24"/>
     </row>
     <row r="965" ht="12.75">
-      <c r="C965" s="23"/>
+      <c r="C965" s="24"/>
     </row>
     <row r="966" ht="12.75">
-      <c r="C966" s="23"/>
+      <c r="C966" s="24"/>
     </row>
     <row r="967" ht="12.75">
-      <c r="C967" s="23"/>
+      <c r="C967" s="24"/>
     </row>
     <row r="968" ht="12.75">
-      <c r="C968" s="23"/>
+      <c r="C968" s="24"/>
     </row>
     <row r="969" ht="12.75">
-      <c r="C969" s="23"/>
+      <c r="C969" s="24"/>
     </row>
     <row r="970" ht="12.75">
-      <c r="C970" s="23"/>
+      <c r="C970" s="24"/>
     </row>
     <row r="971" ht="12.75">
-      <c r="C971" s="23"/>
+      <c r="C971" s="24"/>
     </row>
     <row r="972" ht="12.75">
-      <c r="C972" s="23"/>
+      <c r="C972" s="24"/>
     </row>
     <row r="973" ht="12.75">
-      <c r="C973" s="23"/>
+      <c r="C973" s="24"/>
     </row>
     <row r="974" ht="12.75">
-      <c r="C974" s="23"/>
+      <c r="C974" s="24"/>
     </row>
     <row r="975" ht="12.75">
-      <c r="C975" s="23"/>
+      <c r="C975" s="24"/>
     </row>
     <row r="976" ht="12.75">
-      <c r="C976" s="23"/>
+      <c r="C976" s="24"/>
     </row>
     <row r="977" ht="12.75">
-      <c r="C977" s="23"/>
+      <c r="C977" s="24"/>
     </row>
     <row r="978" ht="12.75">
-      <c r="C978" s="23"/>
+      <c r="C978" s="24"/>
     </row>
     <row r="979" ht="12.75">
-      <c r="C979" s="23"/>
+      <c r="C979" s="24"/>
     </row>
     <row r="980" ht="12.75">
-      <c r="C980" s="23"/>
+      <c r="C980" s="24"/>
     </row>
     <row r="981" ht="12.75">
-      <c r="C981" s="23"/>
+      <c r="C981" s="24"/>
     </row>
     <row r="982" ht="12.75">
-      <c r="C982" s="23"/>
+      <c r="C982" s="24"/>
     </row>
     <row r="983" ht="12.75">
-      <c r="C983" s="23"/>
+      <c r="C983" s="24"/>
     </row>
     <row r="984" ht="12.75">
-      <c r="C984" s="23"/>
+      <c r="C984" s="24"/>
     </row>
     <row r="985" ht="12.75">
-      <c r="C985" s="23"/>
+      <c r="C985" s="24"/>
     </row>
     <row r="986" ht="12.75">
-      <c r="C986" s="23"/>
+      <c r="C986" s="24"/>
     </row>
     <row r="987" ht="12.75">
-      <c r="C987" s="23"/>
+      <c r="C987" s="24"/>
     </row>
     <row r="988" ht="12.75">
-      <c r="C988" s="23"/>
+      <c r="C988" s="24"/>
     </row>
     <row r="989" ht="12.75">
-      <c r="C989" s="23"/>
+      <c r="C989" s="24"/>
     </row>
     <row r="990" ht="12.75">
-      <c r="C990" s="23"/>
+      <c r="C990" s="24"/>
     </row>
     <row r="991" ht="12.75">
-      <c r="C991" s="23"/>
+      <c r="C991" s="24"/>
     </row>
     <row r="992" ht="12.75">
-      <c r="C992" s="23"/>
+      <c r="C992" s="24"/>
     </row>
     <row r="993" ht="12.75">
-      <c r="C993" s="23"/>
+      <c r="C993" s="24"/>
     </row>
     <row r="994" ht="12.75">
-      <c r="C994" s="23"/>
+      <c r="C994" s="24"/>
     </row>
     <row r="995" ht="12.75">
-      <c r="C995" s="23"/>
+      <c r="C995" s="24"/>
     </row>
     <row r="996" ht="12.75">
-      <c r="C996" s="23"/>
+      <c r="C996" s="24"/>
     </row>
     <row r="997" ht="12.75">
-      <c r="C997" s="23"/>
+      <c r="C997" s="24"/>
     </row>
     <row r="998" ht="12.75">
-      <c r="C998" s="23"/>
-    </row>
-    <row r="999" ht="12.75">
-      <c r="C999" s="23"/>
-    </row>
+      <c r="C998" s="24"/>
+    </row>
+    <row r="1047522" ht="12.800000000000001" customHeight="1"/>
     <row r="1047523" ht="12.800000000000001" customHeight="1"/>
     <row r="1047524" ht="12.800000000000001" customHeight="1"/>
     <row r="1047525" ht="12.800000000000001" customHeight="1"/>
@@ -9742,7 +9682,6 @@
     <row r="1047569" ht="12.800000000000001" customHeight="1"/>
     <row r="1047570" ht="12.800000000000001" customHeight="1"/>
     <row r="1047571" ht="12.800000000000001" customHeight="1"/>
-    <row r="1047572" ht="12.800000000000001" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9770,44 +9709,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.800000000000001">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" ht="12.800000000000001">
+      <c r="A2" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" ht="12.800000000000001">
-      <c r="A2" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="29">
+      <c r="C2" s="30">
         <f ca="1">TODAY()</f>
         <v>44901</v>
       </c>
       <c r="D2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/default/forms/app/delivery_plus_plus.xlsx
+++ b/default/forms/app/delivery_plus_plus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
   <si>
     <t>type</t>
   </si>
@@ -874,6 +874,66 @@
     <t xml:space="preserve">indexed-repeat(${birth_weight}, ${baby_repeat}, position(..))</t>
   </si>
   <si>
+    <t>current_danger_signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${r_baby_danger_sign_present}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_infected_umbilical_cord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${infected_umbilical_cord}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_convulsion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${b_convulsion}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_difficulty_feeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${difficulty_feeding}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_vomit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${vomit}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_drowsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${drowsy}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_stiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${stiff}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_yellow_skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${yellow_skin}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${b_fever}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
+    <t>current_blue_skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed-repeat(${blue_skin}, ${baby_repeat}, position(..))</t>
+  </si>
+  <si>
     <t>r_baby_header</t>
   </si>
   <si>
@@ -895,7 +955,7 @@
     <t xml:space="preserve">Weight: *${current_weight}*</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${r_baby_danger_sign_present}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_danger_signs} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">h3 blue</t>
@@ -904,55 +964,55 @@
     <t>r_infected_umbilical_cord</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${infected_umbilical_cord}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_infected_umbilical_cord} = 'yes'</t>
   </si>
   <si>
     <t>r_convulsion</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${b_convulsion}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_convulsion} = 'yes'</t>
   </si>
   <si>
     <t>r_difficulty_feeding</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${difficulty_feeding}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_difficulty_feeding} = 'yes'</t>
   </si>
   <si>
     <t>r_vomit</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${vomit}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_vomit} = 'yes'</t>
   </si>
   <si>
     <t>r_drowsy</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${drowsy}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_drowsy} = 'yes'</t>
   </si>
   <si>
     <t>r_stiff</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${stiff}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_stiff} = 'yes'</t>
   </si>
   <si>
     <t>r_yellow_skin</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${yellow_skin}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_yellow_skin} = 'yes'</t>
   </si>
   <si>
     <t>r_fever</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${b_fever}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_fever} = 'yes'</t>
   </si>
   <si>
     <t>r_blue_skin</t>
   </si>
   <si>
-    <t xml:space="preserve">indexed-repeat(${blue_skin}, ${baby_repeat}, position(..)) = 'yes'</t>
+    <t xml:space="preserve">${current_blue_skin} = 'yes'</t>
   </si>
   <si>
     <t>r_referrals</t>
@@ -1426,8 +1486,6 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
       <protection hidden="0" locked="1"/>
@@ -1437,6 +1495,8 @@
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1898,8 +1958,8 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A67" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4037,21 +4097,21 @@
       <c r="AMJ75" s="11"/>
     </row>
     <row r="76" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="16" t="s">
         <v>170</v>
       </c>
       <c r="H76" s="11"/>
@@ -4486,1787 +4546,2038 @@
       <c r="AMJ93" s="11"/>
     </row>
     <row r="94" ht="12.75"/>
-    <row r="95" s="19" customFormat="1" ht="12.75">
-      <c r="A95" s="20" t="s">
+    <row r="95" s="17" customFormat="1" ht="12.75">
+      <c r="A95" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19" t="s">
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="AMF95" s="19"/>
-      <c r="AMG95" s="19"/>
-      <c r="AMH95" s="19"/>
-      <c r="AMI95" s="19"/>
-      <c r="AMJ95" s="19"/>
-    </row>
-    <row r="96" s="19" customFormat="1" ht="12.75">
-      <c r="A96" s="20" t="s">
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="AMF95" s="17"/>
+      <c r="AMG95" s="17"/>
+      <c r="AMH95" s="17"/>
+      <c r="AMI95" s="17"/>
+      <c r="AMJ95" s="17"/>
+    </row>
+    <row r="96" s="17" customFormat="1" ht="12.75">
+      <c r="A96" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="AMF96" s="19"/>
-      <c r="AMG96" s="19"/>
-      <c r="AMH96" s="19"/>
-      <c r="AMI96" s="19"/>
-      <c r="AMJ96" s="19"/>
-    </row>
-    <row r="97" s="19" customFormat="1" ht="12.75">
-      <c r="A97" s="20" t="s">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="AMF96" s="17"/>
+      <c r="AMG96" s="17"/>
+      <c r="AMH96" s="17"/>
+      <c r="AMI96" s="17"/>
+      <c r="AMJ96" s="17"/>
+    </row>
+    <row r="97" s="17" customFormat="1" ht="12.75">
+      <c r="A97" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19" t="s">
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="AMF97" s="19"/>
-      <c r="AMG97" s="19"/>
-      <c r="AMH97" s="19"/>
-      <c r="AMI97" s="19"/>
-      <c r="AMJ97" s="19"/>
-    </row>
-    <row r="98" s="19" customFormat="1" ht="12.75">
-      <c r="A98" s="20" t="s">
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="AMF97" s="17"/>
+      <c r="AMG97" s="17"/>
+      <c r="AMH97" s="17"/>
+      <c r="AMI97" s="17"/>
+      <c r="AMJ97" s="17"/>
+    </row>
+    <row r="98" s="17" customFormat="1" ht="12.75">
+      <c r="A98" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="AMF98" s="19"/>
-      <c r="AMG98" s="19"/>
-      <c r="AMH98" s="19"/>
-      <c r="AMI98" s="19"/>
-      <c r="AMJ98" s="19"/>
-    </row>
-    <row r="99" s="19" customFormat="1" ht="12.75">
-      <c r="A99" s="20" t="s">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="AMF98" s="17"/>
+      <c r="AMG98" s="17"/>
+      <c r="AMH98" s="17"/>
+      <c r="AMI98" s="17"/>
+      <c r="AMJ98" s="17"/>
+    </row>
+    <row r="99" s="17" customFormat="1" ht="12.75">
+      <c r="A99" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19" t="s">
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="AMF99" s="19"/>
-      <c r="AMG99" s="19"/>
-      <c r="AMH99" s="19"/>
-      <c r="AMI99" s="19"/>
-      <c r="AMJ99" s="19"/>
-    </row>
-    <row r="100" s="19" customFormat="1" ht="12.75">
-      <c r="A100" s="20" t="s">
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="AMF99" s="17"/>
+      <c r="AMG99" s="17"/>
+      <c r="AMH99" s="17"/>
+      <c r="AMI99" s="17"/>
+      <c r="AMJ99" s="17"/>
+    </row>
+    <row r="100" s="17" customFormat="1" ht="12.75">
+      <c r="A100" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19" t="s">
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="AMF100" s="19"/>
-      <c r="AMG100" s="19"/>
-      <c r="AMH100" s="19"/>
-      <c r="AMI100" s="19"/>
-      <c r="AMJ100" s="19"/>
-    </row>
-    <row r="101" s="19" customFormat="1" ht="12.75">
-      <c r="A101" s="20" t="s">
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="AMF100" s="17"/>
+      <c r="AMG100" s="17"/>
+      <c r="AMH100" s="17"/>
+      <c r="AMI100" s="17"/>
+      <c r="AMJ100" s="17"/>
+    </row>
+    <row r="101" s="17" customFormat="1" ht="12.75">
+      <c r="A101" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19" t="s">
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19" t="s">
+      <c r="F101" s="17"/>
+      <c r="G101" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="AMF101" s="19"/>
-      <c r="AMG101" s="19"/>
-      <c r="AMH101" s="19"/>
-      <c r="AMI101" s="19"/>
-      <c r="AMJ101" s="19"/>
-    </row>
-    <row r="102" s="19" customFormat="1" ht="12.75">
-      <c r="A102" s="20" t="s">
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="AMF101" s="17"/>
+      <c r="AMG101" s="17"/>
+      <c r="AMH101" s="17"/>
+      <c r="AMI101" s="17"/>
+      <c r="AMJ101" s="17"/>
+    </row>
+    <row r="102" s="17" customFormat="1" ht="12.75">
+      <c r="A102" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19" t="s">
+      <c r="D102" s="17"/>
+      <c r="E102" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19" t="s">
+      <c r="F102" s="17"/>
+      <c r="G102" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="AMF102" s="19"/>
-      <c r="AMG102" s="19"/>
-      <c r="AMH102" s="19"/>
-      <c r="AMI102" s="19"/>
-      <c r="AMJ102" s="19"/>
-    </row>
-    <row r="103" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="20" t="s">
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="AMF102" s="17"/>
+      <c r="AMG102" s="17"/>
+      <c r="AMH102" s="17"/>
+      <c r="AMI102" s="17"/>
+      <c r="AMJ102" s="17"/>
+    </row>
+    <row r="103" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A103" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="21" t="s">
+      <c r="D103" s="17"/>
+      <c r="E103" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19" t="s">
+      <c r="F103" s="17"/>
+      <c r="G103" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="AMF103" s="19"/>
-      <c r="AMG103" s="19"/>
-      <c r="AMH103" s="19"/>
-      <c r="AMI103" s="19"/>
-      <c r="AMJ103" s="19"/>
-    </row>
-    <row r="104" s="19" customFormat="1" ht="12.75">
-      <c r="A104" s="20" t="s">
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="AMF103" s="17"/>
+      <c r="AMG103" s="17"/>
+      <c r="AMH103" s="17"/>
+      <c r="AMI103" s="17"/>
+      <c r="AMJ103" s="17"/>
+    </row>
+    <row r="104" s="17" customFormat="1" ht="12.75">
+      <c r="A104" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19" t="s">
+      <c r="D104" s="17"/>
+      <c r="E104" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19" t="s">
+      <c r="F104" s="17"/>
+      <c r="G104" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="AMF104" s="19"/>
-      <c r="AMG104" s="19"/>
-      <c r="AMH104" s="19"/>
-      <c r="AMI104" s="19"/>
-      <c r="AMJ104" s="19"/>
-    </row>
-    <row r="105" s="19" customFormat="1" ht="12.75">
-      <c r="A105" s="20" t="s">
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="AMF104" s="17"/>
+      <c r="AMG104" s="17"/>
+      <c r="AMH104" s="17"/>
+      <c r="AMI104" s="17"/>
+      <c r="AMJ104" s="17"/>
+    </row>
+    <row r="105" s="17" customFormat="1" ht="12.75">
+      <c r="A105" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19" t="s">
+      <c r="D105" s="17"/>
+      <c r="E105" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19" t="s">
+      <c r="F105" s="17"/>
+      <c r="G105" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="AMF105" s="19"/>
-      <c r="AMG105" s="19"/>
-      <c r="AMH105" s="19"/>
-      <c r="AMI105" s="19"/>
-      <c r="AMJ105" s="19"/>
-    </row>
-    <row r="106" s="19" customFormat="1" ht="12.75">
-      <c r="A106" s="20" t="s">
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="AMF105" s="17"/>
+      <c r="AMG105" s="17"/>
+      <c r="AMH105" s="17"/>
+      <c r="AMI105" s="17"/>
+      <c r="AMJ105" s="17"/>
+    </row>
+    <row r="106" s="17" customFormat="1" ht="12.75">
+      <c r="A106" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19" t="s">
+      <c r="D106" s="17"/>
+      <c r="E106" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19" t="s">
+      <c r="F106" s="17"/>
+      <c r="G106" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="AMF106" s="19"/>
-      <c r="AMG106" s="19"/>
-      <c r="AMH106" s="19"/>
-      <c r="AMI106" s="19"/>
-      <c r="AMJ106" s="19"/>
-    </row>
-    <row r="107" s="19" customFormat="1" ht="12.75">
-      <c r="A107" s="20" t="s">
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="AMF106" s="17"/>
+      <c r="AMG106" s="17"/>
+      <c r="AMH106" s="17"/>
+      <c r="AMI106" s="17"/>
+      <c r="AMJ106" s="17"/>
+    </row>
+    <row r="107" s="17" customFormat="1" ht="12.75">
+      <c r="A107" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19" t="s">
+      <c r="D107" s="17"/>
+      <c r="E107" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19" t="s">
+      <c r="F107" s="17"/>
+      <c r="G107" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="AMF107" s="19"/>
-      <c r="AMG107" s="19"/>
-      <c r="AMH107" s="19"/>
-      <c r="AMI107" s="19"/>
-      <c r="AMJ107" s="19"/>
-    </row>
-    <row r="108" s="19" customFormat="1" ht="12.75">
-      <c r="A108" s="20" t="s">
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="AMF107" s="17"/>
+      <c r="AMG107" s="17"/>
+      <c r="AMH107" s="17"/>
+      <c r="AMI107" s="17"/>
+      <c r="AMJ107" s="17"/>
+    </row>
+    <row r="108" s="17" customFormat="1" ht="12.75">
+      <c r="A108" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19" t="s">
+      <c r="D108" s="17"/>
+      <c r="E108" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19" t="s">
+      <c r="F108" s="17"/>
+      <c r="G108" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="AMF108" s="19"/>
-      <c r="AMG108" s="19"/>
-      <c r="AMH108" s="19"/>
-      <c r="AMI108" s="19"/>
-      <c r="AMJ108" s="19"/>
-    </row>
-    <row r="109" s="19" customFormat="1" ht="12.75">
-      <c r="A109" s="20" t="s">
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="AMF108" s="17"/>
+      <c r="AMG108" s="17"/>
+      <c r="AMH108" s="17"/>
+      <c r="AMI108" s="17"/>
+      <c r="AMJ108" s="17"/>
+    </row>
+    <row r="109" s="17" customFormat="1" ht="12.75">
+      <c r="A109" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19" t="s">
+      <c r="D109" s="17"/>
+      <c r="E109" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19" t="s">
+      <c r="F109" s="17"/>
+      <c r="G109" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="AMF109" s="19"/>
-      <c r="AMG109" s="19"/>
-      <c r="AMH109" s="19"/>
-      <c r="AMI109" s="19"/>
-      <c r="AMJ109" s="19"/>
-    </row>
-    <row r="110" s="19" customFormat="1" ht="12.75">
-      <c r="A110" s="20" t="s">
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="AMF109" s="17"/>
+      <c r="AMG109" s="17"/>
+      <c r="AMH109" s="17"/>
+      <c r="AMI109" s="17"/>
+      <c r="AMJ109" s="17"/>
+    </row>
+    <row r="110" s="17" customFormat="1" ht="12.75">
+      <c r="A110" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19" t="s">
+      <c r="D110" s="17"/>
+      <c r="E110" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19" t="s">
+      <c r="F110" s="17"/>
+      <c r="G110" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="AMF110" s="19"/>
-      <c r="AMG110" s="19"/>
-      <c r="AMH110" s="19"/>
-      <c r="AMI110" s="19"/>
-      <c r="AMJ110" s="19"/>
-    </row>
-    <row r="111" s="19" customFormat="1" ht="12.75">
-      <c r="A111" s="20" t="s">
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="AMF110" s="17"/>
+      <c r="AMG110" s="17"/>
+      <c r="AMH110" s="17"/>
+      <c r="AMI110" s="17"/>
+      <c r="AMJ110" s="17"/>
+    </row>
+    <row r="111" s="17" customFormat="1" ht="12.75">
+      <c r="A111" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19" t="s">
+      <c r="D111" s="17"/>
+      <c r="E111" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19" t="s">
+      <c r="F111" s="17"/>
+      <c r="G111" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="AMF111" s="19"/>
-      <c r="AMG111" s="19"/>
-      <c r="AMH111" s="19"/>
-      <c r="AMI111" s="19"/>
-      <c r="AMJ111" s="19"/>
-    </row>
-    <row r="112" s="19" customFormat="1" ht="12.75">
-      <c r="A112" s="20" t="s">
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="AMF111" s="17"/>
+      <c r="AMG111" s="17"/>
+      <c r="AMH111" s="17"/>
+      <c r="AMI111" s="17"/>
+      <c r="AMJ111" s="17"/>
+    </row>
+    <row r="112" s="17" customFormat="1" ht="12.75">
+      <c r="A112" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19" t="s">
+      <c r="D112" s="17"/>
+      <c r="E112" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19" t="s">
+      <c r="F112" s="17"/>
+      <c r="G112" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="AMF112" s="19"/>
-      <c r="AMG112" s="19"/>
-      <c r="AMH112" s="19"/>
-      <c r="AMI112" s="19"/>
-      <c r="AMJ112" s="19"/>
-    </row>
-    <row r="113" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A113" s="20" t="s">
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="AMF112" s="17"/>
+      <c r="AMG112" s="17"/>
+      <c r="AMH112" s="17"/>
+      <c r="AMI112" s="17"/>
+      <c r="AMJ112" s="17"/>
+    </row>
+    <row r="113" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A113" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="21" t="s">
+      <c r="D113" s="17"/>
+      <c r="E113" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19" t="s">
+      <c r="F113" s="17"/>
+      <c r="G113" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="AMF113" s="19"/>
-      <c r="AMG113" s="19"/>
-      <c r="AMH113" s="19"/>
-      <c r="AMI113" s="19"/>
-      <c r="AMJ113" s="19"/>
-    </row>
-    <row r="114" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A114" s="20" t="s">
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="AMF113" s="17"/>
+      <c r="AMG113" s="17"/>
+      <c r="AMH113" s="17"/>
+      <c r="AMI113" s="17"/>
+      <c r="AMJ113" s="17"/>
+    </row>
+    <row r="114" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A114" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="21" t="s">
+      <c r="D114" s="17"/>
+      <c r="E114" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="AMF114" s="19"/>
-      <c r="AMG114" s="19"/>
-      <c r="AMH114" s="19"/>
-      <c r="AMI114" s="19"/>
-      <c r="AMJ114" s="19"/>
-    </row>
-    <row r="115" s="19" customFormat="1" ht="12.75">
-      <c r="A115" s="20" t="s">
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="AMF114" s="17"/>
+      <c r="AMG114" s="17"/>
+      <c r="AMH114" s="17"/>
+      <c r="AMI114" s="17"/>
+      <c r="AMJ114" s="17"/>
+    </row>
+    <row r="115" s="17" customFormat="1" ht="12.75">
+      <c r="A115" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19" t="s">
+      <c r="D115" s="17"/>
+      <c r="E115" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19" t="s">
+      <c r="F115" s="17"/>
+      <c r="G115" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="AMF115" s="19"/>
-      <c r="AMG115" s="19"/>
-      <c r="AMH115" s="19"/>
-      <c r="AMI115" s="19"/>
-      <c r="AMJ115" s="19"/>
-    </row>
-    <row r="116" s="19" customFormat="1" ht="12.75">
-      <c r="A116" s="20" t="s">
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="AMF115" s="17"/>
+      <c r="AMG115" s="17"/>
+      <c r="AMH115" s="17"/>
+      <c r="AMI115" s="17"/>
+      <c r="AMJ115" s="17"/>
+    </row>
+    <row r="116" s="17" customFormat="1" ht="12.75">
+      <c r="A116" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19" t="s">
+      <c r="D116" s="17"/>
+      <c r="E116" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19" t="s">
+      <c r="F116" s="17"/>
+      <c r="G116" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="AMF116" s="19"/>
-      <c r="AMG116" s="19"/>
-      <c r="AMH116" s="19"/>
-      <c r="AMI116" s="19"/>
-      <c r="AMJ116" s="19"/>
-    </row>
-    <row r="117" s="19" customFormat="1" ht="12.75">
-      <c r="A117" s="20" t="s">
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="AMF116" s="17"/>
+      <c r="AMG116" s="17"/>
+      <c r="AMH116" s="17"/>
+      <c r="AMI116" s="17"/>
+      <c r="AMJ116" s="17"/>
+    </row>
+    <row r="117" s="17" customFormat="1" ht="12.75">
+      <c r="A117" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19" t="s">
+      <c r="D117" s="17"/>
+      <c r="E117" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19" t="s">
+      <c r="F117" s="17"/>
+      <c r="G117" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="AMF117" s="19"/>
-      <c r="AMG117" s="19"/>
-      <c r="AMH117" s="19"/>
-      <c r="AMI117" s="19"/>
-      <c r="AMJ117" s="19"/>
-    </row>
-    <row r="118" s="19" customFormat="1" ht="12.75">
-      <c r="A118" s="20" t="s">
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="AMF117" s="17"/>
+      <c r="AMG117" s="17"/>
+      <c r="AMH117" s="17"/>
+      <c r="AMI117" s="17"/>
+      <c r="AMJ117" s="17"/>
+    </row>
+    <row r="118" s="17" customFormat="1" ht="12.75">
+      <c r="A118" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19" t="s">
+      <c r="D118" s="17"/>
+      <c r="E118" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19" t="s">
+      <c r="F118" s="17"/>
+      <c r="G118" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="AMF118" s="19"/>
-      <c r="AMG118" s="19"/>
-      <c r="AMH118" s="19"/>
-      <c r="AMI118" s="19"/>
-      <c r="AMJ118" s="19"/>
-    </row>
-    <row r="119" s="19" customFormat="1" ht="12.75">
-      <c r="A119" s="20" t="s">
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="AMF118" s="17"/>
+      <c r="AMG118" s="17"/>
+      <c r="AMH118" s="17"/>
+      <c r="AMI118" s="17"/>
+      <c r="AMJ118" s="17"/>
+    </row>
+    <row r="119" s="17" customFormat="1" ht="12.75">
+      <c r="A119" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19" t="s">
+      <c r="D119" s="17"/>
+      <c r="E119" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19" t="s">
+      <c r="F119" s="17"/>
+      <c r="G119" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="AMF119" s="19"/>
-      <c r="AMG119" s="19"/>
-      <c r="AMH119" s="19"/>
-      <c r="AMI119" s="19"/>
-      <c r="AMJ119" s="19"/>
-    </row>
-    <row r="120" s="19" customFormat="1" ht="12.75">
-      <c r="A120" s="20" t="s">
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="AMF119" s="17"/>
+      <c r="AMG119" s="17"/>
+      <c r="AMH119" s="17"/>
+      <c r="AMI119" s="17"/>
+      <c r="AMJ119" s="17"/>
+    </row>
+    <row r="120" s="17" customFormat="1" ht="12.75">
+      <c r="A120" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19" t="s">
+      <c r="D120" s="17"/>
+      <c r="E120" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
-      <c r="AMF120" s="19"/>
-      <c r="AMG120" s="19"/>
-      <c r="AMH120" s="19"/>
-      <c r="AMI120" s="19"/>
-      <c r="AMJ120" s="19"/>
-    </row>
-    <row r="121" s="19" customFormat="1" ht="12.75">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
-      <c r="M121" s="19"/>
-      <c r="AMF121" s="19"/>
-      <c r="AMG121" s="19"/>
-      <c r="AMH121" s="19"/>
-      <c r="AMI121" s="19"/>
-      <c r="AMJ121" s="19"/>
-    </row>
-    <row r="122" s="19" customFormat="1" ht="12.75">
-      <c r="A122" s="20" t="s">
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="AMF120" s="17"/>
+      <c r="AMG120" s="17"/>
+      <c r="AMH120" s="17"/>
+      <c r="AMI120" s="17"/>
+      <c r="AMJ120" s="17"/>
+    </row>
+    <row r="121" s="17" customFormat="1" ht="12.75">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="AMF121" s="17"/>
+      <c r="AMG121" s="17"/>
+      <c r="AMH121" s="17"/>
+      <c r="AMI121" s="17"/>
+      <c r="AMJ121" s="17"/>
+    </row>
+    <row r="122" s="17" customFormat="1" ht="12.75">
+      <c r="A122" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19" t="s">
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="AMF122" s="19"/>
-      <c r="AMG122" s="19"/>
-      <c r="AMH122" s="19"/>
-      <c r="AMI122" s="19"/>
-      <c r="AMJ122" s="19"/>
-    </row>
-    <row r="123" s="19" customFormat="1" ht="12.75">
-      <c r="A123" s="20" t="s">
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="AMF122" s="17"/>
+      <c r="AMG122" s="17"/>
+      <c r="AMH122" s="17"/>
+      <c r="AMI122" s="17"/>
+      <c r="AMJ122" s="17"/>
+    </row>
+    <row r="123" s="17" customFormat="1" ht="12.75">
+      <c r="A123" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19" t="s">
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="AMF123" s="19"/>
-      <c r="AMG123" s="19"/>
-      <c r="AMH123" s="19"/>
-      <c r="AMI123" s="19"/>
-      <c r="AMJ123" s="19"/>
-    </row>
-    <row r="124" s="19" customFormat="1" ht="12.75">
-      <c r="A124" s="20" t="s">
+      <c r="AMF123" s="17"/>
+      <c r="AMG123" s="17"/>
+      <c r="AMH123" s="17"/>
+      <c r="AMI123" s="17"/>
+      <c r="AMJ123" s="17"/>
+    </row>
+    <row r="124" s="17" customFormat="1" ht="12.75">
+      <c r="A124" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19" t="s">
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
-      <c r="AMF124" s="19"/>
-      <c r="AMG124" s="19"/>
-      <c r="AMH124" s="19"/>
-      <c r="AMI124" s="19"/>
-      <c r="AMJ124" s="19"/>
-    </row>
-    <row r="125" s="19" customFormat="1" ht="12.75">
-      <c r="A125" s="20" t="s">
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="AMF124" s="17"/>
+      <c r="AMG124" s="17"/>
+      <c r="AMH124" s="17"/>
+      <c r="AMI124" s="17"/>
+      <c r="AMJ124" s="17"/>
+    </row>
+    <row r="125" s="17" customFormat="1" ht="12.75">
+      <c r="A125" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19" t="s">
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
-      <c r="AMF125" s="19"/>
-      <c r="AMG125" s="19"/>
-      <c r="AMH125" s="19"/>
-      <c r="AMI125" s="19"/>
-      <c r="AMJ125" s="19"/>
-    </row>
-    <row r="126" s="19" customFormat="1" ht="12.75">
-      <c r="A126" s="20" t="s">
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="AMF125" s="17"/>
+      <c r="AMG125" s="17"/>
+      <c r="AMH125" s="17"/>
+      <c r="AMI125" s="17"/>
+      <c r="AMJ125" s="17"/>
+    </row>
+    <row r="126" s="17" customFormat="1" ht="12.75">
+      <c r="A126" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19" t="s">
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="AMF126" s="19"/>
-      <c r="AMG126" s="19"/>
-      <c r="AMH126" s="19"/>
-      <c r="AMI126" s="19"/>
-      <c r="AMJ126" s="19"/>
-    </row>
-    <row r="127" s="19" customFormat="1" ht="12.75">
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="AMF126" s="17"/>
+      <c r="AMG126" s="17"/>
+      <c r="AMH126" s="17"/>
+      <c r="AMI126" s="17"/>
+      <c r="AMJ126" s="17"/>
+    </row>
+    <row r="127" s="17" customFormat="1" ht="12.75">
       <c r="A127" s="20" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="AMF127" s="17"/>
+      <c r="AMG127" s="17"/>
+      <c r="AMH127" s="17"/>
+      <c r="AMI127" s="17"/>
+      <c r="AMJ127" s="17"/>
+    </row>
+    <row r="128" s="17" customFormat="1" ht="12.75">
+      <c r="A128" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="AMF127" s="19"/>
-      <c r="AMG127" s="19"/>
-      <c r="AMH127" s="19"/>
-      <c r="AMI127" s="19"/>
-      <c r="AMJ127" s="19"/>
-    </row>
-    <row r="128" s="19" customFormat="1" ht="12.75">
-      <c r="A128" s="20" t="s">
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="AMF128" s="17"/>
+      <c r="AMG128" s="17"/>
+      <c r="AMH128" s="17"/>
+      <c r="AMI128" s="17"/>
+      <c r="AMJ128" s="17"/>
+    </row>
+    <row r="129" s="17" customFormat="1" ht="12.75">
+      <c r="A129" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="AMF129" s="17"/>
+      <c r="AMG129" s="17"/>
+      <c r="AMH129" s="17"/>
+      <c r="AMI129" s="17"/>
+      <c r="AMJ129" s="17"/>
+    </row>
+    <row r="130" s="17" customFormat="1" ht="12.75">
+      <c r="A130" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="AMF130" s="17"/>
+      <c r="AMG130" s="17"/>
+      <c r="AMH130" s="17"/>
+      <c r="AMI130" s="17"/>
+      <c r="AMJ130" s="17"/>
+    </row>
+    <row r="131" s="17" customFormat="1" ht="12.75">
+      <c r="A131" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="AMF131" s="17"/>
+      <c r="AMG131" s="17"/>
+      <c r="AMH131" s="17"/>
+      <c r="AMI131" s="17"/>
+      <c r="AMJ131" s="17"/>
+    </row>
+    <row r="132" s="17" customFormat="1" ht="12.75">
+      <c r="A132" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="AMF132" s="17"/>
+      <c r="AMG132" s="17"/>
+      <c r="AMH132" s="17"/>
+      <c r="AMI132" s="17"/>
+      <c r="AMJ132" s="17"/>
+    </row>
+    <row r="133" s="17" customFormat="1" ht="12.75">
+      <c r="A133" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="AMF133" s="17"/>
+      <c r="AMG133" s="17"/>
+      <c r="AMH133" s="17"/>
+      <c r="AMI133" s="17"/>
+      <c r="AMJ133" s="17"/>
+    </row>
+    <row r="134" s="17" customFormat="1" ht="12.75">
+      <c r="A134" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="AMF134" s="17"/>
+      <c r="AMG134" s="17"/>
+      <c r="AMH134" s="17"/>
+      <c r="AMI134" s="17"/>
+      <c r="AMJ134" s="17"/>
+    </row>
+    <row r="135" s="17" customFormat="1" ht="12.75">
+      <c r="A135" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="AMF135" s="17"/>
+      <c r="AMG135" s="17"/>
+      <c r="AMH135" s="17"/>
+      <c r="AMI135" s="17"/>
+      <c r="AMJ135" s="17"/>
+    </row>
+    <row r="136" s="17" customFormat="1" ht="12.75">
+      <c r="A136" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="AMF136" s="17"/>
+      <c r="AMG136" s="17"/>
+      <c r="AMH136" s="17"/>
+      <c r="AMI136" s="17"/>
+      <c r="AMJ136" s="17"/>
+    </row>
+    <row r="137" s="17" customFormat="1" ht="12.75">
+      <c r="A137" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B128" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19" t="s">
+      <c r="B137" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="AMF137" s="17"/>
+      <c r="AMG137" s="17"/>
+      <c r="AMH137" s="17"/>
+      <c r="AMI137" s="17"/>
+      <c r="AMJ137" s="17"/>
+    </row>
+    <row r="138" s="17" customFormat="1" ht="12.75">
+      <c r="A138" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="AMF128" s="19"/>
-      <c r="AMG128" s="19"/>
-      <c r="AMH128" s="19"/>
-      <c r="AMI128" s="19"/>
-      <c r="AMJ128" s="19"/>
-    </row>
-    <row r="129" s="19" customFormat="1" ht="12.75">
-      <c r="A129" s="20" t="s">
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="AMF138" s="17"/>
+      <c r="AMG138" s="17"/>
+      <c r="AMH138" s="17"/>
+      <c r="AMI138" s="17"/>
+      <c r="AMJ138" s="17"/>
+    </row>
+    <row r="139" s="17" customFormat="1" ht="12.75">
+      <c r="A139" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B129" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19" t="s">
+      <c r="B139" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
-      <c r="AMF129" s="19"/>
-      <c r="AMG129" s="19"/>
-      <c r="AMH129" s="19"/>
-      <c r="AMI129" s="19"/>
-      <c r="AMJ129" s="19"/>
-    </row>
-    <row r="130" s="19" customFormat="1" ht="12.75">
-      <c r="A130" s="22" t="s">
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="AMF139" s="17"/>
+      <c r="AMG139" s="17"/>
+      <c r="AMH139" s="17"/>
+      <c r="AMI139" s="17"/>
+      <c r="AMJ139" s="17"/>
+    </row>
+    <row r="140" s="17" customFormat="1" ht="12.75">
+      <c r="A140" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B140" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C140" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="AMF130" s="19"/>
-      <c r="AMG130" s="19"/>
-      <c r="AMH130" s="19"/>
-      <c r="AMI130" s="19"/>
-      <c r="AMJ130" s="19"/>
-    </row>
-    <row r="131" s="19" customFormat="1" ht="12.75">
-      <c r="A131" s="22" t="s">
+      <c r="D140" s="17"/>
+      <c r="E140" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="AMF140" s="17"/>
+      <c r="AMG140" s="17"/>
+      <c r="AMH140" s="17"/>
+      <c r="AMI140" s="17"/>
+      <c r="AMJ140" s="17"/>
+    </row>
+    <row r="141" s="17" customFormat="1" ht="12.75">
+      <c r="A141" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C131" s="19" t="s">
+      <c r="B141" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19" t="s">
+      <c r="D141" s="17"/>
+      <c r="E141" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="AMF131" s="19"/>
-      <c r="AMG131" s="19"/>
-      <c r="AMH131" s="19"/>
-      <c r="AMI131" s="19"/>
-      <c r="AMJ131" s="19"/>
-    </row>
-    <row r="132" s="19" customFormat="1" ht="12.75">
-      <c r="A132" s="22" t="s">
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="AMF141" s="17"/>
+      <c r="AMG141" s="17"/>
+      <c r="AMH141" s="17"/>
+      <c r="AMI141" s="17"/>
+      <c r="AMJ141" s="17"/>
+    </row>
+    <row r="142" s="17" customFormat="1" ht="12.75">
+      <c r="A142" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B132" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C132" s="19" t="s">
+      <c r="B142" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19" t="s">
+      <c r="D142" s="17"/>
+      <c r="E142" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-      <c r="AMF132" s="19"/>
-      <c r="AMG132" s="19"/>
-      <c r="AMH132" s="19"/>
-      <c r="AMI132" s="19"/>
-      <c r="AMJ132" s="19"/>
-    </row>
-    <row r="133" s="19" customFormat="1" ht="12.75">
-      <c r="A133" s="22" t="s">
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="AMF142" s="17"/>
+      <c r="AMG142" s="17"/>
+      <c r="AMH142" s="17"/>
+      <c r="AMI142" s="17"/>
+      <c r="AMJ142" s="17"/>
+    </row>
+    <row r="143" s="17" customFormat="1" ht="12.75">
+      <c r="A143" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C133" s="19" t="s">
+      <c r="B143" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19" t="s">
+      <c r="D143" s="17"/>
+      <c r="E143" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="AMF133" s="19"/>
-      <c r="AMG133" s="19"/>
-      <c r="AMH133" s="19"/>
-      <c r="AMI133" s="19"/>
-      <c r="AMJ133" s="19"/>
-    </row>
-    <row r="134" s="19" customFormat="1" ht="12.75">
-      <c r="A134" s="22" t="s">
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="AMF143" s="17"/>
+      <c r="AMG143" s="17"/>
+      <c r="AMH143" s="17"/>
+      <c r="AMI143" s="17"/>
+      <c r="AMJ143" s="17"/>
+    </row>
+    <row r="144" s="17" customFormat="1" ht="12.75">
+      <c r="A144" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C134" s="19" t="s">
+      <c r="B144" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19" t="s">
+      <c r="D144" s="17"/>
+      <c r="E144" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="AMF134" s="19"/>
-      <c r="AMG134" s="19"/>
-      <c r="AMH134" s="19"/>
-      <c r="AMI134" s="19"/>
-      <c r="AMJ134" s="19"/>
-    </row>
-    <row r="135" s="19" customFormat="1" ht="12.75">
-      <c r="A135" s="22" t="s">
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="AMF144" s="17"/>
+      <c r="AMG144" s="17"/>
+      <c r="AMH144" s="17"/>
+      <c r="AMI144" s="17"/>
+      <c r="AMJ144" s="17"/>
+    </row>
+    <row r="145" s="17" customFormat="1" ht="12.75">
+      <c r="A145" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B135" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C135" s="19" t="s">
+      <c r="B145" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19" t="s">
+      <c r="D145" s="17"/>
+      <c r="E145" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="AMF135" s="19"/>
-      <c r="AMG135" s="19"/>
-      <c r="AMH135" s="19"/>
-      <c r="AMI135" s="19"/>
-      <c r="AMJ135" s="19"/>
-    </row>
-    <row r="136" s="19" customFormat="1" ht="12.75">
-      <c r="A136" s="22" t="s">
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="AMF145" s="17"/>
+      <c r="AMG145" s="17"/>
+      <c r="AMH145" s="17"/>
+      <c r="AMI145" s="17"/>
+      <c r="AMJ145" s="17"/>
+    </row>
+    <row r="146" s="17" customFormat="1" ht="12.75">
+      <c r="A146" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B136" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C136" s="19" t="s">
+      <c r="B146" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19" t="s">
+      <c r="D146" s="17"/>
+      <c r="E146" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="AMF136" s="19"/>
-      <c r="AMG136" s="19"/>
-      <c r="AMH136" s="19"/>
-      <c r="AMI136" s="19"/>
-      <c r="AMJ136" s="19"/>
-    </row>
-    <row r="137" s="19" customFormat="1" ht="12.75">
-      <c r="A137" s="22" t="s">
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="AMF146" s="17"/>
+      <c r="AMG146" s="17"/>
+      <c r="AMH146" s="17"/>
+      <c r="AMI146" s="17"/>
+      <c r="AMJ146" s="17"/>
+    </row>
+    <row r="147" s="17" customFormat="1" ht="12.75">
+      <c r="A147" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B137" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C137" s="19" t="s">
+      <c r="B147" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19" t="s">
+      <c r="D147" s="17"/>
+      <c r="E147" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="AMF137" s="19"/>
-      <c r="AMG137" s="19"/>
-      <c r="AMH137" s="19"/>
-      <c r="AMI137" s="19"/>
-      <c r="AMJ137" s="19"/>
-    </row>
-    <row r="138" s="19" customFormat="1" ht="12.75">
-      <c r="A138" s="22" t="s">
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="AMF147" s="17"/>
+      <c r="AMG147" s="17"/>
+      <c r="AMH147" s="17"/>
+      <c r="AMI147" s="17"/>
+      <c r="AMJ147" s="17"/>
+    </row>
+    <row r="148" s="17" customFormat="1" ht="12.75">
+      <c r="A148" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B138" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C138" s="19" t="s">
+      <c r="B148" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19" t="s">
+      <c r="D148" s="17"/>
+      <c r="E148" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="AMF138" s="19"/>
-      <c r="AMG138" s="19"/>
-      <c r="AMH138" s="19"/>
-      <c r="AMI138" s="19"/>
-      <c r="AMJ138" s="19"/>
-    </row>
-    <row r="139" s="19" customFormat="1" ht="12.75">
-      <c r="A139" s="22" t="s">
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="AMF148" s="17"/>
+      <c r="AMG148" s="17"/>
+      <c r="AMH148" s="17"/>
+      <c r="AMI148" s="17"/>
+      <c r="AMJ148" s="17"/>
+    </row>
+    <row r="149" s="17" customFormat="1" ht="12.75">
+      <c r="A149" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B139" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C139" s="19" t="s">
+      <c r="B149" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19" t="s">
+      <c r="D149" s="17"/>
+      <c r="E149" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="AMF139" s="19"/>
-      <c r="AMG139" s="19"/>
-      <c r="AMH139" s="19"/>
-      <c r="AMI139" s="19"/>
-      <c r="AMJ139" s="19"/>
-    </row>
-    <row r="140" s="19" customFormat="1" ht="12.75">
-      <c r="A140" s="20" t="s">
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="AMF149" s="17"/>
+      <c r="AMG149" s="17"/>
+      <c r="AMH149" s="17"/>
+      <c r="AMI149" s="17"/>
+      <c r="AMJ149" s="17"/>
+    </row>
+    <row r="150" s="17" customFormat="1" ht="12.75">
+      <c r="A150" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B150" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
-      <c r="AMF140" s="19"/>
-      <c r="AMG140" s="19"/>
-      <c r="AMH140" s="19"/>
-      <c r="AMI140" s="19"/>
-      <c r="AMJ140" s="19"/>
-    </row>
-    <row r="141" s="0" customFormat="1" ht="12.75">
-      <c r="E141" s="6"/>
-      <c r="G141" s="6"/>
-    </row>
-    <row r="142" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A142" s="20" t="s">
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="AMF150" s="17"/>
+      <c r="AMG150" s="17"/>
+      <c r="AMH150" s="17"/>
+      <c r="AMI150" s="17"/>
+      <c r="AMJ150" s="17"/>
+    </row>
+    <row r="151" s="0" customFormat="1" ht="12.75">
+      <c r="E151" s="6"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A152" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B142" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="D142" s="19"/>
-      <c r="E142" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="AMF142" s="19"/>
-      <c r="AMG142" s="19"/>
-      <c r="AMH142" s="19"/>
-      <c r="AMI142" s="19"/>
-      <c r="AMJ142" s="19"/>
-    </row>
-    <row r="143" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A143" s="20" t="s">
+      <c r="B152" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="17"/>
+      <c r="E152" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="AMF152" s="17"/>
+      <c r="AMG152" s="17"/>
+      <c r="AMH152" s="17"/>
+      <c r="AMI152" s="17"/>
+      <c r="AMJ152" s="17"/>
+    </row>
+    <row r="153" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A153" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B143" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="AMF143" s="19"/>
-      <c r="AMG143" s="19"/>
-      <c r="AMH143" s="19"/>
-      <c r="AMI143" s="19"/>
-      <c r="AMJ143" s="19"/>
-    </row>
-    <row r="144" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A144" s="20" t="s">
+      <c r="B153" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D153" s="17"/>
+      <c r="E153" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
+      <c r="AMF153" s="17"/>
+      <c r="AMG153" s="17"/>
+      <c r="AMH153" s="17"/>
+      <c r="AMI153" s="17"/>
+      <c r="AMJ153" s="17"/>
+    </row>
+    <row r="154" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A154" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B144" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C144" s="19" t="s">
+      <c r="B154" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C154" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19" t="s">
+      <c r="D154" s="17"/>
+      <c r="E154" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19" t="s">
+      <c r="F154" s="17"/>
+      <c r="G154" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="AMF144" s="19"/>
-      <c r="AMG144" s="19"/>
-      <c r="AMH144" s="19"/>
-      <c r="AMI144" s="19"/>
-      <c r="AMJ144" s="19"/>
-    </row>
-    <row r="145" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A145" s="20" t="s">
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+      <c r="AMF154" s="17"/>
+      <c r="AMG154" s="17"/>
+      <c r="AMH154" s="17"/>
+      <c r="AMI154" s="17"/>
+      <c r="AMJ154" s="17"/>
+    </row>
+    <row r="155" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A155" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B145" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19" t="s">
+      <c r="B155" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19" t="s">
+      <c r="F155" s="17"/>
+      <c r="G155" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="AMF145" s="19"/>
-      <c r="AMG145" s="19"/>
-      <c r="AMH145" s="19"/>
-      <c r="AMI145" s="19"/>
-      <c r="AMJ145" s="19"/>
-    </row>
-    <row r="146" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A146" s="20" t="s">
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="AMF155" s="17"/>
+      <c r="AMG155" s="17"/>
+      <c r="AMH155" s="17"/>
+      <c r="AMI155" s="17"/>
+      <c r="AMJ155" s="17"/>
+    </row>
+    <row r="156" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A156" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="AMF146" s="19"/>
-      <c r="AMG146" s="19"/>
-      <c r="AMH146" s="19"/>
-      <c r="AMI146" s="19"/>
-      <c r="AMJ146" s="19"/>
-    </row>
-    <row r="147" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A147" s="20" t="s">
+      <c r="B156" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
+      <c r="AMF156" s="17"/>
+      <c r="AMG156" s="17"/>
+      <c r="AMH156" s="17"/>
+      <c r="AMI156" s="17"/>
+      <c r="AMJ156" s="17"/>
+    </row>
+    <row r="157" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A157" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B147" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D147" s="19"/>
-      <c r="E147" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="AMF147" s="19"/>
-      <c r="AMG147" s="19"/>
-      <c r="AMH147" s="19"/>
-      <c r="AMI147" s="19"/>
-      <c r="AMJ147" s="19"/>
-    </row>
-    <row r="148" s="19" customFormat="1" ht="12.75">
-      <c r="A148" s="20" t="s">
+      <c r="B157" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D157" s="17"/>
+      <c r="E157" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="AMF157" s="17"/>
+      <c r="AMG157" s="17"/>
+      <c r="AMH157" s="17"/>
+      <c r="AMI157" s="17"/>
+      <c r="AMJ157" s="17"/>
+    </row>
+    <row r="158" s="17" customFormat="1" ht="12.75">
+      <c r="A158" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B148" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19" t="s">
+      <c r="B158" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="AMF148" s="19"/>
-      <c r="AMG148" s="19"/>
-      <c r="AMH148" s="19"/>
-      <c r="AMI148" s="19"/>
-      <c r="AMJ148" s="19"/>
-    </row>
-    <row r="149" s="19" customFormat="1" ht="12.75">
-      <c r="A149" s="20" t="s">
+      <c r="F158" s="17"/>
+      <c r="G158" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="AMF158" s="17"/>
+      <c r="AMG158" s="17"/>
+      <c r="AMH158" s="17"/>
+      <c r="AMI158" s="17"/>
+      <c r="AMJ158" s="17"/>
+    </row>
+    <row r="159" s="17" customFormat="1" ht="12.75">
+      <c r="A159" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B149" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19" t="s">
+      <c r="B159" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="AMF149" s="19"/>
-      <c r="AMG149" s="19"/>
-      <c r="AMH149" s="19"/>
-      <c r="AMI149" s="19"/>
-      <c r="AMJ149" s="19"/>
-    </row>
-    <row r="150" s="19" customFormat="1" ht="12.75">
-      <c r="A150" s="20" t="s">
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="AMF159" s="17"/>
+      <c r="AMG159" s="17"/>
+      <c r="AMH159" s="17"/>
+      <c r="AMI159" s="17"/>
+      <c r="AMJ159" s="17"/>
+    </row>
+    <row r="160" s="17" customFormat="1" ht="12.75">
+      <c r="A160" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B150" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19" t="s">
+      <c r="B160" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="AMF150" s="19"/>
-      <c r="AMG150" s="19"/>
-      <c r="AMH150" s="19"/>
-      <c r="AMI150" s="19"/>
-      <c r="AMJ150" s="19"/>
-    </row>
-    <row r="151" s="19" customFormat="1" ht="12.75">
-      <c r="A151" s="20" t="s">
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="AMF160" s="17"/>
+      <c r="AMG160" s="17"/>
+      <c r="AMH160" s="17"/>
+      <c r="AMI160" s="17"/>
+      <c r="AMJ160" s="17"/>
+    </row>
+    <row r="161" s="17" customFormat="1" ht="12.75">
+      <c r="A161" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B151" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="AMF151" s="19"/>
-      <c r="AMG151" s="19"/>
-      <c r="AMH151" s="19"/>
-      <c r="AMI151" s="19"/>
-      <c r="AMJ151" s="19"/>
-    </row>
-    <row r="152" s="0" customFormat="1" ht="12.75">
-      <c r="E152" s="6"/>
-      <c r="G152" s="6"/>
-    </row>
-    <row r="153" s="19" customFormat="1" ht="12.75">
-      <c r="A153" s="20" t="s">
+      <c r="B161" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
+      <c r="AMF161" s="17"/>
+      <c r="AMG161" s="17"/>
+      <c r="AMH161" s="17"/>
+      <c r="AMI161" s="17"/>
+      <c r="AMJ161" s="17"/>
+    </row>
+    <row r="162" s="0" customFormat="1" ht="12.75">
+      <c r="E162" s="6"/>
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" s="17" customFormat="1" ht="12.75">
+      <c r="A163" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B153" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C153" s="19" t="s">
+      <c r="B163" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19" t="s">
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="AMF153" s="19"/>
-      <c r="AMG153" s="19"/>
-      <c r="AMH153" s="19"/>
-      <c r="AMI153" s="19"/>
-      <c r="AMJ153" s="19"/>
-    </row>
-    <row r="154" s="19" customFormat="1" ht="12.75">
-      <c r="A154" s="20" t="s">
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="AMF163" s="17"/>
+      <c r="AMG163" s="17"/>
+      <c r="AMH163" s="17"/>
+      <c r="AMI163" s="17"/>
+      <c r="AMJ163" s="17"/>
+    </row>
+    <row r="164" s="17" customFormat="1" ht="12.75">
+      <c r="A164" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B154" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="C154" s="19" t="s">
+      <c r="B164" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="AMF154" s="19"/>
-      <c r="AMG154" s="19"/>
-      <c r="AMH154" s="19"/>
-      <c r="AMI154" s="19"/>
-      <c r="AMJ154" s="19"/>
-    </row>
-    <row r="155" s="19" customFormat="1" ht="12.75">
-      <c r="A155" s="20" t="s">
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="AMF164" s="17"/>
+      <c r="AMG164" s="17"/>
+      <c r="AMH164" s="17"/>
+      <c r="AMI164" s="17"/>
+      <c r="AMJ164" s="17"/>
+    </row>
+    <row r="165" s="17" customFormat="1" ht="12.75">
+      <c r="A165" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B155" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" s="19" t="s">
+      <c r="B165" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="AMF155" s="19"/>
-      <c r="AMG155" s="19"/>
-      <c r="AMH155" s="19"/>
-      <c r="AMI155" s="19"/>
-      <c r="AMJ155" s="19"/>
-    </row>
-    <row r="156" s="19" customFormat="1" ht="12.75">
-      <c r="A156" s="20" t="s">
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+      <c r="AMF165" s="17"/>
+      <c r="AMG165" s="17"/>
+      <c r="AMH165" s="17"/>
+      <c r="AMI165" s="17"/>
+      <c r="AMJ165" s="17"/>
+    </row>
+    <row r="166" s="17" customFormat="1" ht="12.75">
+      <c r="A166" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B156" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="AMF156" s="19"/>
-      <c r="AMG156" s="19"/>
-      <c r="AMH156" s="19"/>
-      <c r="AMI156" s="19"/>
-      <c r="AMJ156" s="19"/>
-    </row>
-    <row r="157" s="0" customFormat="1" ht="12.75">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="G157" s="6"/>
-    </row>
-    <row r="158" s="19" customFormat="1" ht="12.75">
-      <c r="A158" s="20" t="s">
+      <c r="B166" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="AMF166" s="17"/>
+      <c r="AMG166" s="17"/>
+      <c r="AMH166" s="17"/>
+      <c r="AMI166" s="17"/>
+      <c r="AMJ166" s="17"/>
+    </row>
+    <row r="167" s="0" customFormat="1" ht="12.75">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" s="17" customFormat="1" ht="12.75">
+      <c r="A168" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B168" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="AMF158" s="19"/>
-      <c r="AMG158" s="19"/>
-      <c r="AMH158" s="19"/>
-      <c r="AMI158" s="19"/>
-      <c r="AMJ158" s="19"/>
-    </row>
-    <row r="159" ht="12.75"/>
-    <row r="160" ht="12.75"/>
-    <row r="161" ht="12.75"/>
-    <row r="162" ht="12.75"/>
-    <row r="163" ht="12.75"/>
-    <row r="164" ht="12.75"/>
-    <row r="165" ht="12.75"/>
-    <row r="166" ht="12.75"/>
-    <row r="167" ht="12.75"/>
-    <row r="168" ht="12.75"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17"/>
+      <c r="AMF168" s="17"/>
+      <c r="AMG168" s="17"/>
+      <c r="AMH168" s="17"/>
+      <c r="AMI168" s="17"/>
+      <c r="AMJ168" s="17"/>
+    </row>
+    <row r="169" ht="12.75"/>
     <row r="170" ht="12.75"/>
     <row r="171" ht="12.75"/>
     <row r="172" ht="12.75"/>
@@ -6276,36 +6587,45 @@
     <row r="176" ht="12.75"/>
     <row r="177" ht="12.75"/>
     <row r="178" ht="12.75"/>
-    <row r="179" ht="12.75"/>
     <row r="180" ht="12.75"/>
     <row r="181" ht="12.75"/>
     <row r="182" ht="12.75"/>
+    <row r="183" ht="12.75"/>
+    <row r="184" ht="12.75"/>
+    <row r="185" ht="12.75"/>
     <row r="186" ht="12.75"/>
+    <row r="187" ht="12.75"/>
+    <row r="188" ht="12.75"/>
+    <row r="189" ht="12.75"/>
+    <row r="190" ht="12.75"/>
+    <row r="191" ht="12.75"/>
+    <row r="192" ht="12.75"/>
     <row r="196" ht="12.75"/>
-    <row r="197" ht="12.75"/>
-    <row r="198" ht="12.75"/>
-    <row r="199" ht="12.75"/>
-    <row r="200" ht="12.75"/>
-    <row r="201" ht="12.75"/>
-    <row r="202" ht="12.75"/>
-    <row r="203" ht="12.75"/>
-    <row r="204" ht="12.75"/>
-    <row r="205" ht="12.75"/>
+    <row r="206" ht="12.75"/>
+    <row r="207" ht="12.75"/>
+    <row r="208" ht="12.75"/>
+    <row r="209" ht="12.75"/>
     <row r="210" ht="12.75"/>
     <row r="211" ht="12.75"/>
     <row r="212" ht="12.75"/>
     <row r="213" ht="12.75"/>
     <row r="214" ht="12.75"/>
     <row r="215" ht="12.75"/>
-    <row r="216" ht="12.75"/>
-    <row r="217" ht="12.75"/>
-    <row r="218" ht="12.75"/>
-    <row r="219" ht="12.75"/>
     <row r="220" ht="12.75"/>
     <row r="221" ht="12.75"/>
     <row r="222" ht="12.75"/>
     <row r="223" ht="12.75"/>
     <row r="224" ht="12.75"/>
+    <row r="225" ht="12.75"/>
+    <row r="226" ht="12.75"/>
+    <row r="227" ht="12.75"/>
+    <row r="228" ht="12.75"/>
+    <row r="229" ht="12.75"/>
+    <row r="230" ht="12.75"/>
+    <row r="231" ht="12.75"/>
+    <row r="232" ht="12.75"/>
+    <row r="233" ht="12.75"/>
+    <row r="234" ht="12.75"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6337,7 +6657,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6346,10 +6666,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="27"/>
@@ -6375,10 +6695,10 @@
     </row>
     <row r="2" ht="12.75">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>217</v>
@@ -6386,10 +6706,10 @@
     </row>
     <row r="3" ht="12.75">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
         <v>221</v>
@@ -6397,127 +6717,127 @@
     </row>
     <row r="4" ht="12.75">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" ht="14.25"/>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" ht="14.25"/>
@@ -6526,10 +6846,10 @@
         <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -6537,10 +6857,10 @@
         <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" ht="14.25">
@@ -6548,22 +6868,21 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C23" t="s">
         <v>217</v>
       </c>
-      <c r="D23"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B24" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C24" t="s">
         <v>221</v>
@@ -6571,13 +6890,13 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="7" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -6585,24 +6904,24 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C27" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B28" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C28" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" ht="14.25">
@@ -6610,43 +6929,43 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B33" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C33" t="s">
         <v>264</v>
@@ -6657,24 +6976,24 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C35" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C36" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" ht="14.25">
@@ -6682,24 +7001,24 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" ht="14.25"/>
@@ -6708,10 +7027,10 @@
         <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C41" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -6722,7 +7041,7 @@
         <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C42" t="s">
         <v>255</v>
@@ -6736,7 +7055,7 @@
         <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
         <v>258</v>
@@ -6750,7 +7069,7 @@
         <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C44" t="s">
         <v>261</v>
@@ -6764,10 +7083,10 @@
         <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9710,43 +10029,43 @@
   <sheetData>
     <row r="1" ht="12.800000000000001">
       <c r="A1" s="28" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" ht="12.800000000000001">
       <c r="A2" s="29" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C2" s="30">
         <f ca="1">TODAY()</f>
         <v>44901</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
